--- a/Output/Danh muc VTHH.xlsx
+++ b/Output/Danh muc VTHH.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/49bfd0ea95b757c1/Documents/UiPath/RPA_AmberMuaHang/Output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{23B2CAC7-1249-4D24-9056-2CB86AB0D736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F14782AB-67CB-4331-B9A3-F4329EBC83CE}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{23B2CAC7-1249-4D24-9056-2CB86AB0D736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00519D24-CCB9-4AE0-8AE6-56D991196461}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2498" uniqueCount="1549">
   <si>
     <t>Thông tin ngầm định</t>
   </si>
@@ -1702,10 +1702,3002 @@
     <t>Bộ bàn ghế gỗ nướng thịt</t>
   </si>
   <si>
-    <t>BACHI</t>
-  </si>
-  <si>
-    <t>Ba chỉ</t>
+    <t>BACHILON</t>
+  </si>
+  <si>
+    <t>BANHAFC</t>
+  </si>
+  <si>
+    <t>Bánh AFC</t>
+  </si>
+  <si>
+    <t>BANHBAOGYOJA</t>
+  </si>
+  <si>
+    <t>Bánh bao gyoja 1350g</t>
+  </si>
+  <si>
+    <t>BANHBONGLAN</t>
+  </si>
+  <si>
+    <t>Banh bong lan Bomdea</t>
+  </si>
+  <si>
+    <t>BANHBOTNHAO</t>
+  </si>
+  <si>
+    <t>Bánh bột nhào Chungwoo Bánh gạo nếp vị Choco</t>
+  </si>
+  <si>
+    <t>BANHCOSY</t>
+  </si>
+  <si>
+    <t>Bánh cosy TC kep kem</t>
+  </si>
+  <si>
+    <t>BANHCOSYHAT</t>
+  </si>
+  <si>
+    <t>Banh cosy TC rac hat</t>
+  </si>
+  <si>
+    <t>BANHCOSYSOCOLA</t>
+  </si>
+  <si>
+    <t>Banh cosy TC Socola</t>
+  </si>
+  <si>
+    <t>BANHGAOCHONGGA</t>
+  </si>
+  <si>
+    <t>Banh Chongga Banh gao de nau canh 1kg</t>
+  </si>
+  <si>
+    <t>BANHMADONGSAN</t>
+  </si>
+  <si>
+    <t>Banh quay madongsan 90g</t>
+  </si>
+  <si>
+    <t>BANHMITOKBOKI</t>
+  </si>
+  <si>
+    <t>BANHMYVUN</t>
+  </si>
+  <si>
+    <t>Banh my vun Seoul - food 1kg</t>
+  </si>
+  <si>
+    <t>BANHPIA</t>
+  </si>
+  <si>
+    <t>bánh pía</t>
+  </si>
+  <si>
+    <t>BANHQUAYPOPEYE</t>
+  </si>
+  <si>
+    <t>Banh quay Popeye 65g</t>
+  </si>
+  <si>
+    <t>BANHQUE</t>
+  </si>
+  <si>
+    <t>Banh que</t>
+  </si>
+  <si>
+    <t>BANHQUYXOPLAKIM</t>
+  </si>
+  <si>
+    <t>Banh quy xop la kim 144g</t>
+  </si>
+  <si>
+    <t>BANHROMA</t>
+  </si>
+  <si>
+    <t>Banh Roma</t>
+  </si>
+  <si>
+    <t>BANHTOPPODAUVANI</t>
+  </si>
+  <si>
+    <t>BANH TOPPO DAU VANI 40GURT 6P 180G</t>
+  </si>
+  <si>
+    <t>BANHTTEOK</t>
+  </si>
+  <si>
+    <t>Bánh gạo tteokboki</t>
+  </si>
+  <si>
+    <t>BANHTTOK</t>
+  </si>
+  <si>
+    <t>Banh Ttok hỗn hợp</t>
+  </si>
+  <si>
+    <t>BANHXOP</t>
+  </si>
+  <si>
+    <t>Bánh xốp</t>
+  </si>
+  <si>
+    <t>BANHZEC</t>
+  </si>
+  <si>
+    <t>Ban zec 100g</t>
+  </si>
+  <si>
+    <t>BAPCAI</t>
+  </si>
+  <si>
+    <t>bap cai</t>
+  </si>
+  <si>
+    <t>BAROI</t>
+  </si>
+  <si>
+    <t>Ba rọi xông khói Smoked</t>
+  </si>
+  <si>
+    <t>BATLUA</t>
+  </si>
+  <si>
+    <t>Bat lua ga so 1 1ea</t>
+  </si>
+  <si>
+    <t>BEKSUL</t>
+  </si>
+  <si>
+    <t>Beksul Aimi bột ngọt</t>
+  </si>
+  <si>
+    <t>BGOMO</t>
+  </si>
+  <si>
+    <t>BG OMO</t>
+  </si>
+  <si>
+    <t>BIA333</t>
+  </si>
+  <si>
+    <t>Bia 333 (lon) 330ml</t>
+  </si>
+  <si>
+    <t>BIBIGOXEPLON</t>
+  </si>
+  <si>
+    <t>BIBIGO Banh xep tron Lon 490G*2</t>
+  </si>
+  <si>
+    <t>BIBIGOXEPMONG</t>
+  </si>
+  <si>
+    <t>BIDAN</t>
+  </si>
+  <si>
+    <t>Bột ớt đỏ BIDAN RED PEPPER POWDER</t>
+  </si>
+  <si>
+    <t>BIMBIM</t>
+  </si>
+  <si>
+    <t>Bim Bim các loại</t>
+  </si>
+  <si>
+    <t>BIMOHSAJJEU</t>
+  </si>
+  <si>
+    <t>Bim bim ohsajjeu 65g</t>
+  </si>
+  <si>
+    <t>BIRAK</t>
+  </si>
+  <si>
+    <t>Nuoc uong truyen thong Birak sujeonggwa</t>
+  </si>
+  <si>
+    <t>BKAV</t>
+  </si>
+  <si>
+    <t>Hóa đơn BKAV</t>
+  </si>
+  <si>
+    <t>BOMANANCHOR</t>
+  </si>
+  <si>
+    <t>Bơ mặn miếng ANCHOR</t>
+  </si>
+  <si>
+    <t>BOMANPRESIDENT200</t>
+  </si>
+  <si>
+    <t>BO MAN PRESIDENT 200g</t>
+  </si>
+  <si>
+    <t>BONGLUA100</t>
+  </si>
+  <si>
+    <t>Bong lua my 100g</t>
+  </si>
+  <si>
+    <t>BONGTAM</t>
+  </si>
+  <si>
+    <t>Bong tam 1SET</t>
+  </si>
+  <si>
+    <t>BONNEMAMAN</t>
+  </si>
+  <si>
+    <t>bonne maman mut</t>
+  </si>
+  <si>
+    <t>BOSAP</t>
+  </si>
+  <si>
+    <t>Bo sap</t>
+  </si>
+  <si>
+    <t>BOTBANHMI</t>
+  </si>
+  <si>
+    <t>Bột bánh mì</t>
+  </si>
+  <si>
+    <t>BOTCHIEN2KG</t>
+  </si>
+  <si>
+    <t>Bột chiên 2 kg</t>
+  </si>
+  <si>
+    <t>BOTCHIENBANHXEO</t>
+  </si>
+  <si>
+    <t>Bột chiên bánh xèo</t>
+  </si>
+  <si>
+    <t>BOTDAUXANH</t>
+  </si>
+  <si>
+    <t>Bột đậu xanh</t>
+  </si>
+  <si>
+    <t>BOTDUONGDEN</t>
+  </si>
+  <si>
+    <t>Bot Duong den</t>
+  </si>
+  <si>
+    <t>BOTDUONGTRANG</t>
+  </si>
+  <si>
+    <t>Bot Duong trang</t>
+  </si>
+  <si>
+    <t>BOTHODDEOK</t>
+  </si>
+  <si>
+    <t>Bot lam banh Hoddeok gao den mat ong 400g</t>
+  </si>
+  <si>
+    <t>BOTKHOAITAY</t>
+  </si>
+  <si>
+    <t>Bột khoai tây 3kg</t>
+  </si>
+  <si>
+    <t>BOTMI</t>
+  </si>
+  <si>
+    <t>Bột mì</t>
+  </si>
+  <si>
+    <t>BOTMI20KG</t>
+  </si>
+  <si>
+    <t>bot mi 20kg</t>
+  </si>
+  <si>
+    <t>BOTMIDEO</t>
+  </si>
+  <si>
+    <t>Bot mi deo 2.5kg</t>
+  </si>
+  <si>
+    <t>BOTNAU</t>
+  </si>
+  <si>
+    <t>Bot nau 1kilogam</t>
+  </si>
+  <si>
+    <t>BOTNGOT3KG</t>
+  </si>
+  <si>
+    <t>Bot ngot Miwon 3kg</t>
+  </si>
+  <si>
+    <t>BOTOT</t>
+  </si>
+  <si>
+    <t>bột ớt đỏ 1kg</t>
+  </si>
+  <si>
+    <t>BOTOTARIRANG</t>
+  </si>
+  <si>
+    <t>Bot ot Arirang (Lau) 500g</t>
+  </si>
+  <si>
+    <t>BOTOTBIDAN</t>
+  </si>
+  <si>
+    <t>Bột ớt Bidan teayangcho cheongjeongwon</t>
+  </si>
+  <si>
+    <t>BOTOTBIDANREDPEPPER</t>
+  </si>
+  <si>
+    <t>BOTOTCAPSAICIN</t>
+  </si>
+  <si>
+    <t>Bột ớt Capsaicin 1kg</t>
+  </si>
+  <si>
+    <t>BQKPM</t>
+  </si>
+  <si>
+    <t>Banh quy kep pho mai potto</t>
+  </si>
+  <si>
+    <t>BULGOGI</t>
+  </si>
+  <si>
+    <t>Xốt ướp Bulgogi bò</t>
+  </si>
+  <si>
+    <t>BXMUOI</t>
+  </si>
+  <si>
+    <t>Binh xit muoi Homkipa 500ml</t>
+  </si>
+  <si>
+    <t>CABON</t>
+  </si>
+  <si>
+    <t>Ca bon 1pack (3-4 con)</t>
+  </si>
+  <si>
+    <t>CADODAHON</t>
+  </si>
+  <si>
+    <t>Ca do da hon</t>
+  </si>
+  <si>
+    <t>CAFÉ</t>
+  </si>
+  <si>
+    <t>Café uong lien le be mild 175ml</t>
+  </si>
+  <si>
+    <t>CAFEG7</t>
+  </si>
+  <si>
+    <t>Cafe G7</t>
+  </si>
+  <si>
+    <t>CAHODONGLANH</t>
+  </si>
+  <si>
+    <t>Ca ho dong lanh</t>
+  </si>
+  <si>
+    <t>CAHOP</t>
+  </si>
+  <si>
+    <t>Ca dao dong hop 400g</t>
+  </si>
+  <si>
+    <t>CAITHAOJONGGA</t>
+  </si>
+  <si>
+    <t>CAKIEMDONGWON</t>
+  </si>
+  <si>
+    <t>Cá đã chế biển Dongwon (dạng gói) Cá kiếm</t>
+  </si>
+  <si>
+    <t>CAM</t>
+  </si>
+  <si>
+    <t>Cam sanh</t>
+  </si>
+  <si>
+    <t>CAMINHTHAI</t>
+  </si>
+  <si>
+    <t>Cá Minh Thái đông lạnh (21,5kg/box)</t>
+  </si>
+  <si>
+    <t>CAMTKHO</t>
+  </si>
+  <si>
+    <t>Ca Minh Thai kho soi ngon</t>
+  </si>
+  <si>
+    <t>CANGU</t>
+  </si>
+  <si>
+    <t>Ca ngu mild dong hop 150g</t>
+  </si>
+  <si>
+    <t>CANGUNGAMDAU</t>
+  </si>
+  <si>
+    <t>Ca ngu ngam dau 100g</t>
+  </si>
+  <si>
+    <t>CANGUOTCAY</t>
+  </si>
+  <si>
+    <t>Cá ngừ ơt cay 100g</t>
+  </si>
+  <si>
+    <t>CANHBANGAFOOD</t>
+  </si>
+  <si>
+    <t>canh( nuoc dung) banga food</t>
+  </si>
+  <si>
+    <t>CANHBANHGAO</t>
+  </si>
+  <si>
+    <t>Canh banh gao an lien</t>
+  </si>
+  <si>
+    <t>CANHTHITBO</t>
+  </si>
+  <si>
+    <t>Canh thit bo 300g</t>
+  </si>
+  <si>
+    <t>CANOGARI</t>
+  </si>
+  <si>
+    <t>Ca Nogari tẩm ướp 40 cái</t>
+  </si>
+  <si>
+    <t>CAPOLLACKMIENG</t>
+  </si>
+  <si>
+    <t>Ca bien pollack cat mieng</t>
+  </si>
+  <si>
+    <t>CARI</t>
+  </si>
+  <si>
+    <t>Ca ri cay 100g</t>
+  </si>
+  <si>
+    <t>CATHU</t>
+  </si>
+  <si>
+    <t>Ca thu</t>
+  </si>
+  <si>
+    <t>CATHUDONGWON</t>
+  </si>
+  <si>
+    <t>CATRICHKHO</t>
+  </si>
+  <si>
+    <t>Cá trích kho</t>
+  </si>
+  <si>
+    <t>CGHLCAOKHOECD</t>
+  </si>
+  <si>
+    <t>SUA TT CGHL CAO KHOE CD 110ML*4</t>
+  </si>
+  <si>
+    <t>CGHLDAU</t>
+  </si>
+  <si>
+    <t>SUA CGHL DAU 180ML*4</t>
+  </si>
+  <si>
+    <t>CGHLLMENTNCD</t>
+  </si>
+  <si>
+    <t>SCU CGHL 100% L.MEN T.N CD 180ML*4</t>
+  </si>
+  <si>
+    <t>CGHLLMENTNVQUATBHA</t>
+  </si>
+  <si>
+    <t>SCU CGHL 100% L.MEN T.N V.QUAT B.HA 180ML*4</t>
+  </si>
+  <si>
+    <t>CHACABUSAN</t>
+  </si>
+  <si>
+    <t>Cha ca Busan xua 800g</t>
+  </si>
+  <si>
+    <t>CHACACUA</t>
+  </si>
+  <si>
+    <t>Chả cá vị cua 1kg</t>
+  </si>
+  <si>
+    <t>CHACAMINI</t>
+  </si>
+  <si>
+    <t>Chả cá mini 520g</t>
+  </si>
+  <si>
+    <t>CHANHDAY</t>
+  </si>
+  <si>
+    <t>Chanh day moc chau</t>
+  </si>
+  <si>
+    <t>CHAONAM</t>
+  </si>
+  <si>
+    <t>Cháo nấm bibigo 450h</t>
+  </si>
+  <si>
+    <t>CHASAJO</t>
+  </si>
+  <si>
+    <t>CHEONGJEONGWON</t>
+  </si>
+  <si>
+    <t>Bot ot cheongjeongwon</t>
+  </si>
+  <si>
+    <t>CHI</t>
+  </si>
+  <si>
+    <t>Chỉ</t>
+  </si>
+  <si>
+    <t>CHILSUNG</t>
+  </si>
+  <si>
+    <t>NGK Chilsung Cider1.5l</t>
+  </si>
+  <si>
+    <t>CHOCOPIE</t>
+  </si>
+  <si>
+    <t>Banh Chocopie</t>
+  </si>
+  <si>
+    <t>CHONGGA</t>
+  </si>
+  <si>
+    <t>Củ cải đã chế biến Chongga</t>
+  </si>
+  <si>
+    <t>CHONGHA</t>
+  </si>
+  <si>
+    <t>Ruou Chong Ha</t>
+  </si>
+  <si>
+    <t>CHOYATRANG</t>
+  </si>
+  <si>
+    <t>Duong Choya duong trang 60g</t>
+  </si>
+  <si>
+    <t>COC</t>
+  </si>
+  <si>
+    <t>Coc inox 10pc</t>
+  </si>
+  <si>
+    <t>COCONUT</t>
+  </si>
+  <si>
+    <t>thai coconut rice 1L</t>
+  </si>
+  <si>
+    <t>COLDNOODLE</t>
+  </si>
+  <si>
+    <t>Mì lạnh Cold Noodle 2kg</t>
+  </si>
+  <si>
+    <t>COMGAODEN</t>
+  </si>
+  <si>
+    <t>Com gao den 210g</t>
+  </si>
+  <si>
+    <t>COMGAODEN210</t>
+  </si>
+  <si>
+    <t>Cơm gạo đen ăn liền 210g*3</t>
+  </si>
+  <si>
+    <t>Comtrang210</t>
+  </si>
+  <si>
+    <t>Cơm trắng 210g*3</t>
+  </si>
+  <si>
+    <t>CONGTAC</t>
+  </si>
+  <si>
+    <t>Thay công tắc TSS YA018D051G02</t>
+  </si>
+  <si>
+    <t>COTCACOM</t>
+  </si>
+  <si>
+    <t>Nước cốt cá cơm 1kg</t>
+  </si>
+  <si>
+    <t>COTDUAWDF</t>
+  </si>
+  <si>
+    <t>NUOC COT DUA WONDERFARM</t>
+  </si>
+  <si>
+    <t>COZYDAO</t>
+  </si>
+  <si>
+    <t>TRÀ COZY DAO</t>
+  </si>
+  <si>
+    <t>CPMH</t>
+  </si>
+  <si>
+    <t>Chi phí mua hàng</t>
+  </si>
+  <si>
+    <t>CRISPYJOYPHOMAI</t>
+  </si>
+  <si>
+    <t>BANH CRISPY-JOY PHO MAI 280G</t>
+  </si>
+  <si>
+    <t>CSPK</t>
+  </si>
+  <si>
+    <t>Phí công suất phản kháng</t>
+  </si>
+  <si>
+    <t>CUC</t>
+  </si>
+  <si>
+    <t>Cúc</t>
+  </si>
+  <si>
+    <t>CUCAICHONGGA</t>
+  </si>
+  <si>
+    <t>Cu cai da che bien Chongga Cu cai de cuon sushi 3kg</t>
+  </si>
+  <si>
+    <t>CUCAIMUOI</t>
+  </si>
+  <si>
+    <t>Củ cải muối nguyên củ</t>
+  </si>
+  <si>
+    <t>CUCAIMUOIKIMBAP</t>
+  </si>
+  <si>
+    <t>Cu cai muoi dung mon kimbap</t>
+  </si>
+  <si>
+    <t>CUCAITHAISOI</t>
+  </si>
+  <si>
+    <t>Củ cải muối thái sợi làm kimbap 1kg</t>
+  </si>
+  <si>
+    <t>CUCAIVANG</t>
+  </si>
+  <si>
+    <t>Cu cai vang lam Kimbab 3kilogam</t>
+  </si>
+  <si>
+    <t>CUCANMUOI</t>
+  </si>
+  <si>
+    <t>Cu can muoi 550g</t>
+  </si>
+  <si>
+    <t>CUCANMUOI350G</t>
+  </si>
+  <si>
+    <t>Cu can muoi 350g</t>
+  </si>
+  <si>
+    <t>CUNGUUBANG</t>
+  </si>
+  <si>
+    <t>Củ ngưu bàng</t>
+  </si>
+  <si>
+    <t>DADAY</t>
+  </si>
+  <si>
+    <t>Dạ dày</t>
+  </si>
+  <si>
+    <t>DAESANG</t>
+  </si>
+  <si>
+    <t>Tương đậu daesang</t>
+  </si>
+  <si>
+    <t>DALATMILK</t>
+  </si>
+  <si>
+    <t>Sữa TT Dalatmilk 950ml</t>
+  </si>
+  <si>
+    <t>DAMCHOYA</t>
+  </si>
+  <si>
+    <t>DAMMYHYANG</t>
+  </si>
+  <si>
+    <t>Dam myhyang</t>
+  </si>
+  <si>
+    <t>DAMWHAYOUNG</t>
+  </si>
+  <si>
+    <t>Dam Whayoung nha san xuat Cong ty Daesang nha may osan 18L</t>
+  </si>
+  <si>
+    <t>DANMANHINH</t>
+  </si>
+  <si>
+    <t>Miếng dán màn hình</t>
+  </si>
+  <si>
+    <t>DAOTRANG</t>
+  </si>
+  <si>
+    <t>Dao trang 400g</t>
+  </si>
+  <si>
+    <t>DASANI</t>
+  </si>
+  <si>
+    <t>Đồ uống Dasani 350ml 4X6P PET SF W/O CAPSEAL</t>
+  </si>
+  <si>
+    <t>DAUAN</t>
+  </si>
+  <si>
+    <t>dầu ăn</t>
+  </si>
+  <si>
+    <t>DAUANTA</t>
+  </si>
+  <si>
+    <t>Dau an tuong an</t>
+  </si>
+  <si>
+    <t>DAUCAILAN</t>
+  </si>
+  <si>
+    <t>Dầu cái lân</t>
+  </si>
+  <si>
+    <t>DAUDAUNANH</t>
+  </si>
+  <si>
+    <t>Dau dau nanh 900ml</t>
+  </si>
+  <si>
+    <t>DAUHALAN</t>
+  </si>
+  <si>
+    <t>Hat dau ha lan</t>
+  </si>
+  <si>
+    <t>DAUHAO</t>
+  </si>
+  <si>
+    <t>Dầu hào Nam Dương</t>
+  </si>
+  <si>
+    <t>DAUPHONGVIMUCCAYPINATSU</t>
+  </si>
+  <si>
+    <t>DAU PHONG VI MUC CAY PINATSU 95G</t>
+  </si>
+  <si>
+    <t>DAUPHU</t>
+  </si>
+  <si>
+    <t>Dau phu</t>
+  </si>
+  <si>
+    <t>DAUPHUCHIEN</t>
+  </si>
+  <si>
+    <t>Đậu phụ chiên làm sushi</t>
+  </si>
+  <si>
+    <t>DAUTIATO</t>
+  </si>
+  <si>
+    <t>V20181 Dầu tía tô 320ml</t>
+  </si>
+  <si>
+    <t>DIEN</t>
+  </si>
+  <si>
+    <t>Tiền điện</t>
+  </si>
+  <si>
+    <t>DIETCHUOTGIAN</t>
+  </si>
+  <si>
+    <t>Tiền diệt chuột, diệt gián</t>
+  </si>
+  <si>
+    <t>DILMAHBH</t>
+  </si>
+  <si>
+    <t>TRA DILMAH BAC HA</t>
+  </si>
+  <si>
+    <t>DONGWON</t>
+  </si>
+  <si>
+    <t>Gia vị Dongwon</t>
+  </si>
+  <si>
+    <t>DUONGDEN</t>
+  </si>
+  <si>
+    <t>duong den1kg</t>
+  </si>
+  <si>
+    <t>DUONGNAU</t>
+  </si>
+  <si>
+    <t>Duong nau</t>
+  </si>
+  <si>
+    <t>DVANUONG</t>
+  </si>
+  <si>
+    <t>Dịch vụ ăn uống</t>
+  </si>
+  <si>
+    <t>DVBH</t>
+  </si>
+  <si>
+    <t>Dịch vụ bán hàng</t>
+  </si>
+  <si>
+    <t>DVBHXH</t>
+  </si>
+  <si>
+    <t>Dịch vụ bảo hiểm xã hội điện tử Bkav IVAN D</t>
+  </si>
+  <si>
+    <t>DVVT</t>
+  </si>
+  <si>
+    <t>Dịch vụ viễn thông</t>
+  </si>
+  <si>
+    <t>DYNAMITEHUONGDAU</t>
+  </si>
+  <si>
+    <t>KEO DYNAMITE HUONG DAU 330G</t>
+  </si>
+  <si>
+    <t>FAMIGODAODONEPCAM</t>
+  </si>
+  <si>
+    <t>SDN FAMI GO DAO DO NEP CAM 200ML*3</t>
+  </si>
+  <si>
+    <t>FLAFFE</t>
+  </si>
+  <si>
+    <t>Flaffe Dried Mango 200g 1PC</t>
+  </si>
+  <si>
+    <t>FRESHPAN</t>
+  </si>
+  <si>
+    <t>Fresh Pan</t>
+  </si>
+  <si>
+    <t>GANGTAY</t>
+  </si>
+  <si>
+    <t>Gang tay cao su Teahoa 1ea</t>
+  </si>
+  <si>
+    <t>GAS</t>
+  </si>
+  <si>
+    <t>GAUTRUC</t>
+  </si>
+  <si>
+    <t>Dầu hào gấu trúc Lee Kum ki</t>
+  </si>
+  <si>
+    <t>GIAMGAO</t>
+  </si>
+  <si>
+    <t>Giấm gạo nếp</t>
+  </si>
+  <si>
+    <t>GIAMTAO</t>
+  </si>
+  <si>
+    <t>Giấm táo</t>
+  </si>
+  <si>
+    <t>GIANPHOIDANANG</t>
+  </si>
+  <si>
+    <t>Giàn phơi đa năng</t>
+  </si>
+  <si>
+    <t>GIAVIDAESANG</t>
+  </si>
+  <si>
+    <t>Hon hop gia vi Daesang hat nem vi thit bo 1kg</t>
+  </si>
+  <si>
+    <t>GIAVIDONGWON</t>
+  </si>
+  <si>
+    <t>GIAVINAU</t>
+  </si>
+  <si>
+    <t>Gia vị nấu ăn ngon</t>
+  </si>
+  <si>
+    <t>GIAVISIGEWON</t>
+  </si>
+  <si>
+    <t>GIAVIYEWONHURIGAKE</t>
+  </si>
+  <si>
+    <t>GIAYVESINH</t>
+  </si>
+  <si>
+    <t>Giấy vệ sinh 27-30 roll</t>
+  </si>
+  <si>
+    <t>GIAYVSHQ</t>
+  </si>
+  <si>
+    <t>Giay ve sinh cuon HQ</t>
+  </si>
+  <si>
+    <t>GILLETTE</t>
+  </si>
+  <si>
+    <t>Gillette DC MACH 3</t>
+  </si>
+  <si>
+    <t>GUMDOREMON</t>
+  </si>
+  <si>
+    <t>GUM DORAEMON CAM HOP</t>
+  </si>
+  <si>
+    <t>GVSCN</t>
+  </si>
+  <si>
+    <t>HAISAM</t>
+  </si>
+  <si>
+    <t>Hải sâm đông lạnh 10kg/thùng</t>
+  </si>
+  <si>
+    <t>HANGHOA</t>
+  </si>
+  <si>
+    <t>Hàng hóa các loại</t>
+  </si>
+  <si>
+    <t>HANHCONGTO</t>
+  </si>
+  <si>
+    <t>Hành cọng to</t>
+  </si>
+  <si>
+    <t>HAPPYRICE</t>
+  </si>
+  <si>
+    <t>dầu ăn happy rice</t>
+  </si>
+  <si>
+    <t>HATNEMCACOM</t>
+  </si>
+  <si>
+    <t>(DASIDA) Hạt nêm cá cơm 1kg</t>
+  </si>
+  <si>
+    <t>HATVUNGSINSONG</t>
+  </si>
+  <si>
+    <t>Hat an lien Sinsong food hat vung say 430g</t>
+  </si>
+  <si>
+    <t>HH000038</t>
+  </si>
+  <si>
+    <t>Rượu measil Hàn Quốc thfng 12 chai</t>
+  </si>
+  <si>
+    <t>HH000039</t>
+  </si>
+  <si>
+    <t>Bia chai Special 330 ml</t>
+  </si>
+  <si>
+    <t>HH000200</t>
+  </si>
+  <si>
+    <t>Bia Fitz</t>
+  </si>
+  <si>
+    <t>HH00030</t>
+  </si>
+  <si>
+    <t>Rượu Macsil Hàn quốc</t>
+  </si>
+  <si>
+    <t>HH00031</t>
+  </si>
+  <si>
+    <t>Rượu Bekseju  Hàn Quốc</t>
+  </si>
+  <si>
+    <t>HH00032</t>
+  </si>
+  <si>
+    <t>ruou chamisul 360ml</t>
+  </si>
+  <si>
+    <t>HH1</t>
+  </si>
+  <si>
+    <t>Bia sài gòn</t>
+  </si>
+  <si>
+    <t>HH11</t>
+  </si>
+  <si>
+    <t>Rượu Soju Hàn Quốc giá khuyến mãi thùng 20 chai</t>
+  </si>
+  <si>
+    <t>HH12</t>
+  </si>
+  <si>
+    <t>Rượu Chamissul 19 độ</t>
+  </si>
+  <si>
+    <t>HH13</t>
+  </si>
+  <si>
+    <t>Rượu Chumchurrm</t>
+  </si>
+  <si>
+    <t>HH14</t>
+  </si>
+  <si>
+    <t>Rượu Mackoli</t>
+  </si>
+  <si>
+    <t>HH15</t>
+  </si>
+  <si>
+    <t>Rượu Vodka a men nhỏ</t>
+  </si>
+  <si>
+    <t>HH18</t>
+  </si>
+  <si>
+    <t>Trà dâu ngô</t>
+  </si>
+  <si>
+    <t>HH20</t>
+  </si>
+  <si>
+    <t>Nước giải khát Cider 1.5 l</t>
+  </si>
+  <si>
+    <t>HH24</t>
+  </si>
+  <si>
+    <t>Sữa đậu đen hạnh nhân óc chó</t>
+  </si>
+  <si>
+    <t>HH28</t>
+  </si>
+  <si>
+    <t>khăn ướt VS V980</t>
+  </si>
+  <si>
+    <t>HH29</t>
+  </si>
+  <si>
+    <t>Ruou gao Makkolli 750ml</t>
+  </si>
+  <si>
+    <t>HH30</t>
+  </si>
+  <si>
+    <t>Rượu Tineo Plum Soju 13 độ 360 ml</t>
+  </si>
+  <si>
+    <t>HH31</t>
+  </si>
+  <si>
+    <t>Rượu Chamisut Soju 178 độ</t>
+  </si>
+  <si>
+    <t>HH32</t>
+  </si>
+  <si>
+    <t>Rượu Bam Matgeolli 6 độ</t>
+  </si>
+  <si>
+    <t>HH33</t>
+  </si>
+  <si>
+    <t>Rượu Tineo Grape Fruit 13 độ 360ml</t>
+  </si>
+  <si>
+    <t>HH34</t>
+  </si>
+  <si>
+    <t>Rượu Tineo Green Grape 13 độ 360ml</t>
+  </si>
+  <si>
+    <t>HH35</t>
+  </si>
+  <si>
+    <t>Thùng 24 lon nước ngọt coca slee</t>
+  </si>
+  <si>
+    <t>HH36</t>
+  </si>
+  <si>
+    <t>Thùng 24 lon nước ngọt pepsi S</t>
+  </si>
+  <si>
+    <t>HH4</t>
+  </si>
+  <si>
+    <t>Bia Hà Nội chai</t>
+  </si>
+  <si>
+    <t>HH6</t>
+  </si>
+  <si>
+    <t>Nước khoáng Lavie 0.35L</t>
+  </si>
+  <si>
+    <t>HH7</t>
+  </si>
+  <si>
+    <t>Nuoc lavie 5L</t>
+  </si>
+  <si>
+    <t>HOAQUA</t>
+  </si>
+  <si>
+    <t>Hoa quả tráng miệng</t>
+  </si>
+  <si>
+    <t>HOAQUAKHO</t>
+  </si>
+  <si>
+    <t>Hoa quả sấy khô tỏng hợp 1 set</t>
+  </si>
+  <si>
+    <t>HOAQUASAY</t>
+  </si>
+  <si>
+    <t>Hoa quả sấy khô</t>
+  </si>
+  <si>
+    <t>HOPNHUA</t>
+  </si>
+  <si>
+    <t>Hop nhua 5000</t>
+  </si>
+  <si>
+    <t>HOPQUAAN</t>
+  </si>
+  <si>
+    <t>Hop qua an</t>
+  </si>
+  <si>
+    <t>HSTIGER330</t>
+  </si>
+  <si>
+    <t>HS Tiger chai 330ml</t>
+  </si>
+  <si>
+    <t>HUONGDUONG</t>
+  </si>
+  <si>
+    <t>Hat huong duong</t>
+  </si>
+  <si>
+    <t>ICEDAO</t>
+  </si>
+  <si>
+    <t>Icetea Lipton đào</t>
+  </si>
+  <si>
+    <t>JAMBONTOI</t>
+  </si>
+  <si>
+    <t>Jambon Toi</t>
+  </si>
+  <si>
+    <t>JINCAY</t>
+  </si>
+  <si>
+    <t>MI JIN CAY 120G VN</t>
+  </si>
+  <si>
+    <t>JINROBACK</t>
+  </si>
+  <si>
+    <t>Rượu Jinro is back Soju</t>
+  </si>
+  <si>
+    <t>JINROCHAMISUL</t>
+  </si>
+  <si>
+    <t>Rượu Jinro Chamisul Fresh Soju 16.9% ( 1hộp = 20 chai, 1 chai = 360ml, xuất xứ Hàn Quốc)</t>
+  </si>
+  <si>
+    <t>JINROGRAPEFRUIT</t>
+  </si>
+  <si>
+    <t>JINROPLUM</t>
+  </si>
+  <si>
+    <t>JJOLMYEON</t>
+  </si>
+  <si>
+    <t>Mì dai Jjol myeon: chewing noodle (jjolmyeon) 2 kg</t>
+  </si>
+  <si>
+    <t>KDR</t>
+  </si>
+  <si>
+    <t>Kem đánh răng</t>
+  </si>
+  <si>
+    <t>KEM</t>
+  </si>
+  <si>
+    <t>Kem các loại</t>
+  </si>
+  <si>
+    <t>KEMOCQUEWORLDCONE</t>
+  </si>
+  <si>
+    <t>Kem ốc quế Worldcone 160ml</t>
+  </si>
+  <si>
+    <t>KEOGOM</t>
+  </si>
+  <si>
+    <t>kẹo gôm</t>
+  </si>
+  <si>
+    <t>KEOSURI</t>
+  </si>
+  <si>
+    <t>Kẹo Suri</t>
+  </si>
+  <si>
+    <t>KETOAN</t>
+  </si>
+  <si>
+    <t>Phí dịch vụ</t>
+  </si>
+  <si>
+    <t>KHANGIAYCAN</t>
+  </si>
+  <si>
+    <t>Khăn giấy cân rút Silkwell</t>
+  </si>
+  <si>
+    <t>KHANGIAYLAUTAY</t>
+  </si>
+  <si>
+    <t>Khăn giấy lau tay</t>
+  </si>
+  <si>
+    <t>KHANLENCY</t>
+  </si>
+  <si>
+    <t>Khan giay lua lency 280t 1ea</t>
+  </si>
+  <si>
+    <t>KHOAITAY</t>
+  </si>
+  <si>
+    <t>KHOAITAYLAY</t>
+  </si>
+  <si>
+    <t>Khoai tây Lay's</t>
+  </si>
+  <si>
+    <t>KHOGA</t>
+  </si>
+  <si>
+    <t>Kho ga cay bo toi posi</t>
+  </si>
+  <si>
+    <t>KHOHEO</t>
+  </si>
+  <si>
+    <t>Kho heo chay toi posi</t>
+  </si>
+  <si>
+    <t>KIEMTOAN</t>
+  </si>
+  <si>
+    <t>Phí kiểm toán BCTC 678</t>
+  </si>
+  <si>
+    <t>KIMCHIBIBIGO</t>
+  </si>
+  <si>
+    <t>Kim chi cải thảo cây BIBIGO KIMS</t>
+  </si>
+  <si>
+    <t>KIMCHICAITHAO</t>
+  </si>
+  <si>
+    <t>kimchi cai thao</t>
+  </si>
+  <si>
+    <t>KIMCHILV</t>
+  </si>
+  <si>
+    <t>Kim chi lá vừng</t>
+  </si>
+  <si>
+    <t>KIMCHINONGYE</t>
+  </si>
+  <si>
+    <t>Kim chi cải thảo Nongyee</t>
+  </si>
+  <si>
+    <t>KIMCHISAMCHAE</t>
+  </si>
+  <si>
+    <t>Kim chi Samchae tươi Dolsan 1kg</t>
+  </si>
+  <si>
+    <t>KITKAT</t>
+  </si>
+  <si>
+    <t>SCL Kitkat</t>
+  </si>
+  <si>
+    <t>KSGAYHAI</t>
+  </si>
+  <si>
+    <t>Thu phí DV kiểm soát loài gây hại</t>
+  </si>
+  <si>
+    <t>LAGIMBAP</t>
+  </si>
+  <si>
+    <t>la kim lam gimbap 50 la</t>
+  </si>
+  <si>
+    <t>LAKIM</t>
+  </si>
+  <si>
+    <t>la kim an lien truyen thong ji do pyo sung gyung 60g</t>
+  </si>
+  <si>
+    <t>LAKIMGOPCHANG</t>
+  </si>
+  <si>
+    <t>Lá kim gopchang sấy khô 180kg</t>
+  </si>
+  <si>
+    <t>LAKIMVUN</t>
+  </si>
+  <si>
+    <t>La kim vun dieu vi sunggyung 1kg</t>
+  </si>
+  <si>
+    <t>LAVUNG70</t>
+  </si>
+  <si>
+    <t>La vung tam tuong ot 70g</t>
+  </si>
+  <si>
+    <t>LPXD</t>
+  </si>
+  <si>
+    <t>Lệ phí xăng dầu</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>Thịt ức</t>
+  </si>
+  <si>
+    <t>M10</t>
+  </si>
+  <si>
+    <t>Ba chỉ tẩm ớt</t>
+  </si>
+  <si>
+    <t>M11</t>
+  </si>
+  <si>
+    <t>Ba chỉ tươi</t>
+  </si>
+  <si>
+    <t>M12</t>
+  </si>
+  <si>
+    <t>Thịt cổ tươi</t>
+  </si>
+  <si>
+    <t>M13</t>
+  </si>
+  <si>
+    <t>Bánh Ttok 
+Shingdangdong</t>
+  </si>
+  <si>
+    <t>M14</t>
+  </si>
+  <si>
+    <t>Mực xào</t>
+  </si>
+  <si>
+    <t>M15</t>
+  </si>
+  <si>
+    <t>Miến trộn</t>
+  </si>
+  <si>
+    <t>M16</t>
+  </si>
+  <si>
+    <t>Màn thầu Omoni</t>
+  </si>
+  <si>
+    <t>M17</t>
+  </si>
+  <si>
+    <t>Đậu phụ áp chảo</t>
+  </si>
+  <si>
+    <t>M18</t>
+  </si>
+  <si>
+    <t>Bánh hải sản</t>
+  </si>
+  <si>
+    <t>M19</t>
+  </si>
+  <si>
+    <t>Canh tương
+ bí ngòi</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Sườn tẩm gia vị</t>
+  </si>
+  <si>
+    <t>M20</t>
+  </si>
+  <si>
+    <t>Cơm rang lưỡi bò</t>
+  </si>
+  <si>
+    <t>M22</t>
+  </si>
+  <si>
+    <t>Canh kim chi</t>
+  </si>
+  <si>
+    <t>M23</t>
+  </si>
+  <si>
+    <t>Mỳ trộn</t>
+  </si>
+  <si>
+    <t>M25</t>
+  </si>
+  <si>
+    <t>Mỳ Hodong</t>
+  </si>
+  <si>
+    <t>M26</t>
+  </si>
+  <si>
+    <t>Cơm hộp
+ truyền thống</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>Thịt ức tẩm gia vị</t>
+  </si>
+  <si>
+    <t>M4</t>
+  </si>
+  <si>
+    <t>Canh xương
+ hầm kim chi</t>
+  </si>
+  <si>
+    <t>M5</t>
+  </si>
+  <si>
+    <t>Lưỡi bò nướng tỏi</t>
+  </si>
+  <si>
+    <t>M6</t>
+  </si>
+  <si>
+    <t>Sườn thịt bò</t>
+  </si>
+  <si>
+    <t>M7</t>
+  </si>
+  <si>
+    <t>Thịt ba chỉ</t>
+  </si>
+  <si>
+    <t>M8</t>
+  </si>
+  <si>
+    <t>Thịt dải ướp gia vị</t>
+  </si>
+  <si>
+    <t>M9</t>
+  </si>
+  <si>
+    <t>Thịt sườn non</t>
+  </si>
+  <si>
+    <t>MALON</t>
+  </si>
+  <si>
+    <t>MAMDAU</t>
+  </si>
+  <si>
+    <t>mam dau</t>
+  </si>
+  <si>
+    <t>MAMHANSUNG</t>
+  </si>
+  <si>
+    <t>mam hansung mam tung ca 500g</t>
+  </si>
+  <si>
+    <t>MAMTEP</t>
+  </si>
+  <si>
+    <t>Mam tep</t>
+  </si>
+  <si>
+    <t>MANDUCHIEN</t>
+  </si>
+  <si>
+    <t>MANTHAU</t>
+  </si>
+  <si>
+    <t>Man thau Bibigo Wangkyoja</t>
+  </si>
+  <si>
+    <t>MANTHAUCHIEN</t>
+  </si>
+  <si>
+    <t>Man thau chien</t>
+  </si>
+  <si>
+    <t>MARLBORO</t>
+  </si>
+  <si>
+    <t>Marlboro gold RCB moi</t>
+  </si>
+  <si>
+    <t>MARLBOROBLUE</t>
+  </si>
+  <si>
+    <t>Marlboro Blue Advance</t>
+  </si>
+  <si>
+    <t>MATGAO</t>
+  </si>
+  <si>
+    <t>Mat gao</t>
+  </si>
+  <si>
+    <t>MATNGO</t>
+  </si>
+  <si>
+    <t>Mat ngo 18L</t>
+  </si>
+  <si>
+    <t>MATONGTW</t>
+  </si>
+  <si>
+    <t>MAYLANH</t>
+  </si>
+  <si>
+    <t>Máy lạnh LG</t>
+  </si>
+  <si>
+    <t>MAYSAYTAY</t>
+  </si>
+  <si>
+    <t>Máy sấy tay tự động có khay</t>
+  </si>
+  <si>
+    <t>MI3MIEN</t>
+  </si>
+  <si>
+    <t>MI 3 MIEN REEVA TOM CC THAI</t>
+  </si>
+  <si>
+    <t>MIBIBIMMEN</t>
+  </si>
+  <si>
+    <t>Mi BiBim men 130g</t>
+  </si>
+  <si>
+    <t>MIHAOHAO</t>
+  </si>
+  <si>
+    <t>MI HAO HAO XAO TOM</t>
+  </si>
+  <si>
+    <t>MIHYANG</t>
+  </si>
+  <si>
+    <t>Gia vị Mihyang 1.8l</t>
+  </si>
+  <si>
+    <t>MIKOKOMI</t>
+  </si>
+  <si>
+    <t>MI KOKOMI DE VUONG</t>
+  </si>
+  <si>
+    <t>MILKBREAD</t>
+  </si>
+  <si>
+    <t>Milk Bread 1ea</t>
+  </si>
+  <si>
+    <t>MISAMYANG</t>
+  </si>
+  <si>
+    <t>Mì Tôm samyang 120g</t>
+  </si>
+  <si>
+    <t>MIT</t>
+  </si>
+  <si>
+    <t>Mit giong thai cat mieng</t>
+  </si>
+  <si>
+    <t>MITSAY</t>
+  </si>
+  <si>
+    <t>mít sấy</t>
+  </si>
+  <si>
+    <t>MIUDONG</t>
+  </si>
+  <si>
+    <t>Mi udong 110g</t>
+  </si>
+  <si>
+    <t>MIWON1KG</t>
+  </si>
+  <si>
+    <t>Miwon 1kg</t>
+  </si>
+  <si>
+    <t>MONSTER</t>
+  </si>
+  <si>
+    <t>Nước tăng lực monster green</t>
+  </si>
+  <si>
+    <t>MOSAY</t>
+  </si>
+  <si>
+    <t>mơ nho sấy dẻo</t>
+  </si>
+  <si>
+    <t>MTDAESANG</t>
+  </si>
+  <si>
+    <t>Mù tạt daesang 200g</t>
+  </si>
+  <si>
+    <t>MUCONG</t>
+  </si>
+  <si>
+    <t>ĐL,Trung Quốc, Mực ống (300-500g) 13kg/box</t>
+  </si>
+  <si>
+    <t>MUCXA</t>
+  </si>
+  <si>
+    <t>ĐL,Trung Quốc, Mực xà (300-500g) 13,47kg/box</t>
+  </si>
+  <si>
+    <t>MUCXEKHO</t>
+  </si>
+  <si>
+    <t>Muc xe kho</t>
+  </si>
+  <si>
+    <t>MUOIBSGIAVI</t>
+  </si>
+  <si>
+    <t>muối bổ sung gia vị</t>
+  </si>
+  <si>
+    <t>MUOITIEUDAESANG</t>
+  </si>
+  <si>
+    <t>MUT</t>
+  </si>
+  <si>
+    <t>Mứt xoài dẻo</t>
+  </si>
+  <si>
+    <t>MUTATDAESANG</t>
+  </si>
+  <si>
+    <t>MUTATMATONG</t>
+  </si>
+  <si>
+    <t>Sot mu tat mat ong 2kilogam</t>
+  </si>
+  <si>
+    <t>MUTHOAQUA</t>
+  </si>
+  <si>
+    <t>mut tao daesang</t>
+  </si>
+  <si>
+    <t>MYANSEONG</t>
+  </si>
+  <si>
+    <t>Mi Anseog</t>
+  </si>
+  <si>
+    <t>MYBOBAM</t>
+  </si>
+  <si>
+    <t>mỳ ý bò bằm</t>
+  </si>
+  <si>
+    <t>MYCAYBULNAK</t>
+  </si>
+  <si>
+    <t>Mi cay bul nak - Mi tron vi bach tuoc 130g</t>
+  </si>
+  <si>
+    <t>MYCHPAGETI</t>
+  </si>
+  <si>
+    <t>My chapageti bumbuk (coc) 70g</t>
+  </si>
+  <si>
+    <t>MYGAXAOCAY</t>
+  </si>
+  <si>
+    <t>My ga xao cay</t>
+  </si>
+  <si>
+    <t>MYHSJAMBONG</t>
+  </si>
+  <si>
+    <t>Mỳ hải sản Jambong 124g</t>
+  </si>
+  <si>
+    <t>MYKEMTRUNG</t>
+  </si>
+  <si>
+    <t>mỳ ý xốt kem trứng</t>
+  </si>
+  <si>
+    <t>MYKHOAITAY</t>
+  </si>
+  <si>
+    <t>My khoai tay</t>
+  </si>
+  <si>
+    <t>MYKIEUMACHROI</t>
+  </si>
+  <si>
+    <t>My kieu mach roi 116g*4</t>
+  </si>
+  <si>
+    <t>MYLANH</t>
+  </si>
+  <si>
+    <t>My lanh ham heung neang myeon</t>
+  </si>
+  <si>
+    <t>MYLANHHAMHUONG</t>
+  </si>
+  <si>
+    <t>Mỳ lạnh hàm hương Cold noodle (hamheung naengmyeon) 2kg</t>
+  </si>
+  <si>
+    <t>MYLUAMACH</t>
+  </si>
+  <si>
+    <t>Mỳ lúa mạch sợi dài 3kg</t>
+  </si>
+  <si>
+    <t>MYMISIKGA</t>
+  </si>
+  <si>
+    <t>MYNEOGURI</t>
+  </si>
+  <si>
+    <t>My Neoguri cay nong 120g</t>
+  </si>
+  <si>
+    <t>MYNGHEUXOTQUE</t>
+  </si>
+  <si>
+    <t>mỳ ý nghêu và xốt quế tây</t>
+  </si>
+  <si>
+    <t>MYPHO</t>
+  </si>
+  <si>
+    <t>My pho soi vua</t>
+  </si>
+  <si>
+    <t>MYSEANG</t>
+  </si>
+  <si>
+    <t>Mỳ seang seang udon (bat lon) 276g</t>
+  </si>
+  <si>
+    <t>MYTRON</t>
+  </si>
+  <si>
+    <t>My tron 130g</t>
+  </si>
+  <si>
+    <t>MYUDONCHIEN</t>
+  </si>
+  <si>
+    <t>My udon chien(coc) 62g</t>
+  </si>
+  <si>
+    <t>MYYUKECHANG</t>
+  </si>
+  <si>
+    <t>My yukechang (bat) 86g</t>
+  </si>
+  <si>
+    <t>NAMDONGCO</t>
+  </si>
+  <si>
+    <t>Nam dong co 150g</t>
+  </si>
+  <si>
+    <t>NAMYENHQ</t>
+  </si>
+  <si>
+    <t>Nam yen Han Quoc</t>
+  </si>
+  <si>
+    <t>NCNAMNGU</t>
+  </si>
+  <si>
+    <t>NC Nam ngư</t>
+  </si>
+  <si>
+    <t>NESTLENUTRISTRONG</t>
+  </si>
+  <si>
+    <t>SUA NESTLE NUTRISTRONG 180ML*4</t>
+  </si>
+  <si>
+    <t>NGUCOC</t>
+  </si>
+  <si>
+    <t>Ngũ cốc ăn sáng Kellogg chôc chez 340g</t>
+  </si>
+  <si>
+    <t>NGUCOCDAMTUH</t>
+  </si>
+  <si>
+    <t>Hon hop bot ngu coc Damtuh 15 loai hat 20g*12t</t>
+  </si>
+  <si>
+    <t>NHONGDONGLANH</t>
+  </si>
+  <si>
+    <t>Nhong dong lanh 900g</t>
+  </si>
+  <si>
+    <t>NLKSUKO</t>
+  </si>
+  <si>
+    <t>Nước lau kính Suko</t>
+  </si>
+  <si>
+    <t>NLS</t>
+  </si>
+  <si>
+    <t>Nước lau sàn Suko can</t>
+  </si>
+  <si>
+    <t>NOBASHI</t>
+  </si>
+  <si>
+    <t>BT Nobashi 17 TRD (20p*20)</t>
+  </si>
+  <si>
+    <t>NOIDAT</t>
+  </si>
+  <si>
+    <t>Noi dat vior so 4 1ea</t>
+  </si>
+  <si>
+    <t>NRB</t>
+  </si>
+  <si>
+    <t>Nước rửa bát Hecquyn can 3.8kilogam</t>
+  </si>
+  <si>
+    <t>NRTSUKO</t>
+  </si>
+  <si>
+    <t>Nước rửa tay Suko</t>
+  </si>
+  <si>
+    <t>NTR</t>
+  </si>
+  <si>
+    <t>Nuoc tây rua don ve sinh</t>
+  </si>
+  <si>
+    <t>NUOCAQUAFINA</t>
+  </si>
+  <si>
+    <t>Nuoc Aquafina</t>
+  </si>
+  <si>
+    <t>NUOCDASANI1.5</t>
+  </si>
+  <si>
+    <t>Nước Dasani 1.5L</t>
+  </si>
+  <si>
+    <t>NUOCGAO</t>
+  </si>
+  <si>
+    <t>Nước gạo</t>
+  </si>
+  <si>
+    <t>NUOCGAORANG</t>
+  </si>
+  <si>
+    <t>Nuoc gao rang 500ml</t>
+  </si>
+  <si>
+    <t>NUOCLOHOI</t>
+  </si>
+  <si>
+    <t>Nuoc lo hoi 180ml</t>
+  </si>
+  <si>
+    <t>NUOCMAM9KG</t>
+  </si>
+  <si>
+    <t>Nuoc mam ca trong cheongjeongwon 9kg</t>
+  </si>
+  <si>
+    <t>NUOCMAMDAESANG</t>
+  </si>
+  <si>
+    <t>Nuoc mam daesang Nuoc mam ca com 1kg</t>
+  </si>
+  <si>
+    <t>NUOCMYLANH</t>
+  </si>
+  <si>
+    <t>Nước mỳ lạnh</t>
+  </si>
+  <si>
+    <t>NUOCTAO</t>
+  </si>
+  <si>
+    <t>Nước táo màu caramel 2.7L</t>
+  </si>
+  <si>
+    <t>NUOCTAYRUA</t>
+  </si>
+  <si>
+    <t>Nước tẩy rửa (Terminator 5L)</t>
+  </si>
+  <si>
+    <t>NUOCTUONG</t>
+  </si>
+  <si>
+    <t>Nuoc tuong dam Geum F3</t>
+  </si>
+  <si>
+    <t>NVL</t>
+  </si>
+  <si>
+    <t>NXV</t>
+  </si>
+  <si>
+    <t>NXV DOWNY  HOA NOT NGAO</t>
+  </si>
+  <si>
+    <t>OCTUNHIEN</t>
+  </si>
+  <si>
+    <t>Oc tu nhien 230g</t>
+  </si>
+  <si>
+    <t>OCYOODONG</t>
+  </si>
+  <si>
+    <t>Oc da che bien dong hop an lien Yoodong 230g</t>
+  </si>
+  <si>
+    <t>OPLUNG12</t>
+  </si>
+  <si>
+    <t>Ốp lưng Iphone 12</t>
+  </si>
+  <si>
+    <t>OPLUNGA02S</t>
+  </si>
+  <si>
+    <t>Ốp lưng A02s</t>
+  </si>
+  <si>
+    <t>OTBOTGIAVI</t>
+  </si>
+  <si>
+    <t>Ớt bột dùng để muối kim chi</t>
+  </si>
+  <si>
+    <t>OTBOTHEULCHAN</t>
+  </si>
+  <si>
+    <t>OTGIAVI</t>
+  </si>
+  <si>
+    <t>OTH</t>
+  </si>
+  <si>
+    <t>Ớt HQ</t>
+  </si>
+  <si>
+    <t>OTHQ</t>
+  </si>
+  <si>
+    <t>OTKHO</t>
+  </si>
+  <si>
+    <t>Ớt khô nguyên quả</t>
+  </si>
+  <si>
+    <t>PHITIENNUOC</t>
+  </si>
+  <si>
+    <t>Phí quản lý nước, phí tiền nước, phí bảo vệ môi trường</t>
+  </si>
+  <si>
+    <t>PHOMAI</t>
+  </si>
+  <si>
+    <t>PINKIEM</t>
+  </si>
+  <si>
+    <t>Pin kiềm Duracell Coppertop AAA vỉ 2 viên</t>
+  </si>
+  <si>
+    <t>PIZZA3</t>
+  </si>
+  <si>
+    <t>pizza 3 loại</t>
+  </si>
+  <si>
+    <t>PIZZAMAR</t>
+  </si>
+  <si>
+    <t>pizza margherita</t>
+  </si>
+  <si>
+    <t>POCACHIP</t>
+  </si>
+  <si>
+    <t>Bim bim Poca Chip (Original) 66g</t>
+  </si>
+  <si>
+    <t>POLLACK</t>
+  </si>
+  <si>
+    <t>Mam trung ca polac trang</t>
+  </si>
+  <si>
+    <t>POLLACKBOSUNG</t>
+  </si>
+  <si>
+    <t>Cá đã chế biến Bosung(dạng gói) cá pollack500g</t>
+  </si>
+  <si>
+    <t>POLLACKTRA</t>
+  </si>
+  <si>
+    <t>Mam trung ca pollack vi tra xanh</t>
+  </si>
+  <si>
+    <t>PUDDINGDUA</t>
+  </si>
+  <si>
+    <t>Pudding thạch dừa</t>
+  </si>
+  <si>
+    <t>QTDN</t>
+  </si>
+  <si>
+    <t>Phí dịch vụ quản trị doanh nghiệp</t>
+  </si>
+  <si>
+    <t>RAUCUQUA</t>
+  </si>
+  <si>
+    <t>Rau củ quả các loại</t>
+  </si>
+  <si>
+    <t>RAUHQ</t>
+  </si>
+  <si>
+    <t>Rau HQ</t>
+  </si>
+  <si>
+    <t>RAUSONG</t>
+  </si>
+  <si>
+    <t>Rau sống</t>
+  </si>
+  <si>
+    <t>RBBOSUNG</t>
+  </si>
+  <si>
+    <t>Rong biển Bosung đã chề biến đóng gói kín khí ăn liền 50G /hộp</t>
+  </si>
+  <si>
+    <t>RBSUNGGYUNG</t>
+  </si>
+  <si>
+    <t>RONGBIEN</t>
+  </si>
+  <si>
+    <t>Rong bien Ninh Nuoc 1kg</t>
+  </si>
+  <si>
+    <t>RONGBIENCUON</t>
+  </si>
+  <si>
+    <t>Rong bien cuon la he 500g</t>
+  </si>
+  <si>
+    <t>RONGBIENKHO</t>
+  </si>
+  <si>
+    <t>Cuong rong bien muoi</t>
+  </si>
+  <si>
+    <t>RUOUGINSENG28</t>
+  </si>
+  <si>
+    <t>Rượu Korean Gíneng Wine độ cồn 28%</t>
+  </si>
+  <si>
+    <t>RUOUSOJI</t>
+  </si>
+  <si>
+    <t>Ruou Soji choumchorum 360ml</t>
+  </si>
+  <si>
+    <t>SALAD</t>
+  </si>
+  <si>
+    <t>Salad rong biển Hanmirae</t>
+  </si>
+  <si>
+    <t>SAMSUNGA02S</t>
+  </si>
+  <si>
+    <t>Sam sung A02s</t>
+  </si>
+  <si>
+    <t>SANWICH</t>
+  </si>
+  <si>
+    <t>Sandwich Bred 1EA</t>
+  </si>
+  <si>
+    <t>SCVNM</t>
+  </si>
+  <si>
+    <t>Sữa chua Vinamilk</t>
+  </si>
+  <si>
+    <t>SIMPLYCAILAN</t>
+  </si>
+  <si>
+    <t>Dau nanh Simply Cai lan</t>
+  </si>
+  <si>
+    <t>SIRODAESANG</t>
+  </si>
+  <si>
+    <t>Siro Daesang - Si ro ngo CORN SYRUP 18L</t>
+  </si>
+  <si>
+    <t>SIRODS</t>
+  </si>
+  <si>
+    <t>siro daesang</t>
+  </si>
+  <si>
+    <t>SIROSDSNGO</t>
+  </si>
+  <si>
+    <t>Siro Daesang - Si ro ngo CORN SYRUP 10kg</t>
+  </si>
+  <si>
+    <t>SLRAU</t>
+  </si>
+  <si>
+    <t>salad rau xanh với sốt tự chế biến</t>
+  </si>
+  <si>
+    <t>SNACKBAP</t>
+  </si>
+  <si>
+    <t>Snack Bắp</t>
+  </si>
+  <si>
+    <t>SNACKJJANGGU</t>
+  </si>
+  <si>
+    <t>Snack Jjanggu 115g</t>
+  </si>
+  <si>
+    <t>SNACKMI</t>
+  </si>
+  <si>
+    <t>Snack mi</t>
+  </si>
+  <si>
+    <t>SNACKMIENAAKHUONGGA</t>
+  </si>
+  <si>
+    <t>SNACKQUE</t>
+  </si>
+  <si>
+    <t>Snack que</t>
+  </si>
+  <si>
+    <t>SNACKTOFU</t>
+  </si>
+  <si>
+    <t>Snack Tofu 135g</t>
+  </si>
+  <si>
+    <t>SOMI_NAM</t>
+  </si>
+  <si>
+    <t>Áo sơ mi nam</t>
+  </si>
+  <si>
+    <t>SOTKAPSASINCAY</t>
+  </si>
+  <si>
+    <t>Sốt kapsasin vị cay</t>
+  </si>
+  <si>
+    <t>SOTMAYONNAISE</t>
+  </si>
+  <si>
+    <t>Sot mayonnaise</t>
+  </si>
+  <si>
+    <t>SOTOTCAY</t>
+  </si>
+  <si>
+    <t>Sot ot cay 150mL</t>
+  </si>
+  <si>
+    <t>SUA</t>
+  </si>
+  <si>
+    <t>Sua Thanh Trung KD 950ml</t>
+  </si>
+  <si>
+    <t>SUABICHVNMSOCOLA</t>
+  </si>
+  <si>
+    <t>SUA BICH VNM SOCOLA 220ML</t>
+  </si>
+  <si>
+    <t>SUACGHL</t>
+  </si>
+  <si>
+    <t>Sua CGHL CD 180 ml*4</t>
+  </si>
+  <si>
+    <t>SUADAC</t>
+  </si>
+  <si>
+    <t>Sữa đặc</t>
+  </si>
+  <si>
+    <t>SUADACCD</t>
+  </si>
+  <si>
+    <t>SUA DAC CD NSPN XANH BIEN</t>
+  </si>
+  <si>
+    <t>SUATUOITT</t>
+  </si>
+  <si>
+    <t>Sữa tươi thanh trùng 950ml</t>
+  </si>
+  <si>
+    <t>SUPDUOIBO</t>
+  </si>
+  <si>
+    <t>Sup xương duoi bo 350G</t>
+  </si>
+  <si>
+    <t>SUPNAM</t>
+  </si>
+  <si>
+    <t>Sup nam CJW 60g</t>
+  </si>
+  <si>
+    <t>TANGZHONG</t>
+  </si>
+  <si>
+    <t>Tangzhong loaf bread 1EA</t>
+  </si>
+  <si>
+    <t>TAXI</t>
+  </si>
+  <si>
+    <t>Cước Taxi</t>
+  </si>
+  <si>
+    <t>TBCCBRX</t>
+  </si>
+  <si>
+    <t>Thịt ba chỉ CBRX</t>
+  </si>
+  <si>
+    <t>THACHZAIZAI</t>
+  </si>
+  <si>
+    <t>Thạch rau cau zaizai</t>
+  </si>
+  <si>
+    <t>THANBOVN</t>
+  </si>
+  <si>
+    <t>Thăn bò VN</t>
+  </si>
+  <si>
+    <t>THANGMAY</t>
+  </si>
+  <si>
+    <t>Chi phí bảo hành thang máy theo hợp đồng  BT1768A1824</t>
+  </si>
+  <si>
+    <t>THANHCUASAJO</t>
+  </si>
+  <si>
+    <t>Cua da che bien Sajo Daerim thanh cua 1kg</t>
+  </si>
+  <si>
+    <t>THITHOP</t>
+  </si>
+  <si>
+    <t>Thit hop giam bong classic 200g</t>
+  </si>
+  <si>
+    <t>THITHOP200</t>
+  </si>
+  <si>
+    <t>Thiịt hộp 200g</t>
+  </si>
+  <si>
+    <t>THITSAJODAERIM</t>
+  </si>
+  <si>
+    <t>Thịt đã chế biến Sajo Daerim (dạng gói) thịt lợn làm kimpap GIMBOB HAM 1kg</t>
+  </si>
+  <si>
+    <t>THUTTOILET</t>
+  </si>
+  <si>
+    <t>Thut toilet DM-044 1ea</t>
+  </si>
+  <si>
+    <t>TIEUDEN</t>
+  </si>
+  <si>
+    <t>Bot tieu den</t>
+  </si>
+  <si>
+    <t>TOCHOLIMEX</t>
+  </si>
+  <si>
+    <t>TUONG OT CHOLIMEX 2.1KG*1BINH</t>
+  </si>
+  <si>
+    <t>TODAMVI</t>
+  </si>
+  <si>
+    <t>Tương ớt đậm vị ( Hot pepper bean paste) 14kg/ thùng</t>
+  </si>
+  <si>
+    <t>TOKPHOMAI</t>
+  </si>
+  <si>
+    <t>Bánh mì Tokboki phô mai 1kgx8</t>
+  </si>
+  <si>
+    <t>TP001</t>
+  </si>
+  <si>
+    <t>Sườn bò tẩm gia vị</t>
+  </si>
+  <si>
+    <t>TP002</t>
+  </si>
+  <si>
+    <t>TP003</t>
+  </si>
+  <si>
+    <t>Lưỡi bò mỹ</t>
+  </si>
+  <si>
+    <t>TP004</t>
+  </si>
+  <si>
+    <t>TP005</t>
+  </si>
+  <si>
+    <t>Thịt ba chỉ lợn tươi</t>
+  </si>
+  <si>
+    <t>TP006</t>
+  </si>
+  <si>
+    <t>Thịt sườn bò</t>
+  </si>
+  <si>
+    <t>TP007</t>
+  </si>
+  <si>
+    <t>Thit ba chỉ tẩm ớt</t>
+  </si>
+  <si>
+    <t>TP008</t>
+  </si>
+  <si>
+    <t>Thịt ba chỉ bò</t>
+  </si>
+  <si>
+    <t>TP009</t>
+  </si>
+  <si>
+    <t>TP010</t>
+  </si>
+  <si>
+    <t>Bánh gạo Tteobokki</t>
+  </si>
+  <si>
+    <t>TP011</t>
+  </si>
+  <si>
+    <t>TP012</t>
+  </si>
+  <si>
+    <t>TP013</t>
+  </si>
+  <si>
+    <t>TP014</t>
+  </si>
+  <si>
+    <t>TP015</t>
+  </si>
+  <si>
+    <t>Canh Tương bí ngòi</t>
+  </si>
+  <si>
+    <t>TP016</t>
+  </si>
+  <si>
+    <t>Canh Kim chi</t>
+  </si>
+  <si>
+    <t>TP017</t>
+  </si>
+  <si>
+    <t>Mì lạnh củ cải</t>
+  </si>
+  <si>
+    <t>TP018</t>
+  </si>
+  <si>
+    <t>Mì hodong</t>
+  </si>
+  <si>
+    <t>TP019</t>
+  </si>
+  <si>
+    <t>Cơm hộp truyền thống</t>
+  </si>
+  <si>
+    <t>TP020</t>
+  </si>
+  <si>
+    <t>Sườn bò LA</t>
+  </si>
+  <si>
+    <t>TP021</t>
+  </si>
+  <si>
+    <t>TP022</t>
+  </si>
+  <si>
+    <t>Canh tương đậu phụ</t>
+  </si>
+  <si>
+    <t>TP023</t>
+  </si>
+  <si>
+    <t>Thịt năm chỉ tươi</t>
+  </si>
+  <si>
+    <t>TP024</t>
+  </si>
+  <si>
+    <t>Mực xào hải sản</t>
+  </si>
+  <si>
+    <t>TP025</t>
+  </si>
+  <si>
+    <t>Canh xương bò</t>
+  </si>
+  <si>
+    <t>TP026</t>
+  </si>
+  <si>
+    <t>Canh Xương hầm kim chi</t>
+  </si>
+  <si>
+    <t>TP027</t>
+  </si>
+  <si>
+    <t>Cơm rang dạ bò</t>
+  </si>
+  <si>
+    <t>TP028</t>
+  </si>
+  <si>
+    <t>Cơm trắng</t>
+  </si>
+  <si>
+    <t>TP029</t>
+  </si>
+  <si>
+    <t>Cơm trộn thập cẩm</t>
+  </si>
+  <si>
+    <t>TP030</t>
+  </si>
+  <si>
+    <t>Dạ bò nướng tỏi (quai guốc)</t>
+  </si>
+  <si>
+    <t>TP031</t>
+  </si>
+  <si>
+    <t>Thịt má</t>
+  </si>
+  <si>
+    <t>TP032</t>
+  </si>
+  <si>
+    <t>Khoai tây chiên</t>
+  </si>
+  <si>
+    <t>TP033</t>
+  </si>
+  <si>
+    <t>Lẩu bulgogi truyền thống</t>
+  </si>
+  <si>
+    <t>TP034</t>
+  </si>
+  <si>
+    <t>Miến lạnh</t>
+  </si>
+  <si>
+    <t>TP035</t>
+  </si>
+  <si>
+    <t>Thịt bò xào rau sống</t>
+  </si>
+  <si>
+    <t>TP036</t>
+  </si>
+  <si>
+    <t>Thịt cổ lợn ướp</t>
+  </si>
+  <si>
+    <t>TP037</t>
+  </si>
+  <si>
+    <t>Bánh gạo xào cay</t>
+  </si>
+  <si>
+    <t>TP038</t>
+  </si>
+  <si>
+    <t>TRAIBIEN</t>
+  </si>
+  <si>
+    <t>Trai bien bajirak</t>
+  </si>
+  <si>
+    <t>TRAIBIENMISO</t>
+  </si>
+  <si>
+    <t>TRUNGCAPOLLACKMUOI</t>
+  </si>
+  <si>
+    <t>Trung ca pollack muoi 180g</t>
+  </si>
+  <si>
+    <t>TRUNGCHMISU</t>
+  </si>
+  <si>
+    <t>Trứng đã chế biến CJ trứng cá hồi -Misu 650g</t>
+  </si>
+  <si>
+    <t>TRUNGGAMUOI</t>
+  </si>
+  <si>
+    <t>Trung ga muoi</t>
+  </si>
+  <si>
+    <t>TRUNGGAOMEGA</t>
+  </si>
+  <si>
+    <t>Trứng gà OMEGA 3</t>
+  </si>
+  <si>
+    <t>TRUNGGAQUE</t>
+  </si>
+  <si>
+    <t>Trung ga QUE 10ea</t>
+  </si>
+  <si>
+    <t>TRUNGGATUOI</t>
+  </si>
+  <si>
+    <t>Trứng gà tươi Dabaco</t>
+  </si>
+  <si>
+    <t>TUONGCA</t>
+  </si>
+  <si>
+    <t>Tuong ca 300g</t>
+  </si>
+  <si>
+    <t>TUONGCHAM</t>
+  </si>
+  <si>
+    <t>Tương chấm trộn</t>
+  </si>
+  <si>
+    <t>TUONGDAU</t>
+  </si>
+  <si>
+    <t>Tương dầu lên men tự nhiên</t>
+  </si>
+  <si>
+    <t>TUONGDAULENMEN</t>
+  </si>
+  <si>
+    <t>Tương đậu truyền thống</t>
+  </si>
+  <si>
+    <t>TUONGOT</t>
+  </si>
+  <si>
+    <t>Tuong ot Taeyang Gold 500g</t>
+  </si>
+  <si>
+    <t>TUONGTRONANLIEN</t>
+  </si>
+  <si>
+    <t>Tương trộn ăn liền gold</t>
+  </si>
+  <si>
+    <t>VAI</t>
+  </si>
+  <si>
+    <t>Vải</t>
+  </si>
+  <si>
+    <t>VIETQUATDL</t>
+  </si>
+  <si>
+    <t>Viet quat dong lanh 1kilogam</t>
+  </si>
+  <si>
+    <t>VIETQUATDW</t>
+  </si>
+  <si>
+    <t>Hoa quả đóng hộp Dongwon quả việt quất 200g /hộp</t>
+  </si>
+  <si>
+    <t>VT00001</t>
+  </si>
+  <si>
+    <t>Ba chỉ bò mỹ không xương ĐL</t>
+  </si>
+  <si>
+    <t>VT00002</t>
+  </si>
+  <si>
+    <t>Lưỡi bò</t>
+  </si>
+  <si>
+    <t>VT00003</t>
+  </si>
+  <si>
+    <t>Dẻ sườn bò Mỹ không xương ĐL</t>
+  </si>
+  <si>
+    <t>VT00007</t>
+  </si>
+  <si>
+    <t>Bia Sài Gòn Special</t>
+  </si>
+  <si>
+    <t>VT00008</t>
+  </si>
+  <si>
+    <t>Bia Hà Nội 330ml (1 két =24 lon)</t>
+  </si>
+  <si>
+    <t>VT00010</t>
+  </si>
+  <si>
+    <t>CS28 Chảo CARO K0</t>
+  </si>
+  <si>
+    <t>VT00011</t>
+  </si>
+  <si>
+    <t>Ngô ngọt đóng hộp 430g-NG</t>
+  </si>
+  <si>
+    <t>VT00013</t>
+  </si>
+  <si>
+    <t>VT00016</t>
+  </si>
+  <si>
+    <t>304641 Dầu ăn Meizan 9kg</t>
+  </si>
+  <si>
+    <t>VT00017</t>
+  </si>
+  <si>
+    <t>Rượu Chumchurum Soju độ cồn 17% thùng 20 hai</t>
+  </si>
+  <si>
+    <t>VT00018</t>
+  </si>
+  <si>
+    <t>Rượu gạo Makgeolli (Korean Rice Win) Hàn Quốc thùng 16 chai</t>
+  </si>
+  <si>
+    <t>VT00019</t>
+  </si>
+  <si>
+    <t>Rượu soji Chamisul Hàn Quốc thùng 20 chai</t>
+  </si>
+  <si>
+    <t>VT000201</t>
+  </si>
+  <si>
+    <t>Chu ku mi trung3.8 kg</t>
+  </si>
+  <si>
+    <t>VT000202</t>
+  </si>
+  <si>
+    <t>Gia vị rắc cơm furikak</t>
+  </si>
+  <si>
+    <t>VT000203</t>
+  </si>
+  <si>
+    <t>Rượu Jinro strawberry soju</t>
+  </si>
+  <si>
+    <t>VT00022</t>
+  </si>
+  <si>
+    <t>VT000230</t>
+  </si>
+  <si>
+    <t>Sườn không xương Prime</t>
+  </si>
+  <si>
+    <t>VT00026</t>
+  </si>
+  <si>
+    <t>Hộp quà GOUTE 42</t>
+  </si>
+  <si>
+    <t>VT00027</t>
+  </si>
+  <si>
+    <t>Gầu bò mỹ lọc sạch</t>
+  </si>
+  <si>
+    <t>VT00028</t>
+  </si>
+  <si>
+    <t>Nạc vai bò mỹ lọc sạch</t>
+  </si>
+  <si>
+    <t>VT00029</t>
+  </si>
+  <si>
+    <t>Sườn non bò mỹ không xương</t>
+  </si>
+  <si>
+    <t>VT00031</t>
+  </si>
+  <si>
+    <t>006688 Pho mai Mozzarella</t>
+  </si>
+  <si>
+    <t>VT00033</t>
+  </si>
+  <si>
+    <t>VT00034</t>
+  </si>
+  <si>
+    <t>Cải Thảo</t>
+  </si>
+  <si>
+    <t>VT00035</t>
+  </si>
+  <si>
+    <t>Cà Rốt</t>
+  </si>
+  <si>
+    <t>VT00036</t>
+  </si>
+  <si>
+    <t>VT00037</t>
+  </si>
+  <si>
+    <t>VT00038</t>
+  </si>
+  <si>
+    <t>Giá tương</t>
+  </si>
+  <si>
+    <t>VT00039</t>
+  </si>
+  <si>
+    <t>Giấy thấm dầu</t>
+  </si>
+  <si>
+    <t>VT00040</t>
+  </si>
+  <si>
+    <t>VT00041</t>
+  </si>
+  <si>
+    <t>Hành Tây</t>
+  </si>
+  <si>
+    <t>VT00042</t>
+  </si>
+  <si>
+    <t>Hành tepha</t>
+  </si>
+  <si>
+    <t>VT00043</t>
+  </si>
+  <si>
+    <t>VT00044</t>
+  </si>
+  <si>
+    <t>kim chi ngong cu cai yeolmu 500g</t>
+  </si>
+  <si>
+    <t>VT00045</t>
+  </si>
+  <si>
+    <t>VT00046</t>
+  </si>
+  <si>
+    <t>VT00048</t>
+  </si>
+  <si>
+    <t>Nấm thủy tiên</t>
+  </si>
+  <si>
+    <t>VT00051</t>
+  </si>
+  <si>
+    <t>Tỏi</t>
+  </si>
+  <si>
+    <t>abcd</t>
+  </si>
+  <si>
+    <t>abvc</t>
   </si>
 </sst>
 </file>
@@ -1795,7 +4787,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1874,13 +4866,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1992,6 +4999,9 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2275,10 +5285,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AZ17"/>
+  <dimension ref="A1:AZ525"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A416" workbookViewId="0">
+      <selection activeCell="B429" sqref="B429"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2543,11 +5553,11 @@
       </c>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="31" t="s">
         <v>551</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>552</v>
+      <c r="B3" s="31" t="s">
+        <v>409</v>
       </c>
       <c r="C3" s="20"/>
       <c r="D3" s="20"/>
@@ -2571,8 +5581,12 @@
       <c r="V3" s="22"/>
     </row>
     <row r="4" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A4" s="20"/>
-      <c r="B4" s="21"/>
+      <c r="A4" s="31" t="s">
+        <v>552</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>553</v>
+      </c>
       <c r="C4" s="21"/>
       <c r="D4" s="20"/>
       <c r="E4" s="20"/>
@@ -2595,8 +5609,12 @@
       <c r="V4" s="22"/>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A5" s="20"/>
-      <c r="B5" s="21"/>
+      <c r="A5" s="31" t="s">
+        <v>554</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>555</v>
+      </c>
       <c r="C5" s="21"/>
       <c r="D5" s="20"/>
       <c r="E5" s="20"/>
@@ -2619,8 +5637,12 @@
       <c r="V5" s="22"/>
     </row>
     <row r="6" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A6" s="20"/>
-      <c r="B6" s="21"/>
+      <c r="A6" s="31" t="s">
+        <v>556</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>557</v>
+      </c>
       <c r="C6" s="21"/>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
@@ -2642,9 +5664,13 @@
       <c r="U6" s="21"/>
       <c r="V6" s="22"/>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A7" s="20"/>
-      <c r="B7" s="21"/>
+    <row r="7" spans="1:52" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="31" t="s">
+        <v>558</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>559</v>
+      </c>
       <c r="C7" s="21"/>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
@@ -2667,8 +5693,12 @@
       <c r="V7" s="22"/>
     </row>
     <row r="8" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A8" s="20"/>
-      <c r="B8" s="21"/>
+      <c r="A8" s="31" t="s">
+        <v>560</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>561</v>
+      </c>
       <c r="C8" s="21"/>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
@@ -2691,8 +5721,12 @@
       <c r="V8" s="22"/>
     </row>
     <row r="9" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
-      <c r="B9" s="21"/>
+      <c r="A9" s="31" t="s">
+        <v>562</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>563</v>
+      </c>
       <c r="C9" s="21"/>
       <c r="D9" s="20"/>
       <c r="E9" s="20"/>
@@ -2714,9 +5748,13 @@
       <c r="U9" s="21"/>
       <c r="V9" s="22"/>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21"/>
+    <row r="10" spans="1:52" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="31" t="s">
+        <v>564</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>565</v>
+      </c>
       <c r="C10" s="21"/>
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
@@ -2738,9 +5776,13 @@
       <c r="U10" s="21"/>
       <c r="V10" s="22"/>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A11" s="20"/>
-      <c r="B11" s="21"/>
+    <row r="11" spans="1:52" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="31" t="s">
+        <v>566</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>567</v>
+      </c>
       <c r="C11" s="21"/>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2762,9 +5804,13 @@
       <c r="U11" s="21"/>
       <c r="V11" s="22"/>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A12" s="20"/>
-      <c r="B12" s="21"/>
+    <row r="12" spans="1:52" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="31" t="s">
+        <v>568</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>569</v>
+      </c>
       <c r="C12" s="21"/>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2787,8 +5833,12 @@
       <c r="V12" s="22"/>
     </row>
     <row r="13" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A13" s="20"/>
-      <c r="B13" s="21"/>
+      <c r="A13" s="31" t="s">
+        <v>570</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>64</v>
+      </c>
       <c r="C13" s="21"/>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2810,9 +5860,13 @@
       <c r="U13" s="21"/>
       <c r="V13" s="22"/>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A14" s="20"/>
-      <c r="B14" s="21"/>
+    <row r="14" spans="1:52" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="31" t="s">
+        <v>571</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>572</v>
+      </c>
       <c r="C14" s="21"/>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2835,8 +5889,12 @@
       <c r="V14" s="22"/>
     </row>
     <row r="15" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A15" s="20"/>
-      <c r="B15" s="21"/>
+      <c r="A15" s="31" t="s">
+        <v>573</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>574</v>
+      </c>
       <c r="C15" s="21"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
@@ -2858,9 +5916,13 @@
       <c r="U15" s="21"/>
       <c r="V15" s="22"/>
     </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A16" s="20"/>
-      <c r="B16" s="21"/>
+    <row r="16" spans="1:52" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="31" t="s">
+        <v>575</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>576</v>
+      </c>
       <c r="C16" s="21"/>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2883,8 +5945,12 @@
       <c r="V16" s="22"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A17" s="20"/>
-      <c r="B17" s="21"/>
+      <c r="A17" s="31" t="s">
+        <v>577</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>578</v>
+      </c>
       <c r="C17" s="21"/>
       <c r="D17" s="20"/>
       <c r="E17" s="20"/>
@@ -2905,6 +5971,4070 @@
       <c r="T17" s="21"/>
       <c r="U17" s="21"/>
       <c r="V17" s="22"/>
+    </row>
+    <row r="18" spans="1:22" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="31" t="s">
+        <v>579</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A19" s="31" t="s">
+        <v>581</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="31" t="s">
+        <v>583</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A21" s="31" t="s">
+        <v>585</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A22" s="31" t="s">
+        <v>587</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A23" s="31" t="s">
+        <v>589</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A24" s="31" t="s">
+        <v>591</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A25" s="31" t="s">
+        <v>593</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A26" s="31" t="s">
+        <v>595</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A27" s="31" t="s">
+        <v>597</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A28" s="31" t="s">
+        <v>599</v>
+      </c>
+      <c r="B28" s="31" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A29" s="31" t="s">
+        <v>601</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A30" s="31" t="s">
+        <v>603</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="31" t="s">
+        <v>605</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="31" t="s">
+        <v>607</v>
+      </c>
+      <c r="B32" s="31" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="31" t="s">
+        <v>608</v>
+      </c>
+      <c r="B33" s="31" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="31" t="s">
+        <v>610</v>
+      </c>
+      <c r="B34" s="31" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="31" t="s">
+        <v>612</v>
+      </c>
+      <c r="B35" s="31" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="31" t="s">
+        <v>614</v>
+      </c>
+      <c r="B36" s="31" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="31" t="s">
+        <v>616</v>
+      </c>
+      <c r="B37" s="31" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="31" t="s">
+        <v>618</v>
+      </c>
+      <c r="B38" s="31" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="31" t="s">
+        <v>620</v>
+      </c>
+      <c r="B39" s="31" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="31" t="s">
+        <v>622</v>
+      </c>
+      <c r="B40" s="31" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="31" t="s">
+        <v>624</v>
+      </c>
+      <c r="B41" s="31" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="31" t="s">
+        <v>626</v>
+      </c>
+      <c r="B42" s="31" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="31" t="s">
+        <v>628</v>
+      </c>
+      <c r="B43" s="31" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="31" t="s">
+        <v>630</v>
+      </c>
+      <c r="B44" s="31" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="31" t="s">
+        <v>632</v>
+      </c>
+      <c r="B45" s="31" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A46" s="31" t="s">
+        <v>634</v>
+      </c>
+      <c r="B46" s="31" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="31" t="s">
+        <v>636</v>
+      </c>
+      <c r="B47" s="31" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="31" t="s">
+        <v>638</v>
+      </c>
+      <c r="B48" s="31" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A49" s="31" t="s">
+        <v>640</v>
+      </c>
+      <c r="B49" s="31" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A50" s="31" t="s">
+        <v>642</v>
+      </c>
+      <c r="B50" s="31" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="31" t="s">
+        <v>644</v>
+      </c>
+      <c r="B51" s="31" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="31" t="s">
+        <v>646</v>
+      </c>
+      <c r="B52" s="31" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="31" t="s">
+        <v>648</v>
+      </c>
+      <c r="B53" s="31" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="31" t="s">
+        <v>650</v>
+      </c>
+      <c r="B54" s="31" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="31" t="s">
+        <v>652</v>
+      </c>
+      <c r="B55" s="31" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="31" t="s">
+        <v>654</v>
+      </c>
+      <c r="B56" s="31" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="31" t="s">
+        <v>656</v>
+      </c>
+      <c r="B57" s="31" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="31" t="s">
+        <v>658</v>
+      </c>
+      <c r="B58" s="31" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A59" s="31" t="s">
+        <v>660</v>
+      </c>
+      <c r="B59" s="31" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="42" x14ac:dyDescent="0.3">
+      <c r="A60" s="31" t="s">
+        <v>662</v>
+      </c>
+      <c r="B60" s="31" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="31" t="s">
+        <v>663</v>
+      </c>
+      <c r="B61" s="31" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="31" t="s">
+        <v>665</v>
+      </c>
+      <c r="B62" s="31" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="31" t="s">
+        <v>667</v>
+      </c>
+      <c r="B63" s="31" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="31" t="s">
+        <v>669</v>
+      </c>
+      <c r="B64" s="31" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="31" t="s">
+        <v>671</v>
+      </c>
+      <c r="B65" s="31" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="31" t="s">
+        <v>673</v>
+      </c>
+      <c r="B66" s="31" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A67" s="31" t="s">
+        <v>675</v>
+      </c>
+      <c r="B67" s="31" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="31" t="s">
+        <v>677</v>
+      </c>
+      <c r="B68" s="31" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="31" t="s">
+        <v>679</v>
+      </c>
+      <c r="B69" s="31" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="31" t="s">
+        <v>681</v>
+      </c>
+      <c r="B70" s="31" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A71" s="31" t="s">
+        <v>683</v>
+      </c>
+      <c r="B71" s="31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A72" s="31" t="s">
+        <v>684</v>
+      </c>
+      <c r="B72" s="31" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="31" t="s">
+        <v>686</v>
+      </c>
+      <c r="B73" s="31" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A74" s="31" t="s">
+        <v>688</v>
+      </c>
+      <c r="B74" s="31" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="31" t="s">
+        <v>690</v>
+      </c>
+      <c r="B75" s="31" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="31" t="s">
+        <v>692</v>
+      </c>
+      <c r="B76" s="31" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="31" t="s">
+        <v>694</v>
+      </c>
+      <c r="B77" s="31" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="31" t="s">
+        <v>696</v>
+      </c>
+      <c r="B78" s="31" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A79" s="31" t="s">
+        <v>698</v>
+      </c>
+      <c r="B79" s="31" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="31" t="s">
+        <v>700</v>
+      </c>
+      <c r="B80" s="31" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="31" t="s">
+        <v>702</v>
+      </c>
+      <c r="B81" s="31" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="31" t="s">
+        <v>704</v>
+      </c>
+      <c r="B82" s="31" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A83" s="31" t="s">
+        <v>706</v>
+      </c>
+      <c r="B83" s="31" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="31" t="s">
+        <v>708</v>
+      </c>
+      <c r="B84" s="31" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="31" t="s">
+        <v>710</v>
+      </c>
+      <c r="B85" s="31" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A86" s="31" t="s">
+        <v>712</v>
+      </c>
+      <c r="B86" s="31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="31" t="s">
+        <v>713</v>
+      </c>
+      <c r="B87" s="31" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A88" s="31" t="s">
+        <v>715</v>
+      </c>
+      <c r="B88" s="31" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="31" t="s">
+        <v>717</v>
+      </c>
+      <c r="B89" s="31" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A90" s="31" t="s">
+        <v>719</v>
+      </c>
+      <c r="B90" s="31" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="42" x14ac:dyDescent="0.3">
+      <c r="A91" s="31" t="s">
+        <v>721</v>
+      </c>
+      <c r="B91" s="31" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="31" t="s">
+        <v>723</v>
+      </c>
+      <c r="B92" s="31" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="31" t="s">
+        <v>725</v>
+      </c>
+      <c r="B93" s="31" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="31" t="s">
+        <v>727</v>
+      </c>
+      <c r="B94" s="31" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="31" t="s">
+        <v>729</v>
+      </c>
+      <c r="B95" s="31" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="31" t="s">
+        <v>731</v>
+      </c>
+      <c r="B96" s="31" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A97" s="31" t="s">
+        <v>733</v>
+      </c>
+      <c r="B97" s="31" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A98" s="31" t="s">
+        <v>734</v>
+      </c>
+      <c r="B98" s="31" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="31" t="s">
+        <v>736</v>
+      </c>
+      <c r="B99" s="31" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="31" t="s">
+        <v>738</v>
+      </c>
+      <c r="B100" s="31" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="31" t="s">
+        <v>740</v>
+      </c>
+      <c r="B101" s="31" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="31" t="s">
+        <v>742</v>
+      </c>
+      <c r="B102" s="31" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="31" t="s">
+        <v>744</v>
+      </c>
+      <c r="B103" s="31" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="31" t="s">
+        <v>746</v>
+      </c>
+      <c r="B104" s="31" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="31" t="s">
+        <v>748</v>
+      </c>
+      <c r="B105" s="31" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="31" t="s">
+        <v>750</v>
+      </c>
+      <c r="B106" s="31" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="31" t="s">
+        <v>752</v>
+      </c>
+      <c r="B107" s="31" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="31" t="s">
+        <v>754</v>
+      </c>
+      <c r="B108" s="31" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="31" t="s">
+        <v>756</v>
+      </c>
+      <c r="B109" s="31" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="31" t="s">
+        <v>758</v>
+      </c>
+      <c r="B110" s="31" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A111" s="31" t="s">
+        <v>760</v>
+      </c>
+      <c r="B111" s="31" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="B112" s="31" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A113" s="31" t="s">
+        <v>764</v>
+      </c>
+      <c r="B113" s="31" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="31" t="s">
+        <v>766</v>
+      </c>
+      <c r="B114" s="31" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="31" t="s">
+        <v>768</v>
+      </c>
+      <c r="B115" s="31" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A116" s="31" t="s">
+        <v>770</v>
+      </c>
+      <c r="B116" s="31" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="31" t="s">
+        <v>772</v>
+      </c>
+      <c r="B117" s="31" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="31" t="s">
+        <v>774</v>
+      </c>
+      <c r="B118" s="31" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A119" s="31" t="s">
+        <v>776</v>
+      </c>
+      <c r="B119" s="31" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="31" t="s">
+        <v>778</v>
+      </c>
+      <c r="B120" s="31" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A121" s="31" t="s">
+        <v>780</v>
+      </c>
+      <c r="B121" s="31" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A122" s="31" t="s">
+        <v>782</v>
+      </c>
+      <c r="B122" s="31" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A123" s="31" t="s">
+        <v>784</v>
+      </c>
+      <c r="B123" s="31" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="31" t="s">
+        <v>786</v>
+      </c>
+      <c r="B124" s="31" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="31" t="s">
+        <v>788</v>
+      </c>
+      <c r="B125" s="31" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="31" t="s">
+        <v>790</v>
+      </c>
+      <c r="B126" s="31" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="31" t="s">
+        <v>792</v>
+      </c>
+      <c r="B127" s="31" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" s="31" t="s">
+        <v>794</v>
+      </c>
+      <c r="B128" s="31" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="31" t="s">
+        <v>796</v>
+      </c>
+      <c r="B129" s="31" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="31" t="s">
+        <v>798</v>
+      </c>
+      <c r="B130" s="31" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" s="31" t="s">
+        <v>799</v>
+      </c>
+      <c r="B131" s="31" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="42" x14ac:dyDescent="0.3">
+      <c r="A132" s="31" t="s">
+        <v>801</v>
+      </c>
+      <c r="B132" s="31" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" s="31" t="s">
+        <v>803</v>
+      </c>
+      <c r="B133" s="31" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" s="31" t="s">
+        <v>805</v>
+      </c>
+      <c r="B134" s="31" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A135" s="31" t="s">
+        <v>807</v>
+      </c>
+      <c r="B135" s="31" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" s="31" t="s">
+        <v>809</v>
+      </c>
+      <c r="B136" s="31" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" s="31" t="s">
+        <v>811</v>
+      </c>
+      <c r="B137" s="31" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" s="31" t="s">
+        <v>813</v>
+      </c>
+      <c r="B138" s="31" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" s="31" t="s">
+        <v>815</v>
+      </c>
+      <c r="B139" s="31" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="B140" s="31" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" s="31" t="s">
+        <v>819</v>
+      </c>
+      <c r="B141" s="31" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A142" s="31" t="s">
+        <v>821</v>
+      </c>
+      <c r="B142" s="31" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" s="31" t="s">
+        <v>823</v>
+      </c>
+      <c r="B143" s="31" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" s="31" t="s">
+        <v>825</v>
+      </c>
+      <c r="B144" s="31" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" s="31" t="s">
+        <v>827</v>
+      </c>
+      <c r="B145" s="31" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" s="31" t="s">
+        <v>829</v>
+      </c>
+      <c r="B146" s="31" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" s="31" t="s">
+        <v>831</v>
+      </c>
+      <c r="B147" s="31" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" s="31" t="s">
+        <v>833</v>
+      </c>
+      <c r="B148" s="31" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" s="31" t="s">
+        <v>835</v>
+      </c>
+      <c r="B149" s="31" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" s="31" t="s">
+        <v>837</v>
+      </c>
+      <c r="B150" s="31" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" s="31" t="s">
+        <v>839</v>
+      </c>
+      <c r="B151" s="31" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="B152" s="31" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" s="31" t="s">
+        <v>843</v>
+      </c>
+      <c r="B153" s="31" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A154" s="31" t="s">
+        <v>845</v>
+      </c>
+      <c r="B154" s="31" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" s="31" t="s">
+        <v>847</v>
+      </c>
+      <c r="B155" s="31" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A156" s="31" t="s">
+        <v>849</v>
+      </c>
+      <c r="B156" s="31" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A157" s="31" t="s">
+        <v>851</v>
+      </c>
+      <c r="B157" s="31" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" s="31" t="s">
+        <v>853</v>
+      </c>
+      <c r="B158" s="31" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" s="31" t="s">
+        <v>855</v>
+      </c>
+      <c r="B159" s="31" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" s="31" t="s">
+        <v>857</v>
+      </c>
+      <c r="B160" s="31" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" s="31" t="s">
+        <v>859</v>
+      </c>
+      <c r="B161" s="31" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" s="31" t="s">
+        <v>860</v>
+      </c>
+      <c r="B162" s="31" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" s="31" t="s">
+        <v>862</v>
+      </c>
+      <c r="B163" s="31" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" s="31" t="s">
+        <v>864</v>
+      </c>
+      <c r="B164" s="31" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A165" s="31" t="s">
+        <v>866</v>
+      </c>
+      <c r="B165" s="31" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A166" s="31" t="s">
+        <v>868</v>
+      </c>
+      <c r="B166" s="31" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A167" s="31" t="s">
+        <v>870</v>
+      </c>
+      <c r="B167" s="31" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" s="31" t="s">
+        <v>871</v>
+      </c>
+      <c r="B168" s="31" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A169" s="31" t="s">
+        <v>873</v>
+      </c>
+      <c r="B169" s="31" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A170" s="31" t="s">
+        <v>874</v>
+      </c>
+      <c r="B170" s="31" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" s="31" t="s">
+        <v>875</v>
+      </c>
+      <c r="B171" s="31" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" s="31" t="s">
+        <v>877</v>
+      </c>
+      <c r="B172" s="31" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" s="31" t="s">
+        <v>879</v>
+      </c>
+      <c r="B173" s="31" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A174" s="31" t="s">
+        <v>881</v>
+      </c>
+      <c r="B174" s="31" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" s="31" t="s">
+        <v>883</v>
+      </c>
+      <c r="B175" s="31" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" s="31" t="s">
+        <v>884</v>
+      </c>
+      <c r="B176" s="31" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" s="31" t="s">
+        <v>886</v>
+      </c>
+      <c r="B177" s="31" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" s="31" t="s">
+        <v>888</v>
+      </c>
+      <c r="B178" s="31" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" s="31" t="s">
+        <v>890</v>
+      </c>
+      <c r="B179" s="31" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A180" s="31" t="s">
+        <v>892</v>
+      </c>
+      <c r="B180" s="31" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A181" s="31" t="s">
+        <v>894</v>
+      </c>
+      <c r="B181" s="31" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A182" s="31" t="s">
+        <v>896</v>
+      </c>
+      <c r="B182" s="31" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" s="31" t="s">
+        <v>898</v>
+      </c>
+      <c r="B183" s="31" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" s="31" t="s">
+        <v>900</v>
+      </c>
+      <c r="B184" s="31" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" s="31" t="s">
+        <v>902</v>
+      </c>
+      <c r="B185" s="31" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" s="31" t="s">
+        <v>904</v>
+      </c>
+      <c r="B186" s="31" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" s="31" t="s">
+        <v>906</v>
+      </c>
+      <c r="B187" s="31" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" s="31" t="s">
+        <v>908</v>
+      </c>
+      <c r="B188" s="31" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A189" s="31" t="s">
+        <v>910</v>
+      </c>
+      <c r="B189" s="31" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" s="31" t="s">
+        <v>912</v>
+      </c>
+      <c r="B190" s="31" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" s="31" t="s">
+        <v>914</v>
+      </c>
+      <c r="B191" s="31" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" s="31" t="s">
+        <v>916</v>
+      </c>
+      <c r="B192" s="31" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" s="31" t="s">
+        <v>918</v>
+      </c>
+      <c r="B193" s="31" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" s="31" t="s">
+        <v>920</v>
+      </c>
+      <c r="B194" s="31" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" s="31" t="s">
+        <v>922</v>
+      </c>
+      <c r="B195" s="31" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A196" s="31" t="s">
+        <v>924</v>
+      </c>
+      <c r="B196" s="31" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" s="31" t="s">
+        <v>926</v>
+      </c>
+      <c r="B197" s="31" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" s="31" t="s">
+        <v>928</v>
+      </c>
+      <c r="B198" s="31" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A199" s="31" t="s">
+        <v>930</v>
+      </c>
+      <c r="B199" s="31" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" s="31" t="s">
+        <v>932</v>
+      </c>
+      <c r="B200" s="31" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" s="31" t="s">
+        <v>934</v>
+      </c>
+      <c r="B201" s="31" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A202" s="31" t="s">
+        <v>936</v>
+      </c>
+      <c r="B202" s="31" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A203" s="31" t="s">
+        <v>938</v>
+      </c>
+      <c r="B203" s="31" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A204" s="31" t="s">
+        <v>940</v>
+      </c>
+      <c r="B204" s="31" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A205" s="31" t="s">
+        <v>942</v>
+      </c>
+      <c r="B205" s="31" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" s="31" t="s">
+        <v>944</v>
+      </c>
+      <c r="B206" s="31" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" s="31" t="s">
+        <v>946</v>
+      </c>
+      <c r="B207" s="31" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" s="31" t="s">
+        <v>948</v>
+      </c>
+      <c r="B208" s="31" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" s="31" t="s">
+        <v>950</v>
+      </c>
+      <c r="B209" s="31" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A210" s="31" t="s">
+        <v>952</v>
+      </c>
+      <c r="B210" s="31" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" s="31" t="s">
+        <v>954</v>
+      </c>
+      <c r="B211" s="31" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" s="31" t="s">
+        <v>956</v>
+      </c>
+      <c r="B212" s="31" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" s="31" t="s">
+        <v>958</v>
+      </c>
+      <c r="B213" s="31" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" s="31" t="s">
+        <v>960</v>
+      </c>
+      <c r="B214" s="31" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" s="31" t="s">
+        <v>962</v>
+      </c>
+      <c r="B215" s="31" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" s="31" t="s">
+        <v>964</v>
+      </c>
+      <c r="B216" s="31" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" s="31" t="s">
+        <v>966</v>
+      </c>
+      <c r="B217" s="31" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" s="31" t="s">
+        <v>968</v>
+      </c>
+      <c r="B218" s="31" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" s="31" t="s">
+        <v>970</v>
+      </c>
+      <c r="B219" s="31" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" ht="55.8" x14ac:dyDescent="0.3">
+      <c r="A220" s="31" t="s">
+        <v>972</v>
+      </c>
+      <c r="B220" s="31" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" ht="42" x14ac:dyDescent="0.3">
+      <c r="A221" s="31" t="s">
+        <v>974</v>
+      </c>
+      <c r="B221" s="31" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" ht="42" x14ac:dyDescent="0.3">
+      <c r="A222" s="31" t="s">
+        <v>975</v>
+      </c>
+      <c r="B222" s="31" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A223" s="31" t="s">
+        <v>976</v>
+      </c>
+      <c r="B223" s="31" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" s="31" t="s">
+        <v>978</v>
+      </c>
+      <c r="B224" s="31" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" s="31" t="s">
+        <v>980</v>
+      </c>
+      <c r="B225" s="31" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A226" s="31" t="s">
+        <v>982</v>
+      </c>
+      <c r="B226" s="31" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227" s="31" t="s">
+        <v>984</v>
+      </c>
+      <c r="B227" s="31" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228" s="31" t="s">
+        <v>986</v>
+      </c>
+      <c r="B228" s="31" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" s="31" t="s">
+        <v>988</v>
+      </c>
+      <c r="B229" s="31" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230" s="31" t="s">
+        <v>990</v>
+      </c>
+      <c r="B230" s="31" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A231" s="31" t="s">
+        <v>992</v>
+      </c>
+      <c r="B231" s="31" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232" s="31" t="s">
+        <v>994</v>
+      </c>
+      <c r="B232" s="31" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233" s="31" t="s">
+        <v>996</v>
+      </c>
+      <c r="B233" s="31" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234" s="31" t="s">
+        <v>997</v>
+      </c>
+      <c r="B234" s="31" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" s="31" t="s">
+        <v>999</v>
+      </c>
+      <c r="B235" s="31" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236" s="31" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B236" s="31" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237" s="31" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B237" s="31" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A238" s="31" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B238" s="31" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239" s="31" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B239" s="31" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240" s="31" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B240" s="31" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241" s="31" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B241" s="31" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A242" s="31" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B242" s="31" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243" s="31" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B243" s="31" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A244" s="31" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B244" s="31" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245" s="31" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B245" s="31" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A246" s="31" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B246" s="31" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A247" s="31" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B247" s="31" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A248" s="31" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B248" s="31" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249" s="31" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B249" s="31" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250" s="31" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B250" s="31" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251" s="31" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B251" s="31" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252" s="31" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B252" s="31" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253" s="31" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B253" s="31" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254" s="31" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B254" s="31" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A255" s="31" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B255" s="31" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256" s="31" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B256" s="31" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A257" s="31" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B257" s="31" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258" s="31" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B258" s="31" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259" s="31" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B259" s="31" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260" s="31" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B260" s="31" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A261" s="31" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B261" s="31" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262" s="31" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B262" s="31" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263" s="31" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B263" s="31" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264" s="31" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B264" s="31" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A265" s="31" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B265" s="31" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A266" s="31" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B266" s="31" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A267" s="31" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B267" s="31" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A268" s="31" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B268" s="31" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A269" s="31" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B269" s="31" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A270" s="31" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B270" s="31" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A271" s="31" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B271" s="31" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A272" s="31" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B272" s="31" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A273" s="31" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B273" s="31" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A274" s="31" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B274" s="31" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A275" s="31" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B275" s="31" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A276" s="31" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B276" s="31" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A277" s="31" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B277" s="31" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278" s="31" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B278" s="31" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A279" s="31" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B279" s="31" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A280" s="31" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B280" s="31" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A281" s="31" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B281" s="31" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A282" s="31" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B282" s="31" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A283" s="31" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B283" s="31" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A284" s="31" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B284" s="31" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A285" s="31" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B285" s="31" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A286" s="31" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B286" s="31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A287" s="31" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B287" s="31" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A288" s="31" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B288" s="31" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A289" s="31" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B289" s="31" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A290" s="31" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B290" s="31" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A291" s="31" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B291" s="31" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A292" s="31" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B292" s="31" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A293" s="31" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B293" s="31" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A294" s="31" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B294" s="31" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A295" s="31" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B295" s="31" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A296" s="31" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B296" s="31" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A297" s="31" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B297" s="31" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A298" s="31" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B298" s="31" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A299" s="31" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B299" s="31" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A300" s="31" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B300" s="31" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A301" s="31" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B301" s="31" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A302" s="31" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B302" s="31" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A303" s="31" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B303" s="31" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A304" s="31" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B304" s="31" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A305" s="31" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B305" s="31" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A306" s="31" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B306" s="31" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A307" s="31" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B307" s="31" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A308" s="31" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B308" s="31" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A309" s="31" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B309" s="31" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A310" s="31" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B310" s="31" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A311" s="31" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B311" s="31" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A312" s="31" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B312" s="31" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A313" s="31" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B313" s="31" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A314" s="31" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B314" s="31" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A315" s="31" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B315" s="31" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A316" s="31" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B316" s="31" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A317" s="31" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B317" s="31" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A318" s="31" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B318" s="31" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A319" s="31" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B319" s="31" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A320" s="31" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B320" s="31" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A321" s="31" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B321" s="31" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" ht="42" x14ac:dyDescent="0.3">
+      <c r="A322" s="31" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B322" s="31" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A323" s="31" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B323" s="31" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A324" s="31" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B324" s="31" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A325" s="31" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B325" s="31" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A326" s="31" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B326" s="31" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A327" s="31" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B327" s="31" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A328" s="31" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B328" s="31" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A329" s="31" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B329" s="31" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A330" s="31" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B330" s="31" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A331" s="31" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B331" s="31" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A332" s="31" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B332" s="31" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A333" s="31" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B333" s="31" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A334" s="31" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B334" s="31" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A335" s="31" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B335" s="31" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A336" s="31" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B336" s="31" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A337" s="31" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B337" s="31" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A338" s="31" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B338" s="31" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A339" s="31" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B339" s="31" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A340" s="31" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B340" s="31" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A341" s="31" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B341" s="31" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A342" s="31" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B342" s="31" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A343" s="31" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B343" s="31" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A344" s="31" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B344" s="31" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A345" s="31" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B345" s="31" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A346" s="31" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B346" s="31" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A347" s="31" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B347" s="31" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A348" s="31" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B348" s="31" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A349" s="31" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B349" s="31" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A350" s="31" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B350" s="31" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A351" s="31" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B351" s="31" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A352" s="31" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B352" s="31" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A353" s="31" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B353" s="31" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A354" s="31" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B354" s="31" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A355" s="31" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B355" s="31" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A356" s="31" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B356" s="31" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A357" s="31" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B357" s="31" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A358" s="31" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B358" s="31" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A359" s="31" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B359" s="31" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A360" s="31" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B360" s="31" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A361" s="31" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B361" s="31" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A362" s="31" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B362" s="31" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A363" s="31" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B363" s="31" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A364" s="31" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B364" s="31" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A365" s="31" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B365" s="31" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A366" s="31" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B366" s="31" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A367" s="31" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B367" s="31" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A368" s="31" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B368" s="31" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A369" s="31" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B369" s="31" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A370" s="31" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B370" s="31" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A371" s="31" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B371" s="31" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A372" s="31" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B372" s="31" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A373" s="31" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B373" s="31" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A374" s="31" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B374" s="31" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A375" s="31" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B375" s="31" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A376" s="31" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B376" s="31" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A377" s="31" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B377" s="31" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A378" s="31" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B378" s="31" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A379" s="31" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B379" s="31" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A380" s="31" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B380" s="31" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A381" s="31" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B381" s="31" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A382" s="31" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B382" s="31" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" ht="42" x14ac:dyDescent="0.3">
+      <c r="A383" s="31" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B383" s="31" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" ht="42" x14ac:dyDescent="0.3">
+      <c r="A384" s="31" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B384" s="31" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A385" s="31" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B385" s="31" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A386" s="31" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B386" s="31" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A387" s="31" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B387" s="31" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A388" s="31" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B388" s="31" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A389" s="31" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B389" s="31" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A390" s="31" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B390" s="31" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A391" s="31" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B391" s="31" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A392" s="31" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B392" s="31" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A393" s="31" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B393" s="31" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A394" s="31" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B394" s="31" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A395" s="31" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B395" s="31" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A396" s="31" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B396" s="31" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A397" s="31" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B397" s="31" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A398" s="31" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B398" s="31" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A399" s="31" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B399" s="31" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A400" s="31" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B400" s="31" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A401" s="31" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B401" s="31" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" ht="42" x14ac:dyDescent="0.3">
+      <c r="A402" s="31" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B402" s="31" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A403" s="31" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B403" s="31" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A404" s="31" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B404" s="31" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A405" s="31" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B405" s="31" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A406" s="31" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B406" s="31" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A407" s="31" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B407" s="31" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A408" s="31" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B408" s="31" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A409" s="31" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B409" s="31" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A410" s="31" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B410" s="31" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A411" s="31" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B411" s="31" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A412" s="31" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B412" s="31" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A413" s="31" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B413" s="31" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A414" s="31" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B414" s="31" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A415" s="31" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B415" s="31" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A416" s="31" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B416" s="31" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A417" s="31" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B417" s="31" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A418" s="31" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B418" s="31" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A419" s="31" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B419" s="31" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A420" s="31" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B420" s="31" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A421" s="31" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B421" s="31" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" ht="42" x14ac:dyDescent="0.3">
+      <c r="A422" s="31" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B422" s="31" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A423" s="31" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B423" s="31" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A424" s="31" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B424" s="31" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A425" s="31" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B425" s="31" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" ht="42" x14ac:dyDescent="0.3">
+      <c r="A426" s="31" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B426" s="31" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A427" s="31" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B427" s="31" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A428" s="31" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B428" s="31" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A429" s="31" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B429" s="31" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A430" s="31" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B430" s="31" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A431" s="31" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B431" s="31" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A432" s="31" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B432" s="31" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A433" s="31" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B433" s="31" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A434" s="31" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B434" s="31" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A435" s="31" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B435" s="31" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A436" s="31" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B436" s="31" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A437" s="31" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B437" s="31" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A438" s="31" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B438" s="31" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A439" s="31" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B439" s="31" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A440" s="31" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B440" s="31" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A441" s="31" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B441" s="31" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A442" s="31" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B442" s="31" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A443" s="31" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B443" s="31" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A444" s="31" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B444" s="31" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A445" s="31" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B445" s="31" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A446" s="31" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B446" s="31" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A447" s="31" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B447" s="31" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A448" s="31" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B448" s="31" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A449" s="31" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B449" s="31" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A450" s="31" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B450" s="31" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A451" s="31" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B451" s="31" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A452" s="31" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B452" s="31" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A453" s="31" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B453" s="31" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A454" s="31" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B454" s="31" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A455" s="31" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B455" s="31" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A456" s="31" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B456" s="31" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A457" s="31" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B457" s="31" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A458" s="31" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B458" s="31" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A459" s="31" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B459" s="31" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A460" s="31" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B460" s="31" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A461" s="31" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B461" s="31" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A462" s="31" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B462" s="31" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A463" s="31" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B463" s="31" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A464" s="31" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B464" s="31" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A465" s="31" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B465" s="31" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A466" s="31" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B466" s="31" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A467" s="31" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B467" s="31" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A468" s="31" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B468" s="31" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A469" s="31" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B469" s="31" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A470" s="31" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B470" s="31" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A471" s="31" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B471" s="31" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A472" s="31" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B472" s="31" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A473" s="31" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B473" s="31" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A474" s="31" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B474" s="31" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A475" s="31" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B475" s="31" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A476" s="31" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B476" s="31" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A477" s="31" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B477" s="31" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A478" s="31" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B478" s="31" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A479" s="31" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B479" s="31" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A480" s="31" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B480" s="31" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A481" s="31" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B481" s="31" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A482" s="31" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B482" s="31" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A483" s="31" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B483" s="31" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A484" s="31" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B484" s="31" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A485" s="31" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B485" s="31" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A486" s="31" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B486" s="31" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A487" s="31" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B487" s="31" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A488" s="31" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B488" s="31" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A489" s="31" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B489" s="31" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A490" s="31" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B490" s="31" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A491" s="31" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B491" s="31" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A492" s="31" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B492" s="31" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A493" s="31" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B493" s="31" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A494" s="31" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B494" s="31" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A495" s="31" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B495" s="31" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A496" s="31" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B496" s="31" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A497" s="31" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B497" s="31" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" ht="42" x14ac:dyDescent="0.3">
+      <c r="A498" s="31" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B498" s="31" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A499" s="31" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B499" s="31" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A500" s="31" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B500" s="31" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A501" s="31" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B501" s="31" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A502" s="31" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B502" s="31" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A503" s="31" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B503" s="31" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A504" s="31" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B504" s="31" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A505" s="31" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B505" s="31" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A506" s="31" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B506" s="31" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A507" s="31" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B507" s="31" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A508" s="31" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B508" s="31" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A509" s="31" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B509" s="31" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A510" s="31" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B510" s="31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A511" s="31" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B511" s="31" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A512" s="31" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B512" s="31" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A513" s="31" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B513" s="31" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A514" s="31" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B514" s="31" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A515" s="31" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B515" s="31" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A516" s="31" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B516" s="31" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A517" s="31" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B517" s="31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A518" s="31" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B518" s="31" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A519" s="31" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B519" s="31" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A520" s="31" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B520" s="31" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A521" s="31" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B521" s="31" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A522" s="31" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B522" s="31" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A523" s="31" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B523" s="31" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A524" s="31" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B524" s="31" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A525" s="31" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B525" s="31" t="s">
+        <v>1546</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Output/Danh muc VTHH.xlsx
+++ b/Output/Danh muc VTHH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/49bfd0ea95b757c1/Documents/UiPath/RPA_AmberMuaHang/Output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{2D13BCF8-31D4-4FB4-A0C2-9D12B3C10AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2383B4A8-9095-432C-9BF1-5D9C968C75A6}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{2D13BCF8-31D4-4FB4-A0C2-9D12B3C10AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E97393C-A958-4019-A123-C157826BC3CB}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Danh mục cập nhật" sheetId="1" r:id="rId1"/>
@@ -769,7 +769,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AZ2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:B447"/>
     </sheetView>
   </sheetViews>
@@ -1100,8 +1100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0021E2B2-E605-4647-AE3A-11BEEE1CB948}">
   <dimension ref="A1:BA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B495"/>
+    <sheetView topLeftCell="A484" workbookViewId="0">
+      <selection activeCell="B496" sqref="B496"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Output/Danh muc VTHH.xlsx
+++ b/Output/Danh muc VTHH.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/49bfd0ea95b757c1/Documents/UiPath/RPA_AmberMuaHang/Output/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RPA_Amber_MuaHang\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{2D13BCF8-31D4-4FB4-A0C2-9D12B3C10AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E97393C-A958-4019-A123-C157826BC3CB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D0AA8F1-3888-494C-8D00-5919147CB629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4692" yWindow="348" windowWidth="17820" windowHeight="11436" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Danh mục cập nhật" sheetId="1" r:id="rId1"/>
@@ -25,21 +25,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="1015">
   <si>
     <t>Thông tin ngầm định</t>
   </si>
@@ -230,6 +221,2880 @@
   </si>
   <si>
     <t>Check</t>
+  </si>
+  <si>
+    <t>XTTLPMM6</t>
+  </si>
+  <si>
+    <t>XX TT THIT LAC PHO MAI MASSAN 64G</t>
+  </si>
+  <si>
+    <t>NVBMKXĐ</t>
+  </si>
+  <si>
+    <t>Nạc vai bò mỹ không xương ĐL</t>
+  </si>
+  <si>
+    <t>GB4</t>
+  </si>
+  <si>
+    <t>Gas bình 45kg</t>
+  </si>
+  <si>
+    <t>LKV1</t>
+  </si>
+  <si>
+    <t>Lá kim vụn 1kg</t>
+  </si>
+  <si>
+    <t>VMK2</t>
+  </si>
+  <si>
+    <t>V20152 Miến khô 2.4kg</t>
+  </si>
+  <si>
+    <t>NMCC3</t>
+  </si>
+  <si>
+    <t>Nước mắm cá chình 3kg</t>
+  </si>
+  <si>
+    <t>MN(S1S</t>
+  </si>
+  <si>
+    <t>Mạch nha (Corn Syrup) 18kg/thùng sắt</t>
+  </si>
+  <si>
+    <t>TTĂLG1</t>
+  </si>
+  <si>
+    <t>Tương trộn ăn liền gold 14kg</t>
+  </si>
+  <si>
+    <t>TỚH1</t>
+  </si>
+  <si>
+    <t>Tương ớt heulchan 14kg</t>
+  </si>
+  <si>
+    <t>BCBXG(1</t>
+  </si>
+  <si>
+    <t>Bột chiên bánh xèo giòn (crispy) 1kg</t>
+  </si>
+  <si>
+    <t>ỚBMKCH1</t>
+  </si>
+  <si>
+    <t>Ớt bột muối kim chi heulchan 1kg</t>
+  </si>
+  <si>
+    <t>ỚBLGVH1</t>
+  </si>
+  <si>
+    <t>Ớt bột làm gia vị heulchan 1kg</t>
+  </si>
+  <si>
+    <t>KCCTN1/T</t>
+  </si>
+  <si>
+    <t>Kim chi cải thảo Nongyee 10kg / túi</t>
+  </si>
+  <si>
+    <t>LKTTVO5GT</t>
+  </si>
+  <si>
+    <t>Lá kim truyền thống vị oliu 5g*16 gói/ thùng</t>
+  </si>
+  <si>
+    <t>TBH</t>
+  </si>
+  <si>
+    <t>Tháp bia Heniken</t>
+  </si>
+  <si>
+    <t>BFN</t>
+  </si>
+  <si>
+    <t>Bò Fuji nướng</t>
+  </si>
+  <si>
+    <t>SCCDC</t>
+  </si>
+  <si>
+    <t>Salat cà chua dưa chuột</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Dasani</t>
+  </si>
+  <si>
+    <t>MHNNVH</t>
+  </si>
+  <si>
+    <t>Má heo nướng ngũ vị hương</t>
+  </si>
+  <si>
+    <t>KL</t>
+  </si>
+  <si>
+    <t>Khăn lạnh</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>Nước cam</t>
+  </si>
+  <si>
+    <t>SBRX</t>
+  </si>
+  <si>
+    <t>Sườn bò rút xương</t>
+  </si>
+  <si>
+    <t>MBTL4X3-DN(X)</t>
+  </si>
+  <si>
+    <t>Màng bọc TP Laspalm 45cm x 300m - dao nhựa ( xanh )</t>
+  </si>
+  <si>
+    <t>RJSF1(H=C1C=XXHQ</t>
+  </si>
+  <si>
+    <t>Rượu Jinro Soju Fresh 16.5% (1 hộp =20 chai, 1 chai =360ml, Xuất xứ Hàn Quốc)</t>
+  </si>
+  <si>
+    <t>NCDW4</t>
+  </si>
+  <si>
+    <t>NUOC COT DUA WONDERFARM 400G</t>
+  </si>
+  <si>
+    <t>SDCNXB</t>
+  </si>
+  <si>
+    <t>SUA DAC CD NSPN XANH BIEN1284G</t>
+  </si>
+  <si>
+    <t>DAM9</t>
+  </si>
+  <si>
+    <t>DAU AN MEIZAN 9KG</t>
+  </si>
+  <si>
+    <t>NRBHLC3K</t>
+  </si>
+  <si>
+    <t>Nước rửa bát HECQUYN L2 can 3,8 kg</t>
+  </si>
+  <si>
+    <t>NLSSC3</t>
+  </si>
+  <si>
+    <t>Nước Lau Sàn SUKO Can 3,8kg</t>
+  </si>
+  <si>
+    <t>VXCCP3</t>
+  </si>
+  <si>
+    <t>V10166 Xốt cà chua pouch 3kg</t>
+  </si>
+  <si>
+    <t>BXMC1</t>
+  </si>
+  <si>
+    <t>Bánh xếp mandu chiên 1400g</t>
+  </si>
+  <si>
+    <t>MN(CS)1/C</t>
+  </si>
+  <si>
+    <t>Mạch nha ( Corn Syrup ) 10kg / can</t>
+  </si>
+  <si>
+    <t>(BC1</t>
+  </si>
+  <si>
+    <t>(Beksul) Bột chiên 1kg</t>
+  </si>
+  <si>
+    <t>LKVOH5GT</t>
+  </si>
+  <si>
+    <t>Lá kim vị oliu Haesong 5g*16 gói/ túi</t>
+  </si>
+  <si>
+    <t>BMT1</t>
+  </si>
+  <si>
+    <t>Bánh mì tokboki 1kg/gói</t>
+  </si>
+  <si>
+    <t>PDVT1</t>
+  </si>
+  <si>
+    <t>Phí dịch vụ tháng 12.2022</t>
+  </si>
+  <si>
+    <t>ĐUD34PSWC</t>
+  </si>
+  <si>
+    <t>Đồ uống DASANI 350ML 4X6P PET SF W/O CAPSEAL</t>
+  </si>
+  <si>
+    <t>PTN</t>
+  </si>
+  <si>
+    <t>Phí tiền nước</t>
+  </si>
+  <si>
+    <t>PQL</t>
+  </si>
+  <si>
+    <t>Phí quản lý</t>
+  </si>
+  <si>
+    <t>PBVMT</t>
+  </si>
+  <si>
+    <t>Phí bảo vệ môi trường</t>
+  </si>
+  <si>
+    <t>ĐUS34SS2</t>
+  </si>
+  <si>
+    <t>Đồ uống SPRITE 320ML 4X6 SC SF 2.0</t>
+  </si>
+  <si>
+    <t>ĐUC34SCS</t>
+  </si>
+  <si>
+    <t>Đồ uống COKE 320ML 4X6 SLEEK CAN SF</t>
+  </si>
+  <si>
+    <t>PCTMLNNLMVTBLNDBRHT0THĐSHKN0</t>
+  </si>
+  <si>
+    <t>Phí cho thuê máy lọc nước nóng lạnh model:HB-510 và Thiết bị lọc nước dưới bồn rửa HB-820 tháng 01/2023 theo hợp đồng số HDDV20221201-001/WOW-BAEKJOENG ký ngày 01/12/2022</t>
+  </si>
+  <si>
+    <t>MOHRT1</t>
+  </si>
+  <si>
+    <t>MAT ONG HOA RUNG TW 1400G*1</t>
+  </si>
+  <si>
+    <t>CTT0#</t>
+  </si>
+  <si>
+    <t>Cước taxi tháng 01/2023 #E947</t>
+  </si>
+  <si>
+    <t>CG</t>
+  </si>
+  <si>
+    <t>Chứng gà</t>
+  </si>
+  <si>
+    <t>VBB</t>
+  </si>
+  <si>
+    <t>Vỏ bánh bao</t>
+  </si>
+  <si>
+    <t>GT</t>
+  </si>
+  <si>
+    <t>Gạo thái</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>Củ cải</t>
+  </si>
+  <si>
+    <t>ĐT</t>
+  </si>
+  <si>
+    <t>Đậu tươi</t>
+  </si>
+  <si>
+    <t>ĐĐ</t>
+  </si>
+  <si>
+    <t>Đỗ đen</t>
+  </si>
+  <si>
+    <t>HH</t>
+  </si>
+  <si>
+    <t>Hành hoa</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>Hành paro</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>Cải thảo</t>
+  </si>
+  <si>
+    <t>MN5</t>
+  </si>
+  <si>
+    <t>Mộc nhĩ 500g</t>
+  </si>
+  <si>
+    <t>ỚĐĐL</t>
+  </si>
+  <si>
+    <t>Ớt đỏ đà lạt</t>
+  </si>
+  <si>
+    <t>ỚK</t>
+  </si>
+  <si>
+    <t>Ớt kim</t>
+  </si>
+  <si>
+    <t>TBSC</t>
+  </si>
+  <si>
+    <t>Tỏi bóc sơ chế</t>
+  </si>
+  <si>
+    <t>VR</t>
+  </si>
+  <si>
+    <t>Vừng rang</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>Cà rốt</t>
+  </si>
+  <si>
+    <t>XL</t>
+  </si>
+  <si>
+    <t>Xà lách</t>
+  </si>
+  <si>
+    <t>BN</t>
+  </si>
+  <si>
+    <t>Bí ngòi</t>
+  </si>
+  <si>
+    <t>GĐ</t>
+  </si>
+  <si>
+    <t>Gía đỗ</t>
+  </si>
+  <si>
+    <t>LH</t>
+  </si>
+  <si>
+    <t>Lá hẹ</t>
+  </si>
+  <si>
+    <t>NK</t>
+  </si>
+  <si>
+    <t>Nấm kim</t>
+  </si>
+  <si>
+    <t>LKN</t>
+  </si>
+  <si>
+    <t>Lá kê nhíp</t>
+  </si>
+  <si>
+    <t>HT</t>
+  </si>
+  <si>
+    <t>Hành tây</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>Dưa chuột</t>
+  </si>
+  <si>
+    <t>Củ gừng</t>
+  </si>
+  <si>
+    <t>KT3</t>
+  </si>
+  <si>
+    <t>Khoai tây 35g</t>
+  </si>
+  <si>
+    <t>DLT</t>
+  </si>
+  <si>
+    <t>Dưa lê trắng</t>
+  </si>
+  <si>
+    <t>ỚXT</t>
+  </si>
+  <si>
+    <t>Ớt xanh to</t>
+  </si>
+  <si>
+    <t>TES2</t>
+  </si>
+  <si>
+    <t>Táo Envy size 24-40</t>
+  </si>
+  <si>
+    <t>QLTSTKHPPV1(1Đ1Q/T</t>
+  </si>
+  <si>
+    <t>Quả lê tươi SINGO tên khoa học Pyrus pyrifolia var 10KG (size 14 đến 16 quả) / Thùng</t>
+  </si>
+  <si>
+    <t>RCTT,TKHBC1</t>
+  </si>
+  <si>
+    <t>Rau cải thảo tươi , tên khoa học brassica campestris 10kg/thùng</t>
+  </si>
+  <si>
+    <t>DSDT1</t>
+  </si>
+  <si>
+    <t>Duong Samyang Duong trang 1kg</t>
+  </si>
+  <si>
+    <t>DSDT3</t>
+  </si>
+  <si>
+    <t>Duong Samyang Duong trang 3kg</t>
+  </si>
+  <si>
+    <t>DSDN1</t>
+  </si>
+  <si>
+    <t>Duong Samyang Duong nau 1kg</t>
+  </si>
+  <si>
+    <t>RĂLRKLKSG</t>
+  </si>
+  <si>
+    <t>Rau ăn liền rau khoai lang khô- Sin gwang</t>
+  </si>
+  <si>
+    <t>RĂLCRCĐP1</t>
+  </si>
+  <si>
+    <t>Rau ăn liền Chungyanggol rau cúc đông phong 100G</t>
+  </si>
+  <si>
+    <t>HHGVDTCYH5</t>
+  </si>
+  <si>
+    <t>Hon hop gia vi de tron com Yewon Hurigake 50g</t>
+  </si>
+  <si>
+    <t>KCJKLV3</t>
+  </si>
+  <si>
+    <t>Kim chi Jongga kimchi la vung 300g*2</t>
+  </si>
+  <si>
+    <t>MHMBT(S1</t>
+  </si>
+  <si>
+    <t>Mắm Hansung mắm bạch tuộc (dạng sệt) 1kg/gói</t>
+  </si>
+  <si>
+    <t>(BEKSUL) Bot chien 1KG</t>
+  </si>
+  <si>
+    <t>BCBX1</t>
+  </si>
+  <si>
+    <t>Bot chien Banh xeo 1KG</t>
+  </si>
+  <si>
+    <t>(TO(1</t>
+  </si>
+  <si>
+    <t>(HAECHANDLE) Tuong ot (P) 1KG</t>
+  </si>
+  <si>
+    <t>BM2</t>
+  </si>
+  <si>
+    <t>Bot mi 2.5KG</t>
+  </si>
+  <si>
+    <t>BBXM4</t>
+  </si>
+  <si>
+    <t>BIBIGO Banh xep mong 455G*2</t>
+  </si>
+  <si>
+    <t>(HNVB2</t>
+  </si>
+  <si>
+    <t>(DASIDA) Hat nem Vi Bo 2.25KG</t>
+  </si>
+  <si>
+    <t>JBBK1</t>
+  </si>
+  <si>
+    <t>Jjam Bbong Bac Kinh 120G</t>
+  </si>
+  <si>
+    <t>CCDCBCCCDNC5</t>
+  </si>
+  <si>
+    <t>Cu cai da che bien Chongga Cu cai Danmuji nguyen cu 550g</t>
+  </si>
+  <si>
+    <t>KCJCTD5</t>
+  </si>
+  <si>
+    <t>Kim chi Jongga cai thao Dolsangat 500g</t>
+  </si>
+  <si>
+    <t>CCDCBCCCDTL3</t>
+  </si>
+  <si>
+    <t>Cu cai da che bien Chongga Cu cai Danmuji thai lat 3kg</t>
+  </si>
+  <si>
+    <t>NMTV((X0X0</t>
+  </si>
+  <si>
+    <t>NS) Mì trứng vàng (Ansungtangmyun) (125 x 005 x 008)</t>
+  </si>
+  <si>
+    <t>NMSG(X0X0</t>
+  </si>
+  <si>
+    <t>NS) Mì Shin gói (120 x 005 x 008)</t>
+  </si>
+  <si>
+    <t>OMK2</t>
+  </si>
+  <si>
+    <t>OTT) Miến khô 2.4KG</t>
+  </si>
+  <si>
+    <t>OMSN3</t>
+  </si>
+  <si>
+    <t>OTT) Mì sợi nhỏ 3KG</t>
+  </si>
+  <si>
+    <t>CDCBDHKKCGNALD(CNVKKT./H1</t>
+  </si>
+  <si>
+    <t>Ca da che bien dong hop kin khi co ghi nhan an lien Dongwon ( ca ngu vi kimchi KIMCHIJJIGEA TUNA) .100g / hop 100g</t>
+  </si>
+  <si>
+    <t>CDCBALDCT3</t>
+  </si>
+  <si>
+    <t>Ca da che bien an lien Dongwon ca thu 340g</t>
+  </si>
+  <si>
+    <t>BODBRPPK2KG2</t>
+  </si>
+  <si>
+    <t>Bot ot do BIDAN RED PEPPER POWDER(FOR KIMCHI) 2.27 kG/ goi 2.27kg</t>
+  </si>
+  <si>
+    <t>HHGVDHNVTB3</t>
+  </si>
+  <si>
+    <t>Hon hop gia vi Daesang hat nem vi thit bo 3kg</t>
+  </si>
+  <si>
+    <t>NMDNMCC7</t>
+  </si>
+  <si>
+    <t>Nuoc mam daesang Nuoc mam ca com 750g</t>
+  </si>
+  <si>
+    <t>MBSGV1</t>
+  </si>
+  <si>
+    <t>Muối bổ sung gia vị 1KG</t>
+  </si>
+  <si>
+    <t>HHGVSH5</t>
+  </si>
+  <si>
+    <t>Hỗn hợp gia vị Sigewon Hurigake 5kg/gói</t>
+  </si>
+  <si>
+    <t>MTD2</t>
+  </si>
+  <si>
+    <t>Mu tat Daesang 200g</t>
+  </si>
+  <si>
+    <t>CCBX8</t>
+  </si>
+  <si>
+    <t>chả cá busan xưa 800g</t>
+  </si>
+  <si>
+    <t>CSDCCV1</t>
+  </si>
+  <si>
+    <t>Cha SAJO DAERIM cha ca vuong 1kg</t>
+  </si>
+  <si>
+    <t>STTVTND2</t>
+  </si>
+  <si>
+    <t>SUA TUOI TT VI TU NHIEN DALATMILK 220ML</t>
+  </si>
+  <si>
+    <t>BGN-1</t>
+  </si>
+  <si>
+    <t>Bột gạo nếp -Tureban 1kg</t>
+  </si>
+  <si>
+    <t>BGNCF1</t>
+  </si>
+  <si>
+    <t>Bot gao nep Choya Foods 1000g</t>
+  </si>
+  <si>
+    <t>MHQDMT3</t>
+  </si>
+  <si>
+    <t>Mứt hoa quả Daesang mứt táo 370g/hũ</t>
+  </si>
+  <si>
+    <t>LKBFS1</t>
+  </si>
+  <si>
+    <t>La kim Bobu Fishery say 1kg</t>
+  </si>
+  <si>
+    <t>OXMP3</t>
+  </si>
+  <si>
+    <t>OTT) Xốt mayonnaise pouch 3KG</t>
+  </si>
+  <si>
+    <t>MALM2</t>
+  </si>
+  <si>
+    <t>My an lien Misikga 2kg</t>
+  </si>
+  <si>
+    <t>TĐCBS(GTTBM</t>
+  </si>
+  <si>
+    <t>Thịt đã chế biến SB (dạng gói) thịt trai biển Miso1.2kg</t>
+  </si>
+  <si>
+    <t>BON(P,NSQJXFC2K2</t>
+  </si>
+  <si>
+    <t>Bot ot NONGWOO, (CHILLI POWDER) , nha sx QINGDAO JUFENG XIANGHE FOOD CO.,LTD 2.5 kg/goi 2.5kg</t>
+  </si>
+  <si>
+    <t>CDBFVT3</t>
+  </si>
+  <si>
+    <t>Canh(nuoc dung) Banga Food vi thit 300g</t>
+  </si>
+  <si>
+    <t>RGWM7T2C</t>
+  </si>
+  <si>
+    <t>Rượu gạo Walmae Makgeolli 750ml thùng 20 chai</t>
+  </si>
+  <si>
+    <t>NKLV0</t>
+  </si>
+  <si>
+    <t>Nước khoáng La Vie 0.35L</t>
+  </si>
+  <si>
+    <t>NN4N</t>
+  </si>
+  <si>
+    <t>Ngô ngọt 430g NG</t>
+  </si>
+  <si>
+    <t>CTVCP</t>
+  </si>
+  <si>
+    <t>Chất tẩy vết cháy PROVEN</t>
+  </si>
+  <si>
+    <t>ĐUFO34SCS</t>
+  </si>
+  <si>
+    <t>Đồ uống FANTA ORANGE 320ML 4X6 SLEEK CAN SF</t>
+  </si>
+  <si>
+    <t>Bột chiên bánh xèo 1kg</t>
+  </si>
+  <si>
+    <t>GT(AV)1/C</t>
+  </si>
+  <si>
+    <t>Giấm táo ( Apple Vinegar ) 18l / can</t>
+  </si>
+  <si>
+    <t>BM1</t>
+  </si>
+  <si>
+    <t>Bột mì 1kg</t>
+  </si>
+  <si>
+    <t>LKLKW1L</t>
+  </si>
+  <si>
+    <t>Lá kim làm kimbap Wando 100 lá/túi</t>
+  </si>
+  <si>
+    <t>NGBS(R1</t>
+  </si>
+  <si>
+    <t>Nước gạo buổi sáng (Morning Rice) 180ml</t>
+  </si>
+  <si>
+    <t>NNĐ1</t>
+  </si>
+  <si>
+    <t>Nước nha đam 180ml</t>
+  </si>
+  <si>
+    <t>TRB5</t>
+  </si>
+  <si>
+    <t>Trà râu bắp 500ml</t>
+  </si>
+  <si>
+    <t>TĐHL1</t>
+  </si>
+  <si>
+    <t>Tương đậu heulchan loại 14kg</t>
+  </si>
+  <si>
+    <t>LKLKW2</t>
+  </si>
+  <si>
+    <t>Lá kim làm kimbap Wando 220g/gói</t>
+  </si>
+  <si>
+    <t>MLCN(N2</t>
+  </si>
+  <si>
+    <t>Mì lạnh Cold noodle ( Naengmyeon) 2kg</t>
+  </si>
+  <si>
+    <t>BMTMS2</t>
+  </si>
+  <si>
+    <t>Bánh mì tokbokki mỏng Sunjin 2kg</t>
+  </si>
+  <si>
+    <t>PDVT0</t>
+  </si>
+  <si>
+    <t>Phí dịch vụ tháng 01.2023</t>
+  </si>
+  <si>
+    <t>CPBTTMTHĐLTT1ĐT2</t>
+  </si>
+  <si>
+    <t>Chi phí bảo trì thang máy theo hợp đồng LBT644A21HNI từ tháng 1/2023 đến tháng 2/2023</t>
+  </si>
+  <si>
+    <t>T30-C</t>
+  </si>
+  <si>
+    <t>TÚI, 36, 01 - CK2-50781346-3</t>
+  </si>
+  <si>
+    <t>TG03-F</t>
+  </si>
+  <si>
+    <t>TÚI GIẤY, 04, 34 - FSC-CARRIERS</t>
+  </si>
+  <si>
+    <t>BB4</t>
+  </si>
+  <si>
+    <t>BM BAGUETTE 400GR</t>
+  </si>
+  <si>
+    <t>BTVPMC75</t>
+  </si>
+  <si>
+    <t>BSNACK TOONIES VI PHO MAI CHEDDAR 70GMALAYA 56G</t>
+  </si>
+  <si>
+    <t>MXKTH7H</t>
+  </si>
+  <si>
+    <t>MI XAO KHO TOM HANH 75GR H/HAO</t>
+  </si>
+  <si>
+    <t>SBKVMO3</t>
+  </si>
+  <si>
+    <t>SNACK BAP KOIMUCHO VI MAT ONG  33GR</t>
+  </si>
+  <si>
+    <t>BML1</t>
+  </si>
+  <si>
+    <t>BANH MALKIST LEMON 120G</t>
+  </si>
+  <si>
+    <t>MOTCC57</t>
+  </si>
+  <si>
+    <t>MI OMACHI TOM CHUA CAY 5SAO 78G</t>
+  </si>
+  <si>
+    <t>TBG</t>
+  </si>
+  <si>
+    <t>TAO BALAN GALA</t>
+  </si>
+  <si>
+    <t>MDAP</t>
+  </si>
+  <si>
+    <t>MAN DO AN PHUOC</t>
+  </si>
+  <si>
+    <t>MOXBH8</t>
+  </si>
+  <si>
+    <t>MI OMACHI XOT BO HAM 80G</t>
+  </si>
+  <si>
+    <t>LDG2</t>
+  </si>
+  <si>
+    <t>LUOI DCR GILLETTE 2C</t>
+  </si>
+  <si>
+    <t>MKTCC9</t>
+  </si>
+  <si>
+    <t>MI KOKOMI TOM CHUA CAY 90G</t>
+  </si>
+  <si>
+    <t>MHHXTC7</t>
+  </si>
+  <si>
+    <t>MI HAO HAO XAO TOM CN 75G</t>
+  </si>
+  <si>
+    <t>BGOORB1</t>
+  </si>
+  <si>
+    <t>BANH GAO OISHI OKOME RONG BIEN 100G</t>
+  </si>
+  <si>
+    <t>BSCLD1</t>
+  </si>
+  <si>
+    <t>BANH SOLITE CUON LA DUA 180G</t>
+  </si>
+  <si>
+    <t>BATB2</t>
+  </si>
+  <si>
+    <t>BANH AFC TAO BIEN 200G</t>
+  </si>
+  <si>
+    <t>SPSU4</t>
+  </si>
+  <si>
+    <t>SNACK PUFFCORN SOCOLA URC 45G/35G</t>
+  </si>
+  <si>
+    <t>MOSHNQ8</t>
+  </si>
+  <si>
+    <t>MI OMACHI SUON HAM NGU QUA 80GR</t>
+  </si>
+  <si>
+    <t>BKHKPM1</t>
+  </si>
+  <si>
+    <t>BANH KARO HOANG KIM PHO MAI 156G</t>
+  </si>
+  <si>
+    <t>SKTX3</t>
+  </si>
+  <si>
+    <t>SCL KITKAT TRA XANH 35G</t>
+  </si>
+  <si>
+    <t>BXTPM1</t>
+  </si>
+  <si>
+    <t>BANH XOP TIPO PHO MAI 180G</t>
+  </si>
+  <si>
+    <t>STCCC1</t>
+  </si>
+  <si>
+    <t>SUA TT CGHL CAOKHOE CD 110ML*4</t>
+  </si>
+  <si>
+    <t>SFCVS2</t>
+  </si>
+  <si>
+    <t>SDN FAMI CANXI VI SOCOLA 200ML*6LXLL</t>
+  </si>
+  <si>
+    <t>SFDT8</t>
+  </si>
+  <si>
+    <t>SCU FRISTI DAO TIEN 80ML*6</t>
+  </si>
+  <si>
+    <t>VZMS5</t>
+  </si>
+  <si>
+    <t>V.SUA ZOTT MONTE SOCOLA 55G*4</t>
+  </si>
+  <si>
+    <t>SV1C</t>
+  </si>
+  <si>
+    <t>SC VNM 100G CD</t>
+  </si>
+  <si>
+    <t>SMPD6</t>
+  </si>
+  <si>
+    <t>SC M.SONG PROBI D.GANG 65ML*5</t>
+  </si>
+  <si>
+    <t>SMSPI6</t>
+  </si>
+  <si>
+    <t>SCU MEN SONG PROBI ID 65ML*5</t>
+  </si>
+  <si>
+    <t>SMSP6</t>
+  </si>
+  <si>
+    <t>SCU MEN SONG PROBI 65ML*5</t>
+  </si>
+  <si>
+    <t>SMSPD6</t>
+  </si>
+  <si>
+    <t>SCU MEN SONG PROBI DUA 65ML*5</t>
+  </si>
+  <si>
+    <t>SFT8</t>
+  </si>
+  <si>
+    <t>SCU FRISTI TAO 80ML*6</t>
+  </si>
+  <si>
+    <t>DC4GSGN8</t>
+  </si>
+  <si>
+    <t>DG CLEAR 48 GIO SACH GAU NGUA 880G</t>
+  </si>
+  <si>
+    <t>BSGC3</t>
+  </si>
+  <si>
+    <t>Bia Sài Gòn chai 330ml</t>
+  </si>
+  <si>
+    <t>RSH</t>
+  </si>
+  <si>
+    <t>Rượu SOJU HQ</t>
+  </si>
+  <si>
+    <t>ĐUC3</t>
+  </si>
+  <si>
+    <t>Đồ uống COKE 320ml</t>
+  </si>
+  <si>
+    <t>KƯ</t>
+  </si>
+  <si>
+    <t>Khăn ướt</t>
+  </si>
+  <si>
+    <t>SBNL3</t>
+  </si>
+  <si>
+    <t>Suất Buffet Người Lớn 398</t>
+  </si>
+  <si>
+    <t>Phí cho thuê máy lọc nước nóng lạnh model:HB-510 và Thiết bị lọc nước dưới bồn rửa HB-820 tháng 02/2023 theo hợp đồng số HDDV20221201-001/WOW-BAEKJOENG ký ngày 01/12/2022</t>
+  </si>
+  <si>
+    <t>KƯVV</t>
+  </si>
+  <si>
+    <t>Khăn ướt VS V980</t>
+  </si>
+  <si>
+    <t>NRTSC3K</t>
+  </si>
+  <si>
+    <t>Nước rửa tay SUKO can 3,8 kg</t>
+  </si>
+  <si>
+    <t>Cước taxi tháng 02/2023 #E947</t>
+  </si>
+  <si>
+    <t>NTSFJGF5</t>
+  </si>
+  <si>
+    <t>Nuoc tuong Sempio Food Jin Gold F3 500mL</t>
+  </si>
+  <si>
+    <t>NMTLUS(X0X0</t>
+  </si>
+  <si>
+    <t>NS) Mì tô lớn Udon Soup (276 x 012 x 001)</t>
+  </si>
+  <si>
+    <t>NMTBCY(X0X0</t>
+  </si>
+  <si>
+    <t>NS) Mì tô bò cay Yukejang (086 x 024 x 001)</t>
+  </si>
+  <si>
+    <t>HHGVDVC2</t>
+  </si>
+  <si>
+    <t>Hỗn hợp gia vị Dongwon vị chiên 2kg/gói</t>
+  </si>
+  <si>
+    <t>HHGVDVMT2</t>
+  </si>
+  <si>
+    <t>Hon hop gia vi Daesang vi muoi tieu 200g</t>
+  </si>
+  <si>
+    <t>NMDNMCC5</t>
+  </si>
+  <si>
+    <t>Nuoc mam daesang Nuoc mam ca com 500mL</t>
+  </si>
+  <si>
+    <t>GVBCDSTC</t>
+  </si>
+  <si>
+    <t>Gia vị bột canh Daesang Sk Trading Co2.5KG</t>
+  </si>
+  <si>
+    <t>KCYPB[</t>
+  </si>
+  <si>
+    <t>Kem cây Yomoitie Plain Bar [70x40]</t>
+  </si>
+  <si>
+    <t>SRFNC./</t>
+  </si>
+  <si>
+    <t>Si rô fructoza ngô Caramel-Choya .2.7L /Bịch</t>
+  </si>
+  <si>
+    <t>NĐHĂLH1</t>
+  </si>
+  <si>
+    <t>Nấm đóng hộp ăn liền Hwapoong 150g</t>
+  </si>
+  <si>
+    <t>HHBNCDHYDHNHD1</t>
+  </si>
+  <si>
+    <t>Hon hop bot ngu coc Damtuh hat Y di hanh nhan ho dao 18g*15</t>
+  </si>
+  <si>
+    <t>RBĐCBĐGKKĂLVSG1</t>
+  </si>
+  <si>
+    <t>Rong biển đã chế biến đóng gói kín khí, ăn liền vụn Sung Gyung 1000g/gói</t>
+  </si>
+  <si>
+    <t>HTKTT</t>
+  </si>
+  <si>
+    <t>Hàng tặng không thu tiền</t>
+  </si>
+  <si>
+    <t>XDMJ1</t>
+  </si>
+  <si>
+    <t>Xì dầu monggo jin 13l</t>
+  </si>
+  <si>
+    <t>Phí dịch vụ tháng 02.2023</t>
+  </si>
+  <si>
+    <t>CPHTMM1T</t>
+  </si>
+  <si>
+    <t>Cà phê hòa tan maxim mocha 100 túi/hộp</t>
+  </si>
+  <si>
+    <t>LKW(K)2/G</t>
+  </si>
+  <si>
+    <t>Lá kim Wando ( Kimbap )loại 260g / gói</t>
+  </si>
+  <si>
+    <t>LKXW3G</t>
+  </si>
+  <si>
+    <t>Lá kim xào wando 300g/ gói</t>
+  </si>
+  <si>
+    <t>DM5</t>
+  </si>
+  <si>
+    <t>Dầu mè 5l/can</t>
+  </si>
+  <si>
+    <t>CCVML8</t>
+  </si>
+  <si>
+    <t>Chả cá vuông mẹ làm 800g/gói</t>
+  </si>
+  <si>
+    <t>LKĂLEBWL43G</t>
+  </si>
+  <si>
+    <t>Lá kim ăn liền em bé Wando loại 4g/gói, 3 gói/lốc</t>
+  </si>
+  <si>
+    <t>ĐUD32NC</t>
+  </si>
+  <si>
+    <t>Đồ uống Dasani 350ml 24 NP Carton</t>
+  </si>
+  <si>
+    <t>TBĐCX-C</t>
+  </si>
+  <si>
+    <t>Thịt bò ĐL có xương - C10383</t>
+  </si>
+  <si>
+    <t>DSBRFB</t>
+  </si>
+  <si>
+    <t>Dẻ sườn bò  Rib finger beef</t>
+  </si>
+  <si>
+    <t>TBĐKX(VEC</t>
+  </si>
+  <si>
+    <t>Thịt bò ĐL ko xương (lõi vai) Excel Canada-C21426</t>
+  </si>
+  <si>
+    <t>TBĐKXBCE</t>
+  </si>
+  <si>
+    <t>Thịt bò ĐL ko xương( ba chỉ) Excel-22194</t>
+  </si>
+  <si>
+    <t>TML</t>
+  </si>
+  <si>
+    <t>Thịt má lợn</t>
+  </si>
+  <si>
+    <t>TNVL</t>
+  </si>
+  <si>
+    <t>Thịt nạc vai lợn</t>
+  </si>
+  <si>
+    <t>TBCL</t>
+  </si>
+  <si>
+    <t>Thịt ba chỉ lợn</t>
+  </si>
+  <si>
+    <t>BTH</t>
+  </si>
+  <si>
+    <t>Bao tử heo</t>
+  </si>
+  <si>
+    <t>TD</t>
+  </si>
+  <si>
+    <t>Thịt dải</t>
+  </si>
+  <si>
+    <t>RJIBS1(H=C1C=XXHQ</t>
+  </si>
+  <si>
+    <t>Rượu Jinro is back Soju 16.5% (1 hộp =20 chai, 1 chai =360ml, Xuất xứ Hàn Quốc)</t>
+  </si>
+  <si>
+    <t>RJPS1(H=2C1C=3XXHQ</t>
+  </si>
+  <si>
+    <t>Rượu Jinro Plum Soju 13% (1 hộp = 20 chai, 1 chai = 360ml, xuất xứ Hàn Quốc)</t>
+  </si>
+  <si>
+    <t>RJGS1(H=2C1C=3XXHQ</t>
+  </si>
+  <si>
+    <t>Rượu Jinro Grapefruit Soju 13% (1 hộp = 20 chai, 1 chai = 360ml, xuất xứ Hàn Quốc)</t>
+  </si>
+  <si>
+    <t>RJGGS1(H=2C1C=3XXHQ</t>
+  </si>
+  <si>
+    <t>Rượu Jinro Green Grape Soju 13% (1 hộp = 20 chai, 1 chai = 360ml, xuất xứ Hàn Quốc)</t>
+  </si>
+  <si>
+    <t>RJSS(H=2C1C=3XXHQ</t>
+  </si>
+  <si>
+    <t>Rượu Jinro Strawberry Soju (1 hộp = 20 chai, 1 chai = 360ml, xuất xứ Hàn Quốc)</t>
+  </si>
+  <si>
+    <t>RJSĐ(H=C1C=XXHQ</t>
+  </si>
+  <si>
+    <t>Rượu Jinro Soju Đào (1 hộp =20 chai, 1 chai =360ml, Xuất xứ Hàn Quốc)</t>
+  </si>
+  <si>
+    <t>DHDB</t>
+  </si>
+  <si>
+    <t>DUA HAU DAC BIET</t>
+  </si>
+  <si>
+    <t>DHRD</t>
+  </si>
+  <si>
+    <t>DUA HAU RUOT DO</t>
+  </si>
+  <si>
+    <t>GH()1/T</t>
+  </si>
+  <si>
+    <t>Giấm Hwayoung (Vinegar ) 18l / thùng</t>
+  </si>
+  <si>
+    <t>TĐTTL1</t>
+  </si>
+  <si>
+    <t>Tương đậu truyền thống loại 14kg/thùng</t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>DUA/ THOM</t>
+  </si>
+  <si>
+    <t>CPRXPPA</t>
+  </si>
+  <si>
+    <t>Cà phê rang xay pha phin Amino</t>
+  </si>
+  <si>
+    <t>CPRXEBB</t>
+  </si>
+  <si>
+    <t>Cà phê rang xay Espresso Balance Blend</t>
+  </si>
+  <si>
+    <t>Phí cho thuê máy lọc nước nóng lạnh model:HB-510 và Thiết bị lọc nước dưới bồn rửa HB-820 tháng 03/2023 theo hợp đồng số HDDV20221201-001/WOW-BAEKJOENG ký ngày 01/12/2022</t>
+  </si>
+  <si>
+    <t>BCB</t>
+  </si>
+  <si>
+    <t>Ba chỉ bò</t>
+  </si>
+  <si>
+    <t>SBCX</t>
+  </si>
+  <si>
+    <t>Sườn bò có xương</t>
+  </si>
+  <si>
+    <t>GGRQ</t>
+  </si>
+  <si>
+    <t>GIAM GIA RAU QUA</t>
+  </si>
+  <si>
+    <t>OGDL</t>
+  </si>
+  <si>
+    <t>OI GIONG DAI LOAN</t>
+  </si>
+  <si>
+    <t>BSL1</t>
+  </si>
+  <si>
+    <t>BO SAP LOAI 1</t>
+  </si>
+  <si>
+    <t>SVAC1</t>
+  </si>
+  <si>
+    <t>SUA VNM ADM CD 110ML*4</t>
+  </si>
+  <si>
+    <t>SVAS1</t>
+  </si>
+  <si>
+    <t>SUA VNM ADM SOCOLA 110ML*4</t>
+  </si>
+  <si>
+    <t>SANC1</t>
+  </si>
+  <si>
+    <t>SUA ADM NGU COC 110ML*4</t>
+  </si>
+  <si>
+    <t>SM1</t>
+  </si>
+  <si>
+    <t>SUA MILO 115ML*4</t>
+  </si>
+  <si>
+    <t>CHQ</t>
+  </si>
+  <si>
+    <t>Cuốn heo quay</t>
+  </si>
+  <si>
+    <t>BCT</t>
+  </si>
+  <si>
+    <t>Bò cháy tỏi</t>
+  </si>
+  <si>
+    <t>LBND</t>
+  </si>
+  <si>
+    <t>Lẩu bò nhúng dấm</t>
+  </si>
+  <si>
+    <t>CNL</t>
+  </si>
+  <si>
+    <t>Cuốn nem lụi</t>
+  </si>
+  <si>
+    <t>CBLL</t>
+  </si>
+  <si>
+    <t>Cuốn bò lá lốt</t>
+  </si>
+  <si>
+    <t>SPIB1</t>
+  </si>
+  <si>
+    <t>SUA PROSPERITE IT BEO 1L</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>CHANH DAY</t>
+  </si>
+  <si>
+    <t>Cước taxi tháng 03/2023 #E947</t>
+  </si>
+  <si>
+    <t>ỚBLGV2</t>
+  </si>
+  <si>
+    <t>Ớt bột làm gia vị 2.27kg</t>
+  </si>
+  <si>
+    <t>ĐHTĐL11CLA</t>
+  </si>
+  <si>
+    <t>Điều hòa tủ đứng LG 100.000BTU 1 chiều lạnh APNQ100LFA0/APUQ100LFA0</t>
+  </si>
+  <si>
+    <t>DSDT2</t>
+  </si>
+  <si>
+    <t>Duong Samyang Duong trang 20kg</t>
+  </si>
+  <si>
+    <t>CCĐCBICCMLK3</t>
+  </si>
+  <si>
+    <t>Củ cải đã chế biến Ilmi Củ cải muối làm kimpap 3000g</t>
+  </si>
+  <si>
+    <t>SĂLDSCH</t>
+  </si>
+  <si>
+    <t>Sốt ăn liền Daesang sốt canh hầm150G</t>
+  </si>
+  <si>
+    <t>NUKGP(VGQ</t>
+  </si>
+  <si>
+    <t>Nước uống không ga Paldo ( vị gừng quế)</t>
+  </si>
+  <si>
+    <t>DC1</t>
+  </si>
+  <si>
+    <t>Dam Choya 1.5L</t>
+  </si>
+  <si>
+    <t>TK</t>
+  </si>
+  <si>
+    <t>Tao kho</t>
+  </si>
+  <si>
+    <t>KHLL</t>
+  </si>
+  <si>
+    <t>Khí hóa lỏng LPG</t>
+  </si>
+  <si>
+    <t>KGVCN</t>
+  </si>
+  <si>
+    <t>Khăn giấy vuông cân nhỏ</t>
+  </si>
+  <si>
+    <t>GVSCN</t>
+  </si>
+  <si>
+    <t>Giấy vệ sinh công nghiệp</t>
+  </si>
+  <si>
+    <t>GLT</t>
+  </si>
+  <si>
+    <t>Giấy lau tay</t>
+  </si>
+  <si>
+    <t>ML</t>
+  </si>
+  <si>
+    <t>Má lợn</t>
+  </si>
+  <si>
+    <t>NVL</t>
+  </si>
+  <si>
+    <t>Nạc vai lợn</t>
+  </si>
+  <si>
+    <t>Thịt  ba chỉ lợn</t>
+  </si>
+  <si>
+    <t>TLD</t>
+  </si>
+  <si>
+    <t>Thịt lợn dải</t>
+  </si>
+  <si>
+    <t>PKNPMBHVHĐĐT</t>
+  </si>
+  <si>
+    <t>Phí kết nối phần mềm bán hàng với hóa đơn điện tử</t>
+  </si>
+  <si>
+    <t>NCDTB4</t>
+  </si>
+  <si>
+    <t>NUOC COT DUA TUOI BETRIMEX 400ML</t>
+  </si>
+  <si>
+    <t>ỚĐĐ</t>
+  </si>
+  <si>
+    <t>Ớt đỏ ĐL</t>
+  </si>
+  <si>
+    <t>TKBV</t>
+  </si>
+  <si>
+    <t>Tỏi khô bóc vỏ</t>
+  </si>
+  <si>
+    <t>TG</t>
+  </si>
+  <si>
+    <t>Trứng gà</t>
+  </si>
+  <si>
+    <t>Giá đỗ</t>
+  </si>
+  <si>
+    <t>SMID1H1</t>
+  </si>
+  <si>
+    <t>SUA MILO IT DUONG 115ML*4AC HA 180ML*4</t>
+  </si>
+  <si>
+    <t>STMC1</t>
+  </si>
+  <si>
+    <t>SUA TH MILK CD 180ML*4</t>
+  </si>
+  <si>
+    <t>SPVQ6</t>
+  </si>
+  <si>
+    <t>SCU PROBI VIET QUAT 65ML*5</t>
+  </si>
+  <si>
+    <t>NDCDX3</t>
+  </si>
+  <si>
+    <t>NUOC DUA COCO D.XIEM XANH 330ML</t>
+  </si>
+  <si>
+    <t>XVB1</t>
+  </si>
+  <si>
+    <t>XXTT VISSAN BO 18G*5</t>
+  </si>
+  <si>
+    <t>XVH1</t>
+  </si>
+  <si>
+    <t>XXTT VISSAN HEO 18G*5</t>
+  </si>
+  <si>
+    <t>MHHTCC7V</t>
+  </si>
+  <si>
+    <t>MI HAO HAO TOM CHUA CAY 75GR/ VERMICELLE</t>
+  </si>
+  <si>
+    <t>SCVC3</t>
+  </si>
+  <si>
+    <t>SNACK CARAMEL VI CARAMEN 35G</t>
+  </si>
+  <si>
+    <t>SOTC3</t>
+  </si>
+  <si>
+    <t>SNACK OISHI TOM CAY 35G</t>
+  </si>
+  <si>
+    <t>CBMC</t>
+  </si>
+  <si>
+    <t>CAI BAP MOC CHAU</t>
+  </si>
+  <si>
+    <t>SRMNV3</t>
+  </si>
+  <si>
+    <t>S RAU MUONG NUOC VIETGAP 300G</t>
+  </si>
+  <si>
+    <t>MDGL</t>
+  </si>
+  <si>
+    <t>MA DUI GA L1</t>
+  </si>
+  <si>
+    <t>(Dasida) Hạt nêm vị bò 2.25kg</t>
+  </si>
+  <si>
+    <t>DSS1</t>
+  </si>
+  <si>
+    <t>DUONG SACH SAVING 1KG</t>
+  </si>
+  <si>
+    <t>TPGS</t>
+  </si>
+  <si>
+    <t>TAO PHAP GRANNY SMITH</t>
+  </si>
+  <si>
+    <t>SVK1</t>
+  </si>
+  <si>
+    <t>SC VNM KD 100G</t>
+  </si>
+  <si>
+    <t>HSĐL1/T</t>
+  </si>
+  <si>
+    <t>Hải sâm đông lạnh 1kg / túi</t>
+  </si>
+  <si>
+    <t>MỐĐLNCNK</t>
+  </si>
+  <si>
+    <t>Mực ống  đông lạnh nguyên con nhập khẩu</t>
+  </si>
+  <si>
+    <t>LKXW3</t>
+  </si>
+  <si>
+    <t>Lá kim xào Wando 300g</t>
+  </si>
+  <si>
+    <t>MKKLH1/T</t>
+  </si>
+  <si>
+    <t>Miến khô khoai lang Heulchan 1kg / túi</t>
+  </si>
+  <si>
+    <t>ỔCĐCDD(-5+1(-CCCTSDĐÁ2DĐD1</t>
+  </si>
+  <si>
+    <t>Ổ cắm đèn có dây dài (3 - 5)m +- 10%, (5 -6) chấu có công tắc, sử dụng điện áp 220-250V dòng điện dưới 16A.</t>
+  </si>
+  <si>
+    <t>NLSDĐVTTNHSMCDĐ2CS1DT4</t>
+  </si>
+  <si>
+    <t>Nồi lẩu sử dụng điện, vung thủy tinh, nhãn hiệu: Shachu, model: CS-E, dùng điện 220V/50HZ, công suất: 1600W, dung tích: 4L</t>
+  </si>
+  <si>
+    <t>BĐN</t>
+  </si>
+  <si>
+    <t>Bình đun nước</t>
+  </si>
+  <si>
+    <t>GGKBSMNBVSTH(XKNHKT(.</t>
+  </si>
+  <si>
+    <t>Ghế gấp khung bằng sắt, mặt ngồi bằng vải sợi tổng hợp (không xoay, không nâng hạ). Kích thước (60*55*35)cm+-10%. .</t>
+  </si>
+  <si>
+    <t>TLCBSTHĐHTKT(+1</t>
+  </si>
+  <si>
+    <t>Thảm lau chân bằng sợi tổng hợp, đã hoàn thiện, kích thước (40x70)cm_ + 10%.</t>
+  </si>
+  <si>
+    <t>TTSCTTBNTHKCMTDK(</t>
+  </si>
+  <si>
+    <t>Thảm trải sàn chống trơn trượt bằng nhựa tổng hợp, không có mặt tự dính; kt (2.4*1.2)m+-10%,</t>
+  </si>
+  <si>
+    <t>TRBNKHVSCCĐNĐDT6KT(2C3HP</t>
+  </si>
+  <si>
+    <t>Thùng rác bằng nhựa kết hợp với sắt, có chân đạp, nắp đậy, dung tích 6L~9L+/-5%, kích thước: (phi 22~24, cao 30~38)cm+/-5cm, hiệu: pella.</t>
+  </si>
+  <si>
+    <t>SDNXLH1</t>
+  </si>
+  <si>
+    <t>SUA DAC NSPN XANH LA HG 1284GR</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>CHANH</t>
+  </si>
+  <si>
+    <t>SV1ID1</t>
+  </si>
+  <si>
+    <t>SUA VNM 100% IT DUONG 1L</t>
+  </si>
+  <si>
+    <t>SUA ADM NGU COC 110M</t>
+  </si>
+  <si>
+    <t>SVGF1C1</t>
+  </si>
+  <si>
+    <t>SUA VNM GREEN FARM 100% CD 110ML*4</t>
+  </si>
+  <si>
+    <t>SKNT1</t>
+  </si>
+  <si>
+    <t>SCU KUN NHO TUI 110ML</t>
+  </si>
+  <si>
+    <t>SKCT1</t>
+  </si>
+  <si>
+    <t>SUA KUN CACAO TUI 110ML4</t>
+  </si>
+  <si>
+    <t>SKDT1</t>
+  </si>
+  <si>
+    <t>SCU KUN DAU TUI 110MLML4</t>
+  </si>
+  <si>
+    <t>BCBX5</t>
+  </si>
+  <si>
+    <t>Bột chiên bánh xèo 500g</t>
+  </si>
+  <si>
+    <t>BMLBM1</t>
+  </si>
+  <si>
+    <t>Bột mì làm bánh mì 1kg</t>
+  </si>
+  <si>
+    <t>NMCNMCC(9</t>
+  </si>
+  <si>
+    <t>Nước mắm CJ nước mắm cá cơm (80%) 9kg</t>
+  </si>
+  <si>
+    <t>CCVS1</t>
+  </si>
+  <si>
+    <t>Chả cá vuông sajo 1kg</t>
+  </si>
+  <si>
+    <t>DPTLM4VH</t>
+  </si>
+  <si>
+    <t>DAU PHU TUOI LANG MO 400G VIET HOA</t>
+  </si>
+  <si>
+    <t>NMCCCC2</t>
+  </si>
+  <si>
+    <t>NUI MEIZAN CHU C CAO CAP 200G0G</t>
+  </si>
+  <si>
+    <t>BB2</t>
+  </si>
+  <si>
+    <t>BM BAGUETTE 200G</t>
+  </si>
+  <si>
+    <t>DTCCTF1</t>
+  </si>
+  <si>
+    <t>DUONG TRANG CAO CAP TSU FAMILY 1KG</t>
+  </si>
+  <si>
+    <t>CLĐT1</t>
+  </si>
+  <si>
+    <t>Công lắp đặt tủ 100.000</t>
+  </si>
+  <si>
+    <t>CTMC</t>
+  </si>
+  <si>
+    <t>Công tháo máy cũ</t>
+  </si>
+  <si>
+    <t>CPVC</t>
+  </si>
+  <si>
+    <t>Chi phí vận chuyển</t>
+  </si>
+  <si>
+    <t>ỐĐ+BÔM1</t>
+  </si>
+  <si>
+    <t>Ống đồng + Bảo ôn máy 100.000BTU</t>
+  </si>
+  <si>
+    <t>DĐ2</t>
+  </si>
+  <si>
+    <t>Dây điện 2x2.5</t>
+  </si>
+  <si>
+    <t>CĐC</t>
+  </si>
+  <si>
+    <t>Cáp điện CU/XLPE/PVC4x4</t>
+  </si>
+  <si>
+    <t>NTĐỐ</t>
+  </si>
+  <si>
+    <t>Nitor thử đường ống</t>
+  </si>
+  <si>
+    <t>CPTR</t>
+  </si>
+  <si>
+    <t>Chi phí thuê ráo</t>
+  </si>
+  <si>
+    <t>GCCĐCNĐH</t>
+  </si>
+  <si>
+    <t>Gia cố chống đổ cục nóng điều hòa</t>
+  </si>
+  <si>
+    <t>BPKLĐMĐTĐÂT(BC,ỐV</t>
+  </si>
+  <si>
+    <t>Bộ phụ kiện lắp đặt máy ĐH tủ đứng, âm trần ( Băng cuốn , ốc vít...)</t>
+  </si>
+  <si>
+    <t>TĐV1A</t>
+  </si>
+  <si>
+    <t>Tủ điện và 1 actomat</t>
+  </si>
+  <si>
+    <t>HG4H</t>
+  </si>
+  <si>
+    <t>Hộp gió 400x500 H200</t>
+  </si>
+  <si>
+    <t>NCLHG</t>
+  </si>
+  <si>
+    <t>Nhân công lắp hộp gió</t>
+  </si>
+  <si>
+    <t>NCDCCG</t>
+  </si>
+  <si>
+    <t>Nhân công di chuyển cửa gió</t>
+  </si>
+  <si>
+    <t>TTT</t>
+  </si>
+  <si>
+    <t>Ty treo trần</t>
+  </si>
+  <si>
+    <t>NS5</t>
+  </si>
+  <si>
+    <t>NGHEU SIZE 50-60CON/KG</t>
+  </si>
+  <si>
+    <t>BCSGQXS1</t>
+  </si>
+  <si>
+    <t>BANH C'ESTBON SANDWICH GA QUAY XE SOI 150G</t>
+  </si>
+  <si>
+    <t>BGNATB1</t>
+  </si>
+  <si>
+    <t>BANH GAO NUONG AN TAO BIEN 174.9G</t>
+  </si>
+  <si>
+    <t>SPVTH3</t>
+  </si>
+  <si>
+    <t>SNACK POCA VI TOM HUM 32G</t>
+  </si>
+  <si>
+    <t>MBRTTQV7</t>
+  </si>
+  <si>
+    <t>MI BO RAU THOM TU QUY VIFON 72G</t>
+  </si>
+  <si>
+    <t>SVSDT1</t>
+  </si>
+  <si>
+    <t>SCU VINAMILK SUSU DAU TUI 110ML</t>
+  </si>
+  <si>
+    <t>MLTTTQV7</t>
+  </si>
+  <si>
+    <t>MI LAU THAI TOM TU QUY VIFON 72G</t>
+  </si>
+  <si>
+    <t>MMGNG7</t>
+  </si>
+  <si>
+    <t>MI MICOEM GA NAM GOI 70GR</t>
+  </si>
+  <si>
+    <t>SPVMN3</t>
+  </si>
+  <si>
+    <t>SNACK POCA V.NH MUC NUONG 32G</t>
+  </si>
+  <si>
+    <t>M3MRTC6</t>
+  </si>
+  <si>
+    <t>MI 3 MIEN REEVA TOM CH.CAY 65G</t>
+  </si>
+  <si>
+    <t>SSBT2</t>
+  </si>
+  <si>
+    <t>SNACK SWING BIT TET 28G</t>
+  </si>
+  <si>
+    <t>MHHKCH7</t>
+  </si>
+  <si>
+    <t>MI HAO HAO KIM CHI HQ 75G</t>
+  </si>
+  <si>
+    <t>SMSTTYC8</t>
+  </si>
+  <si>
+    <t>SCU MEN SONG TH TRUE YOGURT CD 85ML*4</t>
+  </si>
+  <si>
+    <t>SV1C1</t>
+  </si>
+  <si>
+    <t>SUA VNM 100% CD 110ML*4</t>
+  </si>
+  <si>
+    <t>SV1S</t>
+  </si>
+  <si>
+    <t>SUA VNM 100% SOCOLA110ML*4</t>
+  </si>
+  <si>
+    <t>CHAN GA</t>
+  </si>
+  <si>
+    <t>DC_</t>
+  </si>
+  <si>
+    <t>DAU CANH _CP</t>
+  </si>
+  <si>
+    <t>SPN1</t>
+  </si>
+  <si>
+    <t>SUA PROSPERITE N.KEM 1L</t>
+  </si>
+  <si>
+    <t>Thịt bò ĐL có xương - C80324</t>
+  </si>
+  <si>
+    <t>XDMJM1</t>
+  </si>
+  <si>
+    <t>Xì dầu monggo jin masan 13l</t>
+  </si>
+  <si>
+    <t>MK1</t>
+  </si>
+  <si>
+    <t>Miến khô 1kg</t>
+  </si>
+  <si>
+    <t>ĐUS34SCSP</t>
+  </si>
+  <si>
+    <t>Đồ uống SPRITE 320ML 4X6 SLEEK CAN SF PROMO</t>
+  </si>
+  <si>
+    <t>ĐUC34SCS-PU</t>
+  </si>
+  <si>
+    <t>Đồ uống COKE 320ML 4X6 SLEEK CAN SF - PROMO UTC</t>
+  </si>
+  <si>
+    <t>Phí dịch vụ tháng 03.2023</t>
+  </si>
+  <si>
+    <t>VDLX7</t>
+  </si>
+  <si>
+    <t>VD DA LAT XK 750ML</t>
+  </si>
+  <si>
+    <t>Phí cho thuê máy lọc nước nóng lạnh model:HB-510 và Thiết bị lọc nước dưới bồn rửa HB-820 tháng 04/2023 theo hợp đồng số HDDV20221201-001/WOW-BAEKJOENG ký ngày 01/12/2022</t>
+  </si>
+  <si>
+    <t>BOV1</t>
+  </si>
+  <si>
+    <t>BANH OREO VANI 119.6G</t>
+  </si>
+  <si>
+    <t>TĐI1N3CMSV1</t>
+  </si>
+  <si>
+    <t>Tủ đông Inveter 1 ngăn 3 cánh mở Sanaky VH 1399HY3</t>
+  </si>
+  <si>
+    <t>NMDNMCC9</t>
+  </si>
+  <si>
+    <t>Nước mắm daesang nước mắm cá cơm 9kg</t>
+  </si>
+  <si>
+    <t>(TỚ1K</t>
+  </si>
+  <si>
+    <t>(alchan) Tương ớt 14 kg</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>Pho mai</t>
+  </si>
+  <si>
+    <t>NUOC COT DUA WONDERFARM 400ML</t>
+  </si>
+  <si>
+    <t>SNXD</t>
+  </si>
+  <si>
+    <t>SD NSPNAM XANH DUONG</t>
+  </si>
+  <si>
+    <t>TOC2</t>
+  </si>
+  <si>
+    <t>TUONG OT CHINSU 2.1KG</t>
+  </si>
+  <si>
+    <t>TDTO2</t>
+  </si>
+  <si>
+    <t>TRA DILMAH TRADITIONAL OOLONG 20*1.5G</t>
+  </si>
+  <si>
+    <t>TDS2</t>
+  </si>
+  <si>
+    <t>TRA DILMAH STRAWBERRY 20*1.5G</t>
+  </si>
+  <si>
+    <t>TDM2</t>
+  </si>
+  <si>
+    <t>TRA DILMAH MINT 20*1.5G</t>
+  </si>
+  <si>
+    <t>SNBTBNCXĐ</t>
+  </si>
+  <si>
+    <t>Sườn Non Bò Tây Ban Nha có xương ĐL</t>
+  </si>
+  <si>
+    <t>SNBCCXĐ</t>
+  </si>
+  <si>
+    <t>Sườn Non Bò Canada có xương ĐL</t>
+  </si>
+  <si>
+    <t>ĐUS16PS2</t>
+  </si>
+  <si>
+    <t>Đồ uống SPRITE 1.85L 6 PET SF 2.0</t>
+  </si>
+  <si>
+    <t>Cước taxi tháng 04/2023 #E947</t>
+  </si>
+  <si>
+    <t>GĐT2</t>
+  </si>
+  <si>
+    <t>Giá đỗ tương 250g</t>
+  </si>
+  <si>
+    <t>TGTV1Q</t>
+  </si>
+  <si>
+    <t>Trứng gà tươi vỉ 10 quả</t>
+  </si>
+  <si>
+    <t>CĐCBS(GCP2</t>
+  </si>
+  <si>
+    <t>Cá đã chế biến Sempio (dạng Gói) cá pollack 200g</t>
+  </si>
+  <si>
+    <t>CDCBDHKKCGNALDCNLS./H1</t>
+  </si>
+  <si>
+    <t>Ca da che bien dong hop kin khi co ghi nhan an lien Dongwon ca ngu light standard .150g / hop 150g</t>
+  </si>
+  <si>
+    <t>HALSFHVS2</t>
+  </si>
+  <si>
+    <t>Hat an lien Sinsong food hat vung say 230g</t>
+  </si>
+  <si>
+    <t>NGKKGWVQTNNT1</t>
+  </si>
+  <si>
+    <t>Nuoc giai khat khong ga Woongjin vi quyt tu nhien NATURES TANGERINE 1.5L</t>
+  </si>
+  <si>
+    <t>BT3CU</t>
+  </si>
+  <si>
+    <t>Bia Tiger 330x24B Crt Uncage</t>
+  </si>
+  <si>
+    <t>BH3CK</t>
+  </si>
+  <si>
+    <t>Bia Heineken 330x24B Crt K2</t>
+  </si>
+  <si>
+    <t>BHNN3C</t>
+  </si>
+  <si>
+    <t>BIA  HÀ NỘI NHỎ 330ml-20 chai</t>
+  </si>
+  <si>
+    <t>BSGXK-3</t>
+  </si>
+  <si>
+    <t>Bia Sài gòn xanh két - 330ml</t>
+  </si>
+  <si>
+    <t>ỚBDĐMKC2</t>
+  </si>
+  <si>
+    <t>Ớt bột dùng để muối kim chi 2,27kg</t>
+  </si>
+  <si>
+    <t>DHNML3</t>
+  </si>
+  <si>
+    <t>Dasida hạt nêm mì lạnh 300g</t>
+  </si>
+  <si>
+    <t>BSNHD5</t>
+  </si>
+  <si>
+    <t>BG SURF NUOC HOA D.DANG 5.3KG</t>
+  </si>
+  <si>
+    <t>STCKND1</t>
+  </si>
+  <si>
+    <t>SUA TRAI CAY KUN NHIET DOI 110ML*4</t>
+  </si>
+  <si>
+    <t>SCC1</t>
+  </si>
+  <si>
+    <t>SUA CGHL CD 110ML*4</t>
+  </si>
+  <si>
+    <t>STTD1</t>
+  </si>
+  <si>
+    <t>SCU TH TOPKID DAU 11</t>
+  </si>
+  <si>
+    <t>SCD1</t>
+  </si>
+  <si>
+    <t>SUA CGHL DAU 110ML*4</t>
+  </si>
+  <si>
+    <t>STTC1</t>
+  </si>
+  <si>
+    <t>SCU TH TOPKID CAM 11</t>
+  </si>
+  <si>
+    <t>SSDC8</t>
+  </si>
+  <si>
+    <t>SCA SUSU DAU CHUOI 8</t>
+  </si>
+  <si>
+    <t>SSTC8</t>
+  </si>
+  <si>
+    <t>SCA SUSU TAO CHUOI 8</t>
+  </si>
+  <si>
+    <t>XV3C5</t>
+  </si>
+  <si>
+    <t>XX VEALZ 3A CP 500G</t>
+  </si>
+  <si>
+    <t>L2BCF</t>
+  </si>
+  <si>
+    <t>LO 2 BCDR COLGATE FL</t>
+  </si>
+  <si>
+    <t>SOPMM3</t>
+  </si>
+  <si>
+    <t>SNACK OISHI PHO MAT MIENG 35G</t>
+  </si>
+  <si>
+    <t>SMEHGTA3</t>
+  </si>
+  <si>
+    <t>SNACK MI ENAAK HUONG GA TUONG AN 30G</t>
+  </si>
+  <si>
+    <t>XTTXTSHM7</t>
+  </si>
+  <si>
+    <t>XX TT THIT XOT TOM SUA HAWAII MASSAN 78G</t>
+  </si>
+  <si>
+    <t>STGOH1</t>
+  </si>
+  <si>
+    <t>SAP THOM GLADE OAI HUONG 180G</t>
+  </si>
+  <si>
+    <t>SMSN6</t>
+  </si>
+  <si>
+    <t>SCU MEN SONG NUTI 65ML*5</t>
+  </si>
+  <si>
+    <t>SKLMCVTN6</t>
+  </si>
+  <si>
+    <t>SNACK KTC LAY'S MY CHIU VI TU NHIEN 60G</t>
+  </si>
+  <si>
+    <t>SCBNC3</t>
+  </si>
+  <si>
+    <t>SNACK CORNCHIP BAP NGOT CAY 35G</t>
+  </si>
+  <si>
+    <t>NOTCH9</t>
+  </si>
+  <si>
+    <t>NM ONG TAY CA HOI 900ML</t>
+  </si>
+  <si>
+    <t>TBNA2</t>
+  </si>
+  <si>
+    <t>TAM BONG NIVA AZ3 200C</t>
+  </si>
+  <si>
+    <t>BTDV4</t>
+  </si>
+  <si>
+    <t>BANH TOPPO DAU VANI 40G</t>
+  </si>
+  <si>
+    <t>SOCCN3</t>
+  </si>
+  <si>
+    <t>SNACK OISHI CUA CHUA NGOT 35G</t>
+  </si>
+  <si>
+    <t>SBCS</t>
+  </si>
+  <si>
+    <t>SUA BICH CGHL SOCOLA</t>
+  </si>
+  <si>
+    <t>GCKL31</t>
+  </si>
+  <si>
+    <t>GVS CORELEX KHONG LOI 3L 10C</t>
+  </si>
+  <si>
+    <t>CB</t>
+  </si>
+  <si>
+    <t>Cải bắp</t>
+  </si>
+  <si>
+    <t>Cải chíp</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>Cải ngọt</t>
+  </si>
+  <si>
+    <t>Cải ngồng</t>
+  </si>
+  <si>
+    <t>XH</t>
+  </si>
+  <si>
+    <t>Xu hào</t>
+  </si>
+  <si>
+    <t>NĐG</t>
+  </si>
+  <si>
+    <t>Nấm đùi gà</t>
+  </si>
+  <si>
+    <t>NB</t>
+  </si>
+  <si>
+    <t>Ngô bắp</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Hẹ</t>
+  </si>
+  <si>
+    <t>Khoai lang</t>
+  </si>
+  <si>
+    <t>CĐ</t>
+  </si>
+  <si>
+    <t>Củ đậu</t>
+  </si>
+  <si>
+    <t>RC</t>
+  </si>
+  <si>
+    <t>Rau cần</t>
+  </si>
+  <si>
+    <t>CCB</t>
+  </si>
+  <si>
+    <t>Cà chua bi</t>
+  </si>
+  <si>
+    <t>Bắp cải tím</t>
+  </si>
+  <si>
+    <t>TBĐKXCC</t>
+  </si>
+  <si>
+    <t>Thịt bò ĐL ko xương(ba chỉ)Excel Canada-C22198</t>
+  </si>
+  <si>
+    <t>DHKH</t>
+  </si>
+  <si>
+    <t>DUA HAU KHONG HAT</t>
+  </si>
+  <si>
+    <t>BSHXB5</t>
+  </si>
+  <si>
+    <t>BG SURF HUONG XUAN BICH 5.5KG</t>
+  </si>
+  <si>
+    <t>MOHTN6</t>
+  </si>
+  <si>
+    <t>MAT ONG HOA TU NHIEN 650ML</t>
+  </si>
+  <si>
+    <t>TT4C</t>
+  </si>
+  <si>
+    <t>TOM THE 40-60 CON/KG</t>
+  </si>
+  <si>
+    <t>WDDNC2</t>
+  </si>
+  <si>
+    <t>W129-NOI DAT DEN NAP CAM 21CMCMM</t>
+  </si>
+  <si>
+    <t>LNDCLC</t>
+  </si>
+  <si>
+    <t>LK-TAY NGHE DAY CHÁT LUỌNG CAO-15X10X6X14.4X1.5</t>
+  </si>
+  <si>
+    <t>LCBNMT</t>
+  </si>
+  <si>
+    <t>LK-THIA COM BANG NHUA MAU TRANG-20.5X5.8X5.814719</t>
+  </si>
+  <si>
+    <t>LJSI3MX3</t>
+  </si>
+  <si>
+    <t>LK J69- SAN INOX 33.5CMCMCMMTRON MAU XANH 30CM7CM</t>
+  </si>
+  <si>
+    <t>BTTĐB</t>
+  </si>
+  <si>
+    <t>BÔNG TẮM TRÒN ĐÔI BD01</t>
+  </si>
+  <si>
+    <t>TBĐKXNVS</t>
+  </si>
+  <si>
+    <t>Thịt bò ĐL ko xương(lõi nạc vai) SWIFT-19146</t>
+  </si>
+  <si>
+    <t>MỐĐLNC</t>
+  </si>
+  <si>
+    <t>Mực ống đông lạnh nguyên con</t>
+  </si>
+  <si>
+    <t>(TĐTT1</t>
+  </si>
+  <si>
+    <t>(Haechandle) Tương đậu truyền thống 14kg</t>
+  </si>
+  <si>
+    <t>MKJT1</t>
+  </si>
+  <si>
+    <t>MI KORENO JUMBO TOM 1KG</t>
+  </si>
+  <si>
+    <t>MKJKC1</t>
+  </si>
+  <si>
+    <t>MI KORENO JUMBO KIM CHI 1KG</t>
+  </si>
+  <si>
+    <t>MKJHSC1</t>
+  </si>
+  <si>
+    <t>MI KORENO JUMBO HAI SAN CAY 1KG</t>
+  </si>
+  <si>
+    <t>LKVW4</t>
+  </si>
+  <si>
+    <t>lá kim vụn wando 400g</t>
+  </si>
+  <si>
+    <t>SPN</t>
+  </si>
+  <si>
+    <t>SUA PROSPERITE N.KEM</t>
+  </si>
+  <si>
+    <t>NRCTK5-S</t>
+  </si>
+  <si>
+    <t>NUI RAU CU TOM KHO 500G - SAFOCO</t>
+  </si>
+  <si>
+    <t>NRCS5-S</t>
+  </si>
+  <si>
+    <t>NUI RAU CU SO 500G - SAFOCO</t>
+  </si>
+  <si>
+    <t>RCSĐC13</t>
+  </si>
+  <si>
+    <t>Rượu Chumchurum Soju độ cồn 16.5% 360ml</t>
+  </si>
+  <si>
+    <t>Phí dịch vụ tháng 04.2023</t>
+  </si>
+  <si>
+    <t>Phí cho thuê máy lọc nước nóng lạnh model:HB-510 và Thiết bị lọc nước dưới bồn rửa HB-820 tháng 05/2023 theo hợp đồng số HDDV20221201-001/WOW-BAEKJOENG ký ngày 01/12/2022</t>
+  </si>
+  <si>
+    <t>CQSD</t>
+  </si>
+  <si>
+    <t>Camera quan sát DS-2CE70DF0T-PF</t>
+  </si>
+  <si>
+    <t>Camera quan sát DS-2CE12D8T-PIRL</t>
+  </si>
+  <si>
+    <t>ĐGHD</t>
+  </si>
+  <si>
+    <t>Đầu ghi hình DS-7208HGHI-K1</t>
+  </si>
+  <si>
+    <t>CR+2</t>
+  </si>
+  <si>
+    <t>Cáp RG59/CCS + 2Cx0.4/SP</t>
+  </si>
+  <si>
+    <t>ỔC1KAS32S(</t>
+  </si>
+  <si>
+    <t>Ổ cứng 120Gb kingston A400 Sata 3 2.5 SSD (SA400S37/120G)</t>
+  </si>
+  <si>
+    <t>CCS3S</t>
+  </si>
+  <si>
+    <t>CS30 CHAO SAN 30CM SUNHOUSE</t>
+  </si>
+  <si>
+    <t>SCS3S</t>
+  </si>
+  <si>
+    <t>SBD30 CHAO SBD 30CM SUNHOUSE</t>
+  </si>
+  <si>
+    <t>BHX1</t>
+  </si>
+  <si>
+    <t>B.TH.CONG HANDO XANH 100G</t>
+  </si>
+  <si>
+    <t>VTBCG42</t>
+  </si>
+  <si>
+    <t>VIEN TAY BON CAU GIFT 4VIEN 220G</t>
+  </si>
+  <si>
+    <t>VMK1</t>
+  </si>
+  <si>
+    <t>V20153 Miến khô 1kg</t>
+  </si>
+  <si>
+    <t>MLHHM2K</t>
+  </si>
+  <si>
+    <t>Mì lạnh hàm hương( Misikga) 2 kg</t>
+  </si>
+  <si>
+    <t>Cước taxi tháng 05/2023 #E947</t>
+  </si>
+  <si>
+    <t>KT</t>
+  </si>
+  <si>
+    <t>Khoai tây</t>
+  </si>
+  <si>
+    <t>RĂLKCĐGKKĂLCCCC./</t>
+  </si>
+  <si>
+    <t>Rau ăn liền Kim chi đóng gói kín khí ăn liền Chongga củ cải CHONGKAK .1KG /gói.</t>
+  </si>
+  <si>
+    <t>XXRCNBGPMVC5</t>
+  </si>
+  <si>
+    <t>Xuc xich ran corndog nhan banh gao, pho mai và ca 500g</t>
+  </si>
+  <si>
+    <t>MT-JF7</t>
+  </si>
+  <si>
+    <t>Mu tat - Jubi Food 75g</t>
+  </si>
+  <si>
+    <t>LVTNTSVC7</t>
+  </si>
+  <si>
+    <t>Lá vừng tấm nước tương Sempio vị cay 70g</t>
+  </si>
+  <si>
+    <t>KCCTP1</t>
+  </si>
+  <si>
+    <t>Kimchi chongga cai thao POGGI 1kg</t>
+  </si>
+  <si>
+    <t>TDTXGN1</t>
+  </si>
+  <si>
+    <t>Trà Dongsuh tra xanh gao nau 1.5g*50</t>
+  </si>
+  <si>
+    <t>RBKB1</t>
+  </si>
+  <si>
+    <t>Rong biển khô Bosung 1kg</t>
+  </si>
+  <si>
+    <t>VGVNĂN2</t>
+  </si>
+  <si>
+    <t>V10150 Gia vị nấu ăn ngon 20L</t>
+  </si>
+  <si>
+    <t>DM1</t>
+  </si>
+  <si>
+    <t>Dầu mè 1.8l/can</t>
+  </si>
+  <si>
+    <t>BTCL</t>
+  </si>
+  <si>
+    <t>Bia Tiger crystal Lon</t>
+  </si>
+  <si>
+    <t>Suất Buffet Người Lớn 388</t>
+  </si>
+  <si>
+    <t>NTR(2</t>
+  </si>
+  <si>
+    <t>Nước tẩy rửa (Terminator 20L)</t>
+  </si>
+  <si>
+    <t>ĐUCZ34SSSP</t>
+  </si>
+  <si>
+    <t>Đồ uống COKE ZERO 320ML 4x6 SC SF SAVING PACK</t>
+  </si>
+  <si>
+    <t>XXC1</t>
+  </si>
+  <si>
+    <t>XUC XICH CQ 1KG</t>
+  </si>
+  <si>
+    <t>SCA SUSU DAU CHUOI 80G</t>
+  </si>
+  <si>
+    <t>SCA SUSU TAO CHUOI 80G</t>
+  </si>
+  <si>
+    <t>SVLDI1</t>
+  </si>
+  <si>
+    <t>SC VNM LUU DO ID 100G*4</t>
+  </si>
+  <si>
+    <t>SL3</t>
+  </si>
+  <si>
+    <t>SANDWICH LAT 300G</t>
+  </si>
+  <si>
+    <t>TBCLKD</t>
+  </si>
+  <si>
+    <t>Thịt ba chỉ lợn không da</t>
+  </si>
+  <si>
+    <t>CPBTTMTHĐLTT3ĐT6</t>
+  </si>
+  <si>
+    <t>Chi phí bảo trì thang máy theo hợp đồng LBT644A21HNI từ tháng 3/2023 đến tháng 6/2023</t>
+  </si>
+  <si>
+    <t>GBBNLMĐD0DCM1</t>
+  </si>
+  <si>
+    <t>Giấy bạc bằng nhôm lá mỏng, độ dầy 0.15mm, dạng cuộn. Mới 100%</t>
+  </si>
+  <si>
+    <t>GĐĐDNBBTKGK(M1</t>
+  </si>
+  <si>
+    <t>Giá để đồ dùng nhà bếp bằng thép không gỉ. KT: (35*30*20)cm+-10%. Mới 100%</t>
+  </si>
+  <si>
+    <t>KHRBNTHKT(M1</t>
+  </si>
+  <si>
+    <t>Ki hót rác bằng nhựa tổng hợp, kích thước (20*13*60)cm+-10%. Mới 100%</t>
+  </si>
+  <si>
+    <t>CQNBNTHCCBIKT(M1</t>
+  </si>
+  <si>
+    <t>Chổi quét nhà bằng nhựa tổng hợp, cán chổi bằng inox, kích thước (60*25*5)cm+-10%. Mới 100%</t>
+  </si>
+  <si>
+    <t>ĐDNBRLBITCBNK(1)M1</t>
+  </si>
+  <si>
+    <t>Đồ dùng nhà bếp: Rây lọc bằng inox, tay cầm bằng nhựa, KT (phi 15*20cm )+-10%. Mới 100%</t>
+  </si>
+  <si>
+    <t>CLNCBIKHNĐCBSTHKCTNKX3ĐK(M1</t>
+  </si>
+  <si>
+    <t>Cây lau nhà cán bằng inox kết hợp nhựa, đầu chổi bằng sợi tổng hợp, không có thùng nước, không xoay 360 độ, KT: (30*140)cm+-10%. Mới 100%</t>
+  </si>
+  <si>
+    <t>KGLNCKDK(M1</t>
+  </si>
+  <si>
+    <t>Khay giấy lót nồi chiên không dầu, KT (18*5.5)cm+-10%. Mới 100%</t>
+  </si>
+  <si>
+    <t>KGBBNLMDĐLNCKDK(M1</t>
+  </si>
+  <si>
+    <t>Khay giấy bạc bằng nhôm lá mỏng dùng để lót nồi chiên không dầu, KT (18*5.5)cm+-10%. Mới 100%</t>
+  </si>
+  <si>
+    <t>CNVSBNTHKT(M1</t>
+  </si>
+  <si>
+    <t>Cọ nhà vệ sinh bằng nhựa tổng hợp, kích thước (16*5)cm. Mới 100%</t>
+  </si>
+  <si>
+    <t>TTGBVLK(M1</t>
+  </si>
+  <si>
+    <t>Thảm trải ghế bằng vải lông, KT (60*60)cm. Mới 100%</t>
+  </si>
+  <si>
+    <t>NDHMT4</t>
+  </si>
+  <si>
+    <t>NXV DOWNY H.NANG MAI TUI 4L</t>
+  </si>
+  <si>
+    <t>ĐUFO34SCSP</t>
+  </si>
+  <si>
+    <t>Đồ uống FANTA ORANGE 320ML 4X6 SLEEK CAN SF PROM</t>
+  </si>
+  <si>
+    <t>NDMLD3</t>
+  </si>
+  <si>
+    <t>Nước dùng miến lạnh Dongchimi 340g/gói</t>
+  </si>
+  <si>
+    <t>BKC2</t>
+  </si>
+  <si>
+    <t>Bia keg Carlsberg 20L</t>
+  </si>
+  <si>
+    <t>TXNP</t>
+  </si>
+  <si>
+    <t>TAO XANH NAM PHI</t>
+  </si>
+  <si>
+    <t>DTCC</t>
+  </si>
+  <si>
+    <t>DUONG TRANG CAO CAP</t>
+  </si>
+  <si>
+    <t>BANH OREO VANI 119.6</t>
+  </si>
+  <si>
+    <t>DSB</t>
+  </si>
+  <si>
+    <t>Dẻ sườn bò</t>
+  </si>
+  <si>
+    <t>Phí dịch vụ tháng 05.2023</t>
+  </si>
+  <si>
+    <t>DVHXHĐTBID</t>
+  </si>
+  <si>
+    <t>Dịch vụ bảo hiểm xã hội điện tử Bkav IVAN D</t>
+  </si>
+  <si>
+    <t>MSG1</t>
+  </si>
+  <si>
+    <t>Mì shin gói 120g</t>
+  </si>
+  <si>
+    <t>(HCĂL2</t>
+  </si>
+  <si>
+    <t>( HETBAHN) Cơm ăn liền 210g*36</t>
+  </si>
+  <si>
+    <t>NMCC2</t>
+  </si>
+  <si>
+    <t>NUI MEIZAN CAO CAP 200G</t>
+  </si>
+  <si>
+    <t>Phí cho thuê máy lọc nước nóng lạnh model:HB-510 và Thiết bị lọc nước dưới bồn rửa HB-820 tháng 06/2023 theo hợp đồng số HDDV20221201-001/WOW-BAEKJOENG ký ngày 01/12/2022</t>
+  </si>
+  <si>
+    <t>BBGTK</t>
+  </si>
+  <si>
+    <t>Bộ bàn ghế tiếp khách</t>
+  </si>
+  <si>
+    <t>XDHC</t>
+  </si>
+  <si>
+    <t>XUONG DUOI HEO- CP_VIETGAP</t>
+  </si>
+  <si>
+    <t>NSTNT7</t>
+  </si>
+  <si>
+    <t>NRC SUNLIGHT THIEN NHIEN TUI 750G</t>
+  </si>
+  <si>
+    <t>STBVNSD5G06</t>
+  </si>
+  <si>
+    <t>S TOPS BRAND VAI NGAM SIRO DUONG 565 G  00G 660G</t>
+  </si>
+  <si>
+    <t>QCTF</t>
+  </si>
+  <si>
+    <t>Quạt cây Toshiba F-LSD10(H)</t>
+  </si>
+  <si>
+    <t>BSGXK-3-2C</t>
+  </si>
+  <si>
+    <t>Bia Sài gòn xanh két - 330ml - 24 CHAI</t>
+  </si>
+  <si>
+    <t>BBGGNT</t>
+  </si>
+  <si>
+    <t>Bộ bàn ghế gỗ nướng thịt</t>
   </si>
 </sst>
 </file>
@@ -237,8 +3102,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* \-??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* \-??_);_(@_)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -380,7 +3245,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -440,7 +3305,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
@@ -452,7 +3317,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="2" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
@@ -476,14 +3341,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="2" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="2" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -767,7 +3632,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AZ2"/>
+  <dimension ref="A1:AZ497"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:B447"/>
@@ -1032,6 +3897,3966 @@
       </c>
       <c r="AZ2" s="15" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>111</v>
+      </c>
+      <c r="B30" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>115</v>
+      </c>
+      <c r="B32" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>117</v>
+      </c>
+      <c r="B33" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>119</v>
+      </c>
+      <c r="B34" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>121</v>
+      </c>
+      <c r="B35" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>123</v>
+      </c>
+      <c r="B36" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>125</v>
+      </c>
+      <c r="B37" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>127</v>
+      </c>
+      <c r="B38" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>129</v>
+      </c>
+      <c r="B39" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>131</v>
+      </c>
+      <c r="B40" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>133</v>
+      </c>
+      <c r="B41" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>135</v>
+      </c>
+      <c r="B42" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>137</v>
+      </c>
+      <c r="B43" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>139</v>
+      </c>
+      <c r="B44" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>141</v>
+      </c>
+      <c r="B45" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>143</v>
+      </c>
+      <c r="B46" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>145</v>
+      </c>
+      <c r="B47" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>147</v>
+      </c>
+      <c r="B48" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>149</v>
+      </c>
+      <c r="B49" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>151</v>
+      </c>
+      <c r="B50" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>153</v>
+      </c>
+      <c r="B51" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>155</v>
+      </c>
+      <c r="B52" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>157</v>
+      </c>
+      <c r="B53" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>159</v>
+      </c>
+      <c r="B54" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>161</v>
+      </c>
+      <c r="B55" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>163</v>
+      </c>
+      <c r="B56" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>165</v>
+      </c>
+      <c r="B57" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>167</v>
+      </c>
+      <c r="B58" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>169</v>
+      </c>
+      <c r="B59" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>171</v>
+      </c>
+      <c r="B60" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>173</v>
+      </c>
+      <c r="B61" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>175</v>
+      </c>
+      <c r="B62" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>177</v>
+      </c>
+      <c r="B63" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>179</v>
+      </c>
+      <c r="B64" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>181</v>
+      </c>
+      <c r="B65" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>183</v>
+      </c>
+      <c r="B66" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>185</v>
+      </c>
+      <c r="B67" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>187</v>
+      </c>
+      <c r="B68" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>189</v>
+      </c>
+      <c r="B69" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>191</v>
+      </c>
+      <c r="B70" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>147</v>
+      </c>
+      <c r="B71" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>194</v>
+      </c>
+      <c r="B72" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>196</v>
+      </c>
+      <c r="B73" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>198</v>
+      </c>
+      <c r="B74" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>200</v>
+      </c>
+      <c r="B75" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>202</v>
+      </c>
+      <c r="B76" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>204</v>
+      </c>
+      <c r="B77" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>206</v>
+      </c>
+      <c r="B78" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>208</v>
+      </c>
+      <c r="B79" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>210</v>
+      </c>
+      <c r="B80" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>212</v>
+      </c>
+      <c r="B81" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>214</v>
+      </c>
+      <c r="B82" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>216</v>
+      </c>
+      <c r="B83" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>218</v>
+      </c>
+      <c r="B84" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>220</v>
+      </c>
+      <c r="B85" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>121</v>
+      </c>
+      <c r="B86" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>223</v>
+      </c>
+      <c r="B87" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>225</v>
+      </c>
+      <c r="B88" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>227</v>
+      </c>
+      <c r="B89" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>229</v>
+      </c>
+      <c r="B90" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>231</v>
+      </c>
+      <c r="B91" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>233</v>
+      </c>
+      <c r="B92" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>235</v>
+      </c>
+      <c r="B93" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>237</v>
+      </c>
+      <c r="B94" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>239</v>
+      </c>
+      <c r="B95" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>241</v>
+      </c>
+      <c r="B96" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>243</v>
+      </c>
+      <c r="B97" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>245</v>
+      </c>
+      <c r="B98" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>247</v>
+      </c>
+      <c r="B99" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>249</v>
+      </c>
+      <c r="B100" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>251</v>
+      </c>
+      <c r="B101" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>253</v>
+      </c>
+      <c r="B102" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>255</v>
+      </c>
+      <c r="B103" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>257</v>
+      </c>
+      <c r="B104" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>259</v>
+      </c>
+      <c r="B105" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>261</v>
+      </c>
+      <c r="B106" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>263</v>
+      </c>
+      <c r="B107" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>265</v>
+      </c>
+      <c r="B108" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>267</v>
+      </c>
+      <c r="B109" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>269</v>
+      </c>
+      <c r="B110" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>271</v>
+      </c>
+      <c r="B111" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>273</v>
+      </c>
+      <c r="B112" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>275</v>
+      </c>
+      <c r="B113" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>277</v>
+      </c>
+      <c r="B114" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>279</v>
+      </c>
+      <c r="B115" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>281</v>
+      </c>
+      <c r="B116" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>283</v>
+      </c>
+      <c r="B117" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>285</v>
+      </c>
+      <c r="B118" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>287</v>
+      </c>
+      <c r="B119" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>289</v>
+      </c>
+      <c r="B120" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>291</v>
+      </c>
+      <c r="B121" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>293</v>
+      </c>
+      <c r="B122" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>295</v>
+      </c>
+      <c r="B123" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>297</v>
+      </c>
+      <c r="B124" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>223</v>
+      </c>
+      <c r="B125" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>300</v>
+      </c>
+      <c r="B126" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>302</v>
+      </c>
+      <c r="B127" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>304</v>
+      </c>
+      <c r="B128" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>306</v>
+      </c>
+      <c r="B129" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>308</v>
+      </c>
+      <c r="B130" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>310</v>
+      </c>
+      <c r="B131" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>312</v>
+      </c>
+      <c r="B132" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>314</v>
+      </c>
+      <c r="B133" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>316</v>
+      </c>
+      <c r="B134" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>318</v>
+      </c>
+      <c r="B135" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>320</v>
+      </c>
+      <c r="B136" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>322</v>
+      </c>
+      <c r="B137" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>324</v>
+      </c>
+      <c r="B138" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>326</v>
+      </c>
+      <c r="B139" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>328</v>
+      </c>
+      <c r="B140" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>330</v>
+      </c>
+      <c r="B141" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>332</v>
+      </c>
+      <c r="B142" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>334</v>
+      </c>
+      <c r="B143" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>336</v>
+      </c>
+      <c r="B144" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>338</v>
+      </c>
+      <c r="B145" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>340</v>
+      </c>
+      <c r="B146" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>342</v>
+      </c>
+      <c r="B147" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>344</v>
+      </c>
+      <c r="B148" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>346</v>
+      </c>
+      <c r="B149" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>348</v>
+      </c>
+      <c r="B150" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>350</v>
+      </c>
+      <c r="B151" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>352</v>
+      </c>
+      <c r="B152" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>354</v>
+      </c>
+      <c r="B153" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>356</v>
+      </c>
+      <c r="B154" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>358</v>
+      </c>
+      <c r="B155" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>360</v>
+      </c>
+      <c r="B156" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>362</v>
+      </c>
+      <c r="B157" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>364</v>
+      </c>
+      <c r="B158" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>366</v>
+      </c>
+      <c r="B159" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>368</v>
+      </c>
+      <c r="B160" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>370</v>
+      </c>
+      <c r="B161" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>372</v>
+      </c>
+      <c r="B162" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>374</v>
+      </c>
+      <c r="B163" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>376</v>
+      </c>
+      <c r="B164" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>378</v>
+      </c>
+      <c r="B165" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>380</v>
+      </c>
+      <c r="B166" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>382</v>
+      </c>
+      <c r="B167" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>384</v>
+      </c>
+      <c r="B168" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>386</v>
+      </c>
+      <c r="B169" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>388</v>
+      </c>
+      <c r="B170" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>390</v>
+      </c>
+      <c r="B171" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>392</v>
+      </c>
+      <c r="B172" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>394</v>
+      </c>
+      <c r="B173" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>396</v>
+      </c>
+      <c r="B174" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>398</v>
+      </c>
+      <c r="B175" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>141</v>
+      </c>
+      <c r="B176" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>401</v>
+      </c>
+      <c r="B177" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>403</v>
+      </c>
+      <c r="B178" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>145</v>
+      </c>
+      <c r="B179" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>406</v>
+      </c>
+      <c r="B180" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>408</v>
+      </c>
+      <c r="B181" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>410</v>
+      </c>
+      <c r="B182" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>412</v>
+      </c>
+      <c r="B183" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>414</v>
+      </c>
+      <c r="B184" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>416</v>
+      </c>
+      <c r="B185" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>418</v>
+      </c>
+      <c r="B186" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>420</v>
+      </c>
+      <c r="B187" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>422</v>
+      </c>
+      <c r="B188" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>424</v>
+      </c>
+      <c r="B189" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>426</v>
+      </c>
+      <c r="B190" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>428</v>
+      </c>
+      <c r="B191" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>430</v>
+      </c>
+      <c r="B192" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>432</v>
+      </c>
+      <c r="B193" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>320</v>
+      </c>
+      <c r="B194" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>435</v>
+      </c>
+      <c r="B195" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>437</v>
+      </c>
+      <c r="B196" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>439</v>
+      </c>
+      <c r="B197" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>441</v>
+      </c>
+      <c r="B198" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>443</v>
+      </c>
+      <c r="B199" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>445</v>
+      </c>
+      <c r="B200" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>447</v>
+      </c>
+      <c r="B201" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>449</v>
+      </c>
+      <c r="B202" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>451</v>
+      </c>
+      <c r="B203" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>453</v>
+      </c>
+      <c r="B204" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>455</v>
+      </c>
+      <c r="B205" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>457</v>
+      </c>
+      <c r="B206" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>459</v>
+      </c>
+      <c r="B207" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>461</v>
+      </c>
+      <c r="B208" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>463</v>
+      </c>
+      <c r="B209" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>465</v>
+      </c>
+      <c r="B210" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>467</v>
+      </c>
+      <c r="B211" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>469</v>
+      </c>
+      <c r="B212" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>471</v>
+      </c>
+      <c r="B213" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>473</v>
+      </c>
+      <c r="B214" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>475</v>
+      </c>
+      <c r="B215" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>477</v>
+      </c>
+      <c r="B216" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>479</v>
+      </c>
+      <c r="B217" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>481</v>
+      </c>
+      <c r="B218" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>483</v>
+      </c>
+      <c r="B219" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>485</v>
+      </c>
+      <c r="B220" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>487</v>
+      </c>
+      <c r="B221" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>489</v>
+      </c>
+      <c r="B222" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>491</v>
+      </c>
+      <c r="B223" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>141</v>
+      </c>
+      <c r="B224" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>494</v>
+      </c>
+      <c r="B225" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>496</v>
+      </c>
+      <c r="B226" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>498</v>
+      </c>
+      <c r="B227" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>500</v>
+      </c>
+      <c r="B228" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>502</v>
+      </c>
+      <c r="B229" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>504</v>
+      </c>
+      <c r="B230" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>506</v>
+      </c>
+      <c r="B231" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>508</v>
+      </c>
+      <c r="B232" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>510</v>
+      </c>
+      <c r="B233" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>512</v>
+      </c>
+      <c r="B234" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>514</v>
+      </c>
+      <c r="B235" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>516</v>
+      </c>
+      <c r="B236" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>518</v>
+      </c>
+      <c r="B237" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>520</v>
+      </c>
+      <c r="B238" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>522</v>
+      </c>
+      <c r="B239" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>524</v>
+      </c>
+      <c r="B240" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>145</v>
+      </c>
+      <c r="B241" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>527</v>
+      </c>
+      <c r="B242" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>529</v>
+      </c>
+      <c r="B243" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>531</v>
+      </c>
+      <c r="B244" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>533</v>
+      </c>
+      <c r="B245" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>535</v>
+      </c>
+      <c r="B246" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>537</v>
+      </c>
+      <c r="B247" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>539</v>
+      </c>
+      <c r="B248" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>541</v>
+      </c>
+      <c r="B249" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>543</v>
+      </c>
+      <c r="B250" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>545</v>
+      </c>
+      <c r="B251" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>547</v>
+      </c>
+      <c r="B252" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>549</v>
+      </c>
+      <c r="B253" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>551</v>
+      </c>
+      <c r="B254" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>553</v>
+      </c>
+      <c r="B255" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>461</v>
+      </c>
+      <c r="B256" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>556</v>
+      </c>
+      <c r="B257" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>558</v>
+      </c>
+      <c r="B258" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>560</v>
+      </c>
+      <c r="B259" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>562</v>
+      </c>
+      <c r="B260" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>564</v>
+      </c>
+      <c r="B261" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>566</v>
+      </c>
+      <c r="B262" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>181</v>
+      </c>
+      <c r="B263" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>569</v>
+      </c>
+      <c r="B264" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>571</v>
+      </c>
+      <c r="B265" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>573</v>
+      </c>
+      <c r="B266" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>575</v>
+      </c>
+      <c r="B267" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>577</v>
+      </c>
+      <c r="B268" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>579</v>
+      </c>
+      <c r="B269" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>581</v>
+      </c>
+      <c r="B270" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>583</v>
+      </c>
+      <c r="B271" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>585</v>
+      </c>
+      <c r="B272" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>587</v>
+      </c>
+      <c r="B273" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>589</v>
+      </c>
+      <c r="B274" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>591</v>
+      </c>
+      <c r="B275" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>231</v>
+      </c>
+      <c r="B276" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>594</v>
+      </c>
+      <c r="B277" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>596</v>
+      </c>
+      <c r="B278" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>598</v>
+      </c>
+      <c r="B279" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>600</v>
+      </c>
+      <c r="B280" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>602</v>
+      </c>
+      <c r="B281" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>604</v>
+      </c>
+      <c r="B282" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>606</v>
+      </c>
+      <c r="B283" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>608</v>
+      </c>
+      <c r="B284" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>610</v>
+      </c>
+      <c r="B285" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>612</v>
+      </c>
+      <c r="B286" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>614</v>
+      </c>
+      <c r="B287" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>616</v>
+      </c>
+      <c r="B288" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>618</v>
+      </c>
+      <c r="B289" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>620</v>
+      </c>
+      <c r="B290" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>622</v>
+      </c>
+      <c r="B291" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>624</v>
+      </c>
+      <c r="B292" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>626</v>
+      </c>
+      <c r="B293" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>508</v>
+      </c>
+      <c r="B294" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>629</v>
+      </c>
+      <c r="B295" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>631</v>
+      </c>
+      <c r="B296" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>633</v>
+      </c>
+      <c r="B297" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>635</v>
+      </c>
+      <c r="B298" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>637</v>
+      </c>
+      <c r="B299" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>639</v>
+      </c>
+      <c r="B300" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>641</v>
+      </c>
+      <c r="B301" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>643</v>
+      </c>
+      <c r="B302" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>645</v>
+      </c>
+      <c r="B303" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>647</v>
+      </c>
+      <c r="B304" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>649</v>
+      </c>
+      <c r="B305" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>651</v>
+      </c>
+      <c r="B306" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>653</v>
+      </c>
+      <c r="B307" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>655</v>
+      </c>
+      <c r="B308" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>657</v>
+      </c>
+      <c r="B309" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>659</v>
+      </c>
+      <c r="B310" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>661</v>
+      </c>
+      <c r="B311" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>663</v>
+      </c>
+      <c r="B312" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>665</v>
+      </c>
+      <c r="B313" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>667</v>
+      </c>
+      <c r="B314" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>669</v>
+      </c>
+      <c r="B315" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>671</v>
+      </c>
+      <c r="B316" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>673</v>
+      </c>
+      <c r="B317" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>675</v>
+      </c>
+      <c r="B318" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>677</v>
+      </c>
+      <c r="B319" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>679</v>
+      </c>
+      <c r="B320" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>681</v>
+      </c>
+      <c r="B321" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>683</v>
+      </c>
+      <c r="B322" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>685</v>
+      </c>
+      <c r="B323" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>687</v>
+      </c>
+      <c r="B324" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>689</v>
+      </c>
+      <c r="B325" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>691</v>
+      </c>
+      <c r="B326" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>693</v>
+      </c>
+      <c r="B327" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>695</v>
+      </c>
+      <c r="B328" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>697</v>
+      </c>
+      <c r="B329" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>699</v>
+      </c>
+      <c r="B330" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>701</v>
+      </c>
+      <c r="B331" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>703</v>
+      </c>
+      <c r="B332" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>705</v>
+      </c>
+      <c r="B333" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>707</v>
+      </c>
+      <c r="B334" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>709</v>
+      </c>
+      <c r="B335" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>711</v>
+      </c>
+      <c r="B336" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>147</v>
+      </c>
+      <c r="B337" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>714</v>
+      </c>
+      <c r="B338" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>716</v>
+      </c>
+      <c r="B339" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>449</v>
+      </c>
+      <c r="B340" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>719</v>
+      </c>
+      <c r="B341" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>721</v>
+      </c>
+      <c r="B342" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>723</v>
+      </c>
+      <c r="B343" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>725</v>
+      </c>
+      <c r="B344" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>320</v>
+      </c>
+      <c r="B345" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>728</v>
+      </c>
+      <c r="B346" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>141</v>
+      </c>
+      <c r="B347" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>731</v>
+      </c>
+      <c r="B348" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>733</v>
+      </c>
+      <c r="B349" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>735</v>
+      </c>
+      <c r="B350" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>737</v>
+      </c>
+      <c r="B351" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>739</v>
+      </c>
+      <c r="B352" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>105</v>
+      </c>
+      <c r="B353" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>742</v>
+      </c>
+      <c r="B354" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>744</v>
+      </c>
+      <c r="B355" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>746</v>
+      </c>
+      <c r="B356" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>748</v>
+      </c>
+      <c r="B357" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>750</v>
+      </c>
+      <c r="B358" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>752</v>
+      </c>
+      <c r="B359" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>754</v>
+      </c>
+      <c r="B360" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>756</v>
+      </c>
+      <c r="B361" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>145</v>
+      </c>
+      <c r="B362" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>759</v>
+      </c>
+      <c r="B363" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>761</v>
+      </c>
+      <c r="B364" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>763</v>
+      </c>
+      <c r="B365" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>765</v>
+      </c>
+      <c r="B366" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>767</v>
+      </c>
+      <c r="B367" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>769</v>
+      </c>
+      <c r="B368" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>771</v>
+      </c>
+      <c r="B369" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>773</v>
+      </c>
+      <c r="B370" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>775</v>
+      </c>
+      <c r="B371" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>777</v>
+      </c>
+      <c r="B372" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>779</v>
+      </c>
+      <c r="B373" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>781</v>
+      </c>
+      <c r="B374" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>783</v>
+      </c>
+      <c r="B375" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>785</v>
+      </c>
+      <c r="B376" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>787</v>
+      </c>
+      <c r="B377" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>789</v>
+      </c>
+      <c r="B378" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>791</v>
+      </c>
+      <c r="B379" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>793</v>
+      </c>
+      <c r="B380" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>795</v>
+      </c>
+      <c r="B381" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>797</v>
+      </c>
+      <c r="B382" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>799</v>
+      </c>
+      <c r="B383" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>801</v>
+      </c>
+      <c r="B384" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>803</v>
+      </c>
+      <c r="B385" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>805</v>
+      </c>
+      <c r="B386" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>807</v>
+      </c>
+      <c r="B387" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>809</v>
+      </c>
+      <c r="B388" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>811</v>
+      </c>
+      <c r="B389" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>813</v>
+      </c>
+      <c r="B390" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>815</v>
+      </c>
+      <c r="B391" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>817</v>
+      </c>
+      <c r="B392" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>819</v>
+      </c>
+      <c r="B393" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>821</v>
+      </c>
+      <c r="B394" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>823</v>
+      </c>
+      <c r="B395" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>825</v>
+      </c>
+      <c r="B396" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>827</v>
+      </c>
+      <c r="B397" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>829</v>
+      </c>
+      <c r="B398" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>153</v>
+      </c>
+      <c r="B399" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>832</v>
+      </c>
+      <c r="B400" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>832</v>
+      </c>
+      <c r="B401" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>835</v>
+      </c>
+      <c r="B402" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>837</v>
+      </c>
+      <c r="B403" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>839</v>
+      </c>
+      <c r="B404" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>841</v>
+      </c>
+      <c r="B405" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
+        <v>95</v>
+      </c>
+      <c r="B406" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
+        <v>844</v>
+      </c>
+      <c r="B407" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
+        <v>846</v>
+      </c>
+      <c r="B408" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
+        <v>848</v>
+      </c>
+      <c r="B409" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>514</v>
+      </c>
+      <c r="B410" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
+        <v>851</v>
+      </c>
+      <c r="B411" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
+        <v>853</v>
+      </c>
+      <c r="B412" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
+        <v>855</v>
+      </c>
+      <c r="B413" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A414" t="s">
+        <v>857</v>
+      </c>
+      <c r="B414" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
+        <v>859</v>
+      </c>
+      <c r="B415" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A416" t="s">
+        <v>861</v>
+      </c>
+      <c r="B416" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A417" t="s">
+        <v>863</v>
+      </c>
+      <c r="B417" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
+        <v>865</v>
+      </c>
+      <c r="B418" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A419" t="s">
+        <v>867</v>
+      </c>
+      <c r="B419" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
+        <v>869</v>
+      </c>
+      <c r="B420" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
+        <v>871</v>
+      </c>
+      <c r="B421" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A422" t="s">
+        <v>873</v>
+      </c>
+      <c r="B422" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A423" t="s">
+        <v>875</v>
+      </c>
+      <c r="B423" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A424" t="s">
+        <v>877</v>
+      </c>
+      <c r="B424" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A425" t="s">
+        <v>879</v>
+      </c>
+      <c r="B425" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A426" t="s">
+        <v>881</v>
+      </c>
+      <c r="B426" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A427" t="s">
+        <v>883</v>
+      </c>
+      <c r="B427" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
+        <v>885</v>
+      </c>
+      <c r="B428" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A429" t="s">
+        <v>887</v>
+      </c>
+      <c r="B429" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A430" t="s">
+        <v>889</v>
+      </c>
+      <c r="B430" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A431" t="s">
+        <v>891</v>
+      </c>
+      <c r="B431" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A432" t="s">
+        <v>320</v>
+      </c>
+      <c r="B432" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A433" t="s">
+        <v>141</v>
+      </c>
+      <c r="B433" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A434" t="s">
+        <v>895</v>
+      </c>
+      <c r="B434" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A435" t="s">
+        <v>895</v>
+      </c>
+      <c r="B435" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A436" t="s">
+        <v>898</v>
+      </c>
+      <c r="B436" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A437" t="s">
+        <v>900</v>
+      </c>
+      <c r="B437" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A438" t="s">
+        <v>902</v>
+      </c>
+      <c r="B438" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A439" t="s">
+        <v>904</v>
+      </c>
+      <c r="B439" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A440" t="s">
+        <v>906</v>
+      </c>
+      <c r="B440" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A441" t="s">
+        <v>908</v>
+      </c>
+      <c r="B441" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A442" t="s">
+        <v>910</v>
+      </c>
+      <c r="B442" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A443" t="s">
+        <v>912</v>
+      </c>
+      <c r="B443" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A444" t="s">
+        <v>914</v>
+      </c>
+      <c r="B444" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A445" t="s">
+        <v>145</v>
+      </c>
+      <c r="B445" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A446" t="s">
+        <v>917</v>
+      </c>
+      <c r="B446" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A447" t="s">
+        <v>919</v>
+      </c>
+      <c r="B447" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A448" t="s">
+        <v>921</v>
+      </c>
+      <c r="B448" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A449" t="s">
+        <v>923</v>
+      </c>
+      <c r="B449" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A450" t="s">
+        <v>925</v>
+      </c>
+      <c r="B450" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A451" t="s">
+        <v>927</v>
+      </c>
+      <c r="B451" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A452" t="s">
+        <v>929</v>
+      </c>
+      <c r="B452" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A453" t="s">
+        <v>931</v>
+      </c>
+      <c r="B453" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A454" t="s">
+        <v>933</v>
+      </c>
+      <c r="B454" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A455" t="s">
+        <v>935</v>
+      </c>
+      <c r="B455" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A456" t="s">
+        <v>937</v>
+      </c>
+      <c r="B456" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A457" t="s">
+        <v>398</v>
+      </c>
+      <c r="B457" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A458" t="s">
+        <v>940</v>
+      </c>
+      <c r="B458" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A459" t="s">
+        <v>942</v>
+      </c>
+      <c r="B459" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A460" t="s">
+        <v>944</v>
+      </c>
+      <c r="B460" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A461" t="s">
+        <v>795</v>
+      </c>
+      <c r="B461" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A462" t="s">
+        <v>797</v>
+      </c>
+      <c r="B462" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A463" t="s">
+        <v>948</v>
+      </c>
+      <c r="B463" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A464" t="s">
+        <v>950</v>
+      </c>
+      <c r="B464" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A465" t="s">
+        <v>952</v>
+      </c>
+      <c r="B465" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A466" t="s">
+        <v>954</v>
+      </c>
+      <c r="B466" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A467" t="s">
+        <v>956</v>
+      </c>
+      <c r="B467" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A468" t="s">
+        <v>958</v>
+      </c>
+      <c r="B468" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A469" t="s">
+        <v>960</v>
+      </c>
+      <c r="B469" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A470" t="s">
+        <v>962</v>
+      </c>
+      <c r="B470" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A471" t="s">
+        <v>964</v>
+      </c>
+      <c r="B471" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A472" t="s">
+        <v>966</v>
+      </c>
+      <c r="B472" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A473" t="s">
+        <v>968</v>
+      </c>
+      <c r="B473" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A474" t="s">
+        <v>970</v>
+      </c>
+      <c r="B474" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A475" t="s">
+        <v>972</v>
+      </c>
+      <c r="B475" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A476" t="s">
+        <v>974</v>
+      </c>
+      <c r="B476" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A477" t="s">
+        <v>976</v>
+      </c>
+      <c r="B477" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A478" t="s">
+        <v>978</v>
+      </c>
+      <c r="B478" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A479" t="s">
+        <v>980</v>
+      </c>
+      <c r="B479" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A480" t="s">
+        <v>982</v>
+      </c>
+      <c r="B480" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A481" t="s">
+        <v>984</v>
+      </c>
+      <c r="B481" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A482" t="s">
+        <v>986</v>
+      </c>
+      <c r="B482" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A483" t="s">
+        <v>731</v>
+      </c>
+      <c r="B483" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A484" t="s">
+        <v>989</v>
+      </c>
+      <c r="B484" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A485" t="s">
+        <v>320</v>
+      </c>
+      <c r="B485" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A486" t="s">
+        <v>992</v>
+      </c>
+      <c r="B486" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A487" t="s">
+        <v>994</v>
+      </c>
+      <c r="B487" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A488" t="s">
+        <v>996</v>
+      </c>
+      <c r="B488" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A489" t="s">
+        <v>998</v>
+      </c>
+      <c r="B489" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A490" t="s">
+        <v>141</v>
+      </c>
+      <c r="B490" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A491" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B491" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A492" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B492" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A493" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B493" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A494" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B494" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A495" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B495" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A496" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B496" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A497" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B497" t="s">
+        <v>1014</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Danh muc VTHH.xlsx
+++ b/Output/Danh muc VTHH.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RPA_Amber_MuaHang\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A3DDCAB-51CB-49F4-857D-30DD272053BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57DBDA86-65DB-42EE-B8CB-6CD5670C9B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,10 +56,6 @@
     <t>Tính chất</t>
   </si>
   <si>
-    <t>Đơn vị tính 
-chính</t>
-  </si>
-  <si>
     <t>Mã nhóm VTHH</t>
   </si>
   <si>
@@ -221,6 +217,9 @@
   </si>
   <si>
     <t>Check</t>
+  </si>
+  <si>
+    <t>Đơn vị tính chính</t>
   </si>
 </sst>
 </file>
@@ -772,7 +771,7 @@
   <dimension ref="A1:AZ2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD479"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -887,151 +886,151 @@
         <v>7</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="N2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="O2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="P2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="Q2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="R2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="S2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="T2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="U2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="V2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="W2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="W2" s="9" t="s">
+      <c r="X2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="Y2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="Y2" s="7" t="s">
+      <c r="Z2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AB2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AB2" s="7" t="s">
+      <c r="AC2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AC2" s="7" t="s">
+      <c r="AD2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AD2" s="7" t="s">
+      <c r="AE2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="AE2" s="7" t="s">
+      <c r="AF2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="AF2" s="7" t="s">
+      <c r="AG2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="AG2" s="7" t="s">
+      <c r="AH2" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="AH2" s="10" t="s">
+      <c r="AI2" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="AI2" s="11" t="s">
+      <c r="AJ2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="AJ2" s="10" t="s">
+      <c r="AK2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="AK2" s="10" t="s">
+      <c r="AL2" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="AL2" s="10" t="s">
+      <c r="AM2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="AM2" s="10" t="s">
+      <c r="AN2" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="AN2" s="10" t="s">
+      <c r="AO2" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AO2" s="12" t="s">
+      <c r="AP2" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AP2" s="12" t="s">
+      <c r="AQ2" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="AQ2" s="13" t="s">
+      <c r="AR2" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="AR2" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="AS2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="AT2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AU2" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="AU2" s="14" t="s">
+      <c r="AV2" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="AV2" s="15" t="s">
+      <c r="AW2" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="AW2" s="15" t="s">
+      <c r="AX2" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="AX2" s="15" t="s">
+      <c r="AY2" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AY2" s="15" t="s">
+      <c r="AZ2" t="s">
         <v>54</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1104,7 +1103,7 @@
   <dimension ref="A1:BA2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD1048576"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1222,154 +1221,154 @@
         <v>7</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="O2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="P2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="Q2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="R2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="S2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="T2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="U2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="V2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="W2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="X2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="X2" s="9" t="s">
+      <c r="Y2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="Y2" s="7" t="s">
+      <c r="Z2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AC2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AC2" s="7" t="s">
+      <c r="AD2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AD2" s="7" t="s">
+      <c r="AE2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="AE2" s="7" t="s">
+      <c r="AF2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="AF2" s="7" t="s">
+      <c r="AG2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="AG2" s="7" t="s">
+      <c r="AH2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="AH2" s="7" t="s">
+      <c r="AI2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="AI2" s="10" t="s">
+      <c r="AJ2" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="AJ2" s="11" t="s">
+      <c r="AK2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AK2" s="3" t="s">
+      <c r="AL2" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="AL2" s="10" t="s">
+      <c r="AM2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="AM2" s="10" t="s">
+      <c r="AN2" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="AN2" s="10" t="s">
+      <c r="AO2" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="AO2" s="10" t="s">
+      <c r="AP2" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AP2" s="12" t="s">
+      <c r="AQ2" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AQ2" s="12" t="s">
+      <c r="AR2" s="13" t="s">
         <v>47</v>
-      </c>
-      <c r="AR2" s="13" t="s">
-        <v>48</v>
       </c>
       <c r="AS2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="AT2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AU2" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="AU2" s="16" t="s">
+      <c r="AV2" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="AV2" s="17" t="s">
+      <c r="AW2" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="AW2" s="18" t="s">
+      <c r="AX2" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="AX2" s="18" t="s">
+      <c r="AY2" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="AY2" s="18" t="s">
+      <c r="AZ2" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="AZ2" s="18" t="s">
+      <c r="BA2" s="18" t="s">
         <v>55</v>
-      </c>
-      <c r="BA2" s="18" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Danh muc VTHH.xlsx
+++ b/Output/Danh muc VTHH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RPA_Amber_MuaHang\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57DBDA86-65DB-42EE-B8CB-6CD5670C9B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9124C1-738A-46B7-8BA1-953B3EFC3A9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2508" yWindow="804" windowWidth="17820" windowHeight="11436" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Danh mục cập nhật" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="593">
   <si>
     <t>Thông tin ngầm định</t>
   </si>
@@ -220,6 +220,1614 @@
   </si>
   <si>
     <t>Đơn vị tính chính</t>
+  </si>
+  <si>
+    <t>Gas bình 45kg</t>
+  </si>
+  <si>
+    <t>Lá kim vụn 1kg</t>
+  </si>
+  <si>
+    <t>V20152 Miến khô 2.4kg</t>
+  </si>
+  <si>
+    <t>Nước mắm cá chình 3kg</t>
+  </si>
+  <si>
+    <t>Mạch nha (Corn Syrup) 18kg/thùng sắt</t>
+  </si>
+  <si>
+    <t>Tương trộn ăn liền gold 14kg</t>
+  </si>
+  <si>
+    <t>Tương ớt heulchan 14kg</t>
+  </si>
+  <si>
+    <t>Bột chiên bánh xèo giòn (crispy) 1kg</t>
+  </si>
+  <si>
+    <t>Ớt bột muối kim chi heulchan 1kg</t>
+  </si>
+  <si>
+    <t>Ớt bột làm gia vị heulchan 1kg</t>
+  </si>
+  <si>
+    <t>OTBOTHEULCHAN</t>
+  </si>
+  <si>
+    <t>Kim chi cải thảo Nongyee 10kg / túi</t>
+  </si>
+  <si>
+    <t>Lá kim truyền thống vị oliu 5g*16 gói/ thùng</t>
+  </si>
+  <si>
+    <t>Tháp bia Heniken</t>
+  </si>
+  <si>
+    <t>Bò Fuji nướng</t>
+  </si>
+  <si>
+    <t>Salat cà chua dưa chuột</t>
+  </si>
+  <si>
+    <t>Dasani</t>
+  </si>
+  <si>
+    <t>Má heo nướng ngũ vị hương</t>
+  </si>
+  <si>
+    <t>Khăn lạnh</t>
+  </si>
+  <si>
+    <t>Nước cam</t>
+  </si>
+  <si>
+    <t>Sườn bò rút xương</t>
+  </si>
+  <si>
+    <t>Màng bọc TP Laspalm 45cm x 300m - dao nhựa ( xanh )</t>
+  </si>
+  <si>
+    <t>Rượu Jinro Soju Fresh 16.5% (1 hộp =20 chai, 1 chai =360ml, Xuất xứ Hàn Quốc)</t>
+  </si>
+  <si>
+    <t>NUOC COT DUA WONDERFARM 400G</t>
+  </si>
+  <si>
+    <t>SUA DAC CD NSPN XANH BIEN1284G</t>
+  </si>
+  <si>
+    <t>DAU AN MEIZAN 9KG</t>
+  </si>
+  <si>
+    <t>Nước rửa bát HECQUYN L2 can 3,8 kg</t>
+  </si>
+  <si>
+    <t>Nước Lau Sàn SUKO Can 3,8kg</t>
+  </si>
+  <si>
+    <t>V10166 Xốt cà chua pouch 3kg</t>
+  </si>
+  <si>
+    <t>Bánh xếp mandu chiên 1400g</t>
+  </si>
+  <si>
+    <t>MANDUCHIEN</t>
+  </si>
+  <si>
+    <t>Mạch nha ( Corn Syrup ) 10kg / can</t>
+  </si>
+  <si>
+    <t>(Beksul) Bột chiên 1kg</t>
+  </si>
+  <si>
+    <t>Lá kim vị oliu Haesong 5g*16 gói/ túi</t>
+  </si>
+  <si>
+    <t>Bánh mì tokboki 1kg/gói</t>
+  </si>
+  <si>
+    <t>BANHMITOKBOKI</t>
+  </si>
+  <si>
+    <t>Phí dịch vụ tháng 12.2022</t>
+  </si>
+  <si>
+    <t>Đồ uống DASANI 350ML 4X6P PET SF W/O CAPSEAL</t>
+  </si>
+  <si>
+    <t>Phí tiền nước</t>
+  </si>
+  <si>
+    <t>Phí quản lý</t>
+  </si>
+  <si>
+    <t>Phí bảo vệ môi trường</t>
+  </si>
+  <si>
+    <t>Đồ uống SPRITE 320ML 4X6 SC SF 2.0</t>
+  </si>
+  <si>
+    <t>Đồ uống COKE 320ML 4X6 SLEEK CAN SF</t>
+  </si>
+  <si>
+    <t>Phí cho thuê máy lọc nước nóng lạnh model:HB-510 và Thiết bị lọc nước dưới bồn rửa HB-820 tháng 01/2023 theo hợp đồng số HDDV20221201-001/WOW-BAEKJOENG ký ngày 01/12/2022</t>
+  </si>
+  <si>
+    <t>MAT ONG HOA RUNG TW 1400G*1</t>
+  </si>
+  <si>
+    <t>MATONGTW</t>
+  </si>
+  <si>
+    <t>Cước taxi tháng 01/2023 #E947</t>
+  </si>
+  <si>
+    <t>Chứng gà</t>
+  </si>
+  <si>
+    <t>Vỏ bánh bao</t>
+  </si>
+  <si>
+    <t>Gạo thái</t>
+  </si>
+  <si>
+    <t>VT00187</t>
+  </si>
+  <si>
+    <t>Củ cải</t>
+  </si>
+  <si>
+    <t>Đậu tươi</t>
+  </si>
+  <si>
+    <t>VT00036</t>
+  </si>
+  <si>
+    <t>Đỗ đen</t>
+  </si>
+  <si>
+    <t>Hành hoa</t>
+  </si>
+  <si>
+    <t>VT00040</t>
+  </si>
+  <si>
+    <t>Hành paro</t>
+  </si>
+  <si>
+    <t>Cải thảo</t>
+  </si>
+  <si>
+    <t>Mộc nhĩ 500g</t>
+  </si>
+  <si>
+    <t>VT00054</t>
+  </si>
+  <si>
+    <t>Ớt đỏ đà lạt</t>
+  </si>
+  <si>
+    <t>VT00101</t>
+  </si>
+  <si>
+    <t>Ớt kim</t>
+  </si>
+  <si>
+    <t>VT00055</t>
+  </si>
+  <si>
+    <t>Tỏi bóc sơ chế</t>
+  </si>
+  <si>
+    <t>Vừng rang</t>
+  </si>
+  <si>
+    <t>Cà rốt</t>
+  </si>
+  <si>
+    <t>Xà lách</t>
+  </si>
+  <si>
+    <t>Bí ngòi</t>
+  </si>
+  <si>
+    <t>VT00033</t>
+  </si>
+  <si>
+    <t>Gía đỗ</t>
+  </si>
+  <si>
+    <t>Lá hẹ</t>
+  </si>
+  <si>
+    <t>VT00045</t>
+  </si>
+  <si>
+    <t>Nấm kim</t>
+  </si>
+  <si>
+    <t>Lá kê nhíp</t>
+  </si>
+  <si>
+    <t>Hành tây</t>
+  </si>
+  <si>
+    <t>Dưa chuột</t>
+  </si>
+  <si>
+    <t>Củ gừng</t>
+  </si>
+  <si>
+    <t>Khoai tây 35g</t>
+  </si>
+  <si>
+    <t>Dưa lê trắng</t>
+  </si>
+  <si>
+    <t>Ớt xanh to</t>
+  </si>
+  <si>
+    <t>Táo Envy size 24-40</t>
+  </si>
+  <si>
+    <t>Quả lê tươi SINGO tên khoa học Pyrus pyrifolia var 10KG (size 14 đến 16 quả) / Thùng</t>
+  </si>
+  <si>
+    <t>Rau cải thảo tươi , tên khoa học brassica campestris 10kg/thùng</t>
+  </si>
+  <si>
+    <t>Duong Samyang Duong trang 1kg</t>
+  </si>
+  <si>
+    <t>Duong Samyang Duong trang 3kg</t>
+  </si>
+  <si>
+    <t>Duong Samyang Duong nau 1kg</t>
+  </si>
+  <si>
+    <t>Rau ăn liền rau khoai lang khô- Sin gwang</t>
+  </si>
+  <si>
+    <t>Rau ăn liền Chungyanggol rau cúc đông phong 100G</t>
+  </si>
+  <si>
+    <t>Hon hop gia vi de tron com Yewon Hurigake 50g</t>
+  </si>
+  <si>
+    <t>GIAVIYEWONHURIGAKE</t>
+  </si>
+  <si>
+    <t>Kim chi Jongga kimchi la vung 300g*2</t>
+  </si>
+  <si>
+    <t>Mắm Hansung mắm bạch tuộc (dạng sệt) 1kg/gói</t>
+  </si>
+  <si>
+    <t>(BEKSUL) Bot chien 1KG</t>
+  </si>
+  <si>
+    <t>Bot chien Banh xeo 1KG</t>
+  </si>
+  <si>
+    <t>(HAECHANDLE) Tuong ot (P) 1KG</t>
+  </si>
+  <si>
+    <t>Bot mi 2.5KG</t>
+  </si>
+  <si>
+    <t>BIBIGO Banh xep mong 455G*2</t>
+  </si>
+  <si>
+    <t>BIBIGOXEPMONG</t>
+  </si>
+  <si>
+    <t>(DASIDA) Hat nem Vi Bo 2.25KG</t>
+  </si>
+  <si>
+    <t>Jjam Bbong Bac Kinh 120G</t>
+  </si>
+  <si>
+    <t>Cu cai da che bien Chongga Cu cai Danmuji nguyen cu 550g</t>
+  </si>
+  <si>
+    <t>Kim chi Jongga cai thao Dolsangat 500g</t>
+  </si>
+  <si>
+    <t>CAITHAOJONGGA</t>
+  </si>
+  <si>
+    <t>Cu cai da che bien Chongga Cu cai Danmuji thai lat 3kg</t>
+  </si>
+  <si>
+    <t>NS) Mì trứng vàng (Ansungtangmyun) (125 x 005 x 008)</t>
+  </si>
+  <si>
+    <t>NS) Mì Shin gói (120 x 005 x 008)</t>
+  </si>
+  <si>
+    <t>OTT) Miến khô 2.4KG</t>
+  </si>
+  <si>
+    <t>OTT) Mì sợi nhỏ 3KG</t>
+  </si>
+  <si>
+    <t>Ca da che bien dong hop kin khi co ghi nhan an lien Dongwon ( ca ngu vi kimchi KIMCHIJJIGEA TUNA) .100g / hop 100g</t>
+  </si>
+  <si>
+    <t>Ca da che bien an lien Dongwon ca thu 340g</t>
+  </si>
+  <si>
+    <t>CATHUDONGWON</t>
+  </si>
+  <si>
+    <t>Bot ot do BIDAN RED PEPPER POWDER(FOR KIMCHI) 2.27 kG/ goi 2.27kg</t>
+  </si>
+  <si>
+    <t>BOTOTBIDANREDPEPPER</t>
+  </si>
+  <si>
+    <t>Hon hop gia vi Daesang hat nem vi thit bo 3kg</t>
+  </si>
+  <si>
+    <t>Nuoc mam daesang Nuoc mam ca com 750g</t>
+  </si>
+  <si>
+    <t>Muối bổ sung gia vị 1KG</t>
+  </si>
+  <si>
+    <t>Hỗn hợp gia vị Sigewon Hurigake 5kg/gói</t>
+  </si>
+  <si>
+    <t>GIAVISIGEWON</t>
+  </si>
+  <si>
+    <t>Mu tat Daesang 200g</t>
+  </si>
+  <si>
+    <t>MUTATDAESANG</t>
+  </si>
+  <si>
+    <t>chả cá busan xưa 800g</t>
+  </si>
+  <si>
+    <t>Cha SAJO DAERIM cha ca vuong 1kg</t>
+  </si>
+  <si>
+    <t>CHASAJO</t>
+  </si>
+  <si>
+    <t>SUA TUOI TT VI TU NHIEN DALATMILK 220ML</t>
+  </si>
+  <si>
+    <t>Bột gạo nếp -Tureban 1kg</t>
+  </si>
+  <si>
+    <t>Bot gao nep Choya Foods 1000g</t>
+  </si>
+  <si>
+    <t>Mứt hoa quả Daesang mứt táo 370g/hũ</t>
+  </si>
+  <si>
+    <t>La kim Bobu Fishery say 1kg</t>
+  </si>
+  <si>
+    <t>OTT) Xốt mayonnaise pouch 3KG</t>
+  </si>
+  <si>
+    <t>My an lien Misikga 2kg</t>
+  </si>
+  <si>
+    <t>MYMISIKGA</t>
+  </si>
+  <si>
+    <t>Thịt đã chế biến SB (dạng gói) thịt trai biển Miso1.2kg</t>
+  </si>
+  <si>
+    <t>TRAIBIENMISO</t>
+  </si>
+  <si>
+    <t>Bot ot NONGWOO, (CHILLI POWDER) , nha sx QINGDAO JUFENG XIANGHE FOOD CO.,LTD 2.5 kg/goi 2.5kg</t>
+  </si>
+  <si>
+    <t>Canh(nuoc dung) Banga Food vi thit 300g</t>
+  </si>
+  <si>
+    <t>Rượu gạo Walmae Makgeolli 750ml thùng 20 chai</t>
+  </si>
+  <si>
+    <t>Nước khoáng La Vie 0.35L</t>
+  </si>
+  <si>
+    <t>Ngô ngọt 430g NG</t>
+  </si>
+  <si>
+    <t>Chất tẩy vết cháy PROVEN</t>
+  </si>
+  <si>
+    <t>VT00013</t>
+  </si>
+  <si>
+    <t>Đồ uống FANTA ORANGE 320ML 4X6 SLEEK CAN SF</t>
+  </si>
+  <si>
+    <t>Bột chiên bánh xèo 1kg</t>
+  </si>
+  <si>
+    <t>Giấm táo ( Apple Vinegar ) 18l / can</t>
+  </si>
+  <si>
+    <t>Bột mì 1kg</t>
+  </si>
+  <si>
+    <t>Lá kim làm kimbap Wando 100 lá/túi</t>
+  </si>
+  <si>
+    <t>Nước gạo buổi sáng (Morning Rice) 180ml</t>
+  </si>
+  <si>
+    <t>Nước nha đam 180ml</t>
+  </si>
+  <si>
+    <t>Trà râu bắp 500ml</t>
+  </si>
+  <si>
+    <t>VT00078</t>
+  </si>
+  <si>
+    <t>Tương đậu heulchan loại 14kg</t>
+  </si>
+  <si>
+    <t>Lá kim làm kimbap Wando 220g/gói</t>
+  </si>
+  <si>
+    <t>Mì lạnh Cold noodle ( Naengmyeon) 2kg</t>
+  </si>
+  <si>
+    <t>Bánh mì tokbokki mỏng Sunjin 2kg</t>
+  </si>
+  <si>
+    <t>Phí dịch vụ tháng 01.2023</t>
+  </si>
+  <si>
+    <t>Chi phí bảo trì thang máy theo hợp đồng LBT644A21HNI từ tháng 1/2023 đến tháng 2/2023</t>
+  </si>
+  <si>
+    <t>TÚI, 36, 01 - CK2-50781346-3</t>
+  </si>
+  <si>
+    <t>TÚI GIẤY, 04, 34 - FSC-CARRIERS</t>
+  </si>
+  <si>
+    <t>BM BAGUETTE 400GR</t>
+  </si>
+  <si>
+    <t>BSNACK TOONIES VI PHO MAI CHEDDAR 70GMALAYA 56G</t>
+  </si>
+  <si>
+    <t>MI XAO KHO TOM HANH 75GR H/HAO</t>
+  </si>
+  <si>
+    <t>SNACK BAP KOIMUCHO VI MAT ONG  33GR</t>
+  </si>
+  <si>
+    <t>BANH MALKIST LEMON 120G</t>
+  </si>
+  <si>
+    <t>MI OMACHI TOM CHUA CAY 5SAO 78G</t>
+  </si>
+  <si>
+    <t>TAO BALAN GALA</t>
+  </si>
+  <si>
+    <t>MAN DO AN PHUOC</t>
+  </si>
+  <si>
+    <t>MI OMACHI XOT BO HAM 80G</t>
+  </si>
+  <si>
+    <t>LUOI DCR GILLETTE 2C</t>
+  </si>
+  <si>
+    <t>MI KOKOMI TOM CHUA CAY 90G</t>
+  </si>
+  <si>
+    <t>MI HAO HAO XAO TOM CN 75G</t>
+  </si>
+  <si>
+    <t>BANH GAO OISHI OKOME RONG BIEN 100G</t>
+  </si>
+  <si>
+    <t>BANH SOLITE CUON LA DUA 180G</t>
+  </si>
+  <si>
+    <t>BANH AFC TAO BIEN 200G</t>
+  </si>
+  <si>
+    <t>SNACK PUFFCORN SOCOLA URC 45G/35G</t>
+  </si>
+  <si>
+    <t>MI OMACHI SUON HAM NGU QUA 80GR</t>
+  </si>
+  <si>
+    <t>BANH KARO HOANG KIM PHO MAI 156G</t>
+  </si>
+  <si>
+    <t>SCL KITKAT TRA XANH 35G</t>
+  </si>
+  <si>
+    <t>BANH XOP TIPO PHO MAI 180G</t>
+  </si>
+  <si>
+    <t>SUA TT CGHL CAOKHOE CD 110ML*4</t>
+  </si>
+  <si>
+    <t>SDN FAMI CANXI VI SOCOLA 200ML*6LXLL</t>
+  </si>
+  <si>
+    <t>SCU FRISTI DAO TIEN 80ML*6</t>
+  </si>
+  <si>
+    <t>V.SUA ZOTT MONTE SOCOLA 55G*4</t>
+  </si>
+  <si>
+    <t>SC VNM 100G CD</t>
+  </si>
+  <si>
+    <t>SC M.SONG PROBI D.GANG 65ML*5</t>
+  </si>
+  <si>
+    <t>SCU MEN SONG PROBI ID 65ML*5</t>
+  </si>
+  <si>
+    <t>SCU MEN SONG PROBI 65ML*5</t>
+  </si>
+  <si>
+    <t>SCU MEN SONG PROBI DUA 65ML*5</t>
+  </si>
+  <si>
+    <t>SCU FRISTI TAO 80ML*6</t>
+  </si>
+  <si>
+    <t>DG CLEAR 48 GIO SACH GAU NGUA 880G</t>
+  </si>
+  <si>
+    <t>Bia Sài Gòn chai 330ml</t>
+  </si>
+  <si>
+    <t>Rượu SOJU HQ</t>
+  </si>
+  <si>
+    <t>Đồ uống COKE 320ml</t>
+  </si>
+  <si>
+    <t>Khăn ướt</t>
+  </si>
+  <si>
+    <t>Suất Buffet Người Lớn 398</t>
+  </si>
+  <si>
+    <t>Phí cho thuê máy lọc nước nóng lạnh model:HB-510 và Thiết bị lọc nước dưới bồn rửa HB-820 tháng 02/2023 theo hợp đồng số HDDV20221201-001/WOW-BAEKJOENG ký ngày 01/12/2022</t>
+  </si>
+  <si>
+    <t>Khăn ướt VS V980</t>
+  </si>
+  <si>
+    <t>Nước rửa tay SUKO can 3,8 kg</t>
+  </si>
+  <si>
+    <t>Cước taxi tháng 02/2023 #E947</t>
+  </si>
+  <si>
+    <t>Nuoc tuong Sempio Food Jin Gold F3 500mL</t>
+  </si>
+  <si>
+    <t>NS) Mì tô lớn Udon Soup (276 x 012 x 001)</t>
+  </si>
+  <si>
+    <t>NS) Mì tô bò cay Yukejang (086 x 024 x 001)</t>
+  </si>
+  <si>
+    <t>Hỗn hợp gia vị Dongwon vị chiên 2kg/gói</t>
+  </si>
+  <si>
+    <t>GIAVIDONGWON</t>
+  </si>
+  <si>
+    <t>Hon hop gia vi Daesang vi muoi tieu 200g</t>
+  </si>
+  <si>
+    <t>MUOITIEUDAESANG</t>
+  </si>
+  <si>
+    <t>Nuoc mam daesang Nuoc mam ca com 500mL</t>
+  </si>
+  <si>
+    <t>Gia vị bột canh Daesang Sk Trading Co2.5KG</t>
+  </si>
+  <si>
+    <t>Kem cây Yomoitie Plain Bar [70x40]</t>
+  </si>
+  <si>
+    <t>Si rô fructoza ngô Caramel-Choya .2.7L /Bịch</t>
+  </si>
+  <si>
+    <t>Nấm đóng hộp ăn liền Hwapoong 150g</t>
+  </si>
+  <si>
+    <t>Hon hop bot ngu coc Damtuh hat Y di hanh nhan ho dao 18g*15</t>
+  </si>
+  <si>
+    <t>Rong biển đã chế biến đóng gói kín khí, ăn liền vụn Sung Gyung 1000g/gói</t>
+  </si>
+  <si>
+    <t>RBSUNGGYUNG</t>
+  </si>
+  <si>
+    <t>Hàng tặng không thu tiền</t>
+  </si>
+  <si>
+    <t>Xì dầu monggo jin 13l</t>
+  </si>
+  <si>
+    <t>Phí dịch vụ tháng 02.2023</t>
+  </si>
+  <si>
+    <t>Cà phê hòa tan maxim mocha 100 túi/hộp</t>
+  </si>
+  <si>
+    <t>Lá kim Wando ( Kimbap )loại 260g / gói</t>
+  </si>
+  <si>
+    <t>Lá kim xào wando 300g/ gói</t>
+  </si>
+  <si>
+    <t>Dầu mè 5l/can</t>
+  </si>
+  <si>
+    <t>Chả cá vuông mẹ làm 800g/gói</t>
+  </si>
+  <si>
+    <t>Lá kim ăn liền em bé Wando loại 4g/gói, 3 gói/lốc</t>
+  </si>
+  <si>
+    <t>Đồ uống Dasani 350ml 24 NP Carton</t>
+  </si>
+  <si>
+    <t>Thịt bò ĐL có xương - C10383</t>
+  </si>
+  <si>
+    <t>Dẻ sườn bò  Rib finger beef</t>
+  </si>
+  <si>
+    <t>Thịt bò ĐL ko xương (lõi vai) Excel Canada-C21426</t>
+  </si>
+  <si>
+    <t>Thịt bò ĐL ko xương( ba chỉ) Excel-22194</t>
+  </si>
+  <si>
+    <t>Thịt má lợn</t>
+  </si>
+  <si>
+    <t>Thịt nạc vai lợn</t>
+  </si>
+  <si>
+    <t>Thịt ba chỉ lợn</t>
+  </si>
+  <si>
+    <t>BACHILON</t>
+  </si>
+  <si>
+    <t>Bao tử heo</t>
+  </si>
+  <si>
+    <t>Thịt dải</t>
+  </si>
+  <si>
+    <t>VT00072</t>
+  </si>
+  <si>
+    <t>Rượu Jinro is back Soju 16.5% (1 hộp =20 chai, 1 chai =360ml, Xuất xứ Hàn Quốc)</t>
+  </si>
+  <si>
+    <t>Rượu Jinro Plum Soju 13% (1 hộp = 20 chai, 1 chai = 360ml, xuất xứ Hàn Quốc)</t>
+  </si>
+  <si>
+    <t>JINROPLUM</t>
+  </si>
+  <si>
+    <t>Rượu Jinro Grapefruit Soju 13% (1 hộp = 20 chai, 1 chai = 360ml, xuất xứ Hàn Quốc)</t>
+  </si>
+  <si>
+    <t>JINROGRAPEFRUIT</t>
+  </si>
+  <si>
+    <t>Rượu Jinro Green Grape Soju 13% (1 hộp = 20 chai, 1 chai = 360ml, xuất xứ Hàn Quốc)</t>
+  </si>
+  <si>
+    <t>Rượu Jinro Strawberry Soju (1 hộp = 20 chai, 1 chai = 360ml, xuất xứ Hàn Quốc)</t>
+  </si>
+  <si>
+    <t>Rượu Jinro Soju Đào (1 hộp =20 chai, 1 chai =360ml, Xuất xứ Hàn Quốc)</t>
+  </si>
+  <si>
+    <t>DUA HAU DAC BIET</t>
+  </si>
+  <si>
+    <t>DUA HAU RUOT DO</t>
+  </si>
+  <si>
+    <t>Giấm Hwayoung (Vinegar ) 18l / thùng</t>
+  </si>
+  <si>
+    <t>Tương đậu truyền thống loại 14kg/thùng</t>
+  </si>
+  <si>
+    <t>DUA/ THOM</t>
+  </si>
+  <si>
+    <t>Cà phê rang xay pha phin Amino</t>
+  </si>
+  <si>
+    <t>Cà phê rang xay Espresso Balance Blend</t>
+  </si>
+  <si>
+    <t>Phí cho thuê máy lọc nước nóng lạnh model:HB-510 và Thiết bị lọc nước dưới bồn rửa HB-820 tháng 03/2023 theo hợp đồng số HDDV20221201-001/WOW-BAEKJOENG ký ngày 01/12/2022</t>
+  </si>
+  <si>
+    <t>Ba chỉ bò</t>
+  </si>
+  <si>
+    <t>Sườn bò có xương</t>
+  </si>
+  <si>
+    <t>VT00197</t>
+  </si>
+  <si>
+    <t>GIAM GIA RAU QUA</t>
+  </si>
+  <si>
+    <t>OI GIONG DAI LOAN</t>
+  </si>
+  <si>
+    <t>BO SAP LOAI 1</t>
+  </si>
+  <si>
+    <t>SUA VNM ADM CD 110ML*4</t>
+  </si>
+  <si>
+    <t>SUA VNM ADM SOCOLA 110ML*4</t>
+  </si>
+  <si>
+    <t>SUA ADM NGU COC 110ML*4</t>
+  </si>
+  <si>
+    <t>SUA MILO 115ML*4</t>
+  </si>
+  <si>
+    <t>Cuốn heo quay</t>
+  </si>
+  <si>
+    <t>Bò cháy tỏi</t>
+  </si>
+  <si>
+    <t>Lẩu bò nhúng dấm</t>
+  </si>
+  <si>
+    <t>Cuốn nem lụi</t>
+  </si>
+  <si>
+    <t>Cuốn bò lá lốt</t>
+  </si>
+  <si>
+    <t>SUA PROSPERITE IT BEO 1L</t>
+  </si>
+  <si>
+    <t>CHANH DAY</t>
+  </si>
+  <si>
+    <t>Cước taxi tháng 03/2023 #E947</t>
+  </si>
+  <si>
+    <t>Ớt bột làm gia vị 2.27kg</t>
+  </si>
+  <si>
+    <t>Điều hòa tủ đứng LG 100.000BTU 1 chiều lạnh APNQ100LFA0/APUQ100LFA0</t>
+  </si>
+  <si>
+    <t>Duong Samyang Duong trang 20kg</t>
+  </si>
+  <si>
+    <t>Củ cải đã chế biến Ilmi Củ cải muối làm kimpap 3000g</t>
+  </si>
+  <si>
+    <t>Sốt ăn liền Daesang sốt canh hầm150G</t>
+  </si>
+  <si>
+    <t>Nước uống không ga Paldo ( vị gừng quế)</t>
+  </si>
+  <si>
+    <t>Dam Choya 1.5L</t>
+  </si>
+  <si>
+    <t>DAMCHOYA</t>
+  </si>
+  <si>
+    <t>Tao kho</t>
+  </si>
+  <si>
+    <t>Khí hóa lỏng LPG</t>
+  </si>
+  <si>
+    <t>VT00022</t>
+  </si>
+  <si>
+    <t>Khăn giấy vuông cân nhỏ</t>
+  </si>
+  <si>
+    <t>Giấy vệ sinh công nghiệp</t>
+  </si>
+  <si>
+    <t>GVSCN</t>
+  </si>
+  <si>
+    <t>Giấy lau tay</t>
+  </si>
+  <si>
+    <t>Má lợn</t>
+  </si>
+  <si>
+    <t>MALON</t>
+  </si>
+  <si>
+    <t>Nạc vai lợn</t>
+  </si>
+  <si>
+    <t>NVL</t>
+  </si>
+  <si>
+    <t>Thịt  ba chỉ lợn</t>
+  </si>
+  <si>
+    <t>Thịt lợn dải</t>
+  </si>
+  <si>
+    <t>Phí kết nối phần mềm bán hàng với hóa đơn điện tử</t>
+  </si>
+  <si>
+    <t>NUOC COT DUA TUOI BETRIMEX 400ML</t>
+  </si>
+  <si>
+    <t>Ớt đỏ ĐL</t>
+  </si>
+  <si>
+    <t>Tỏi khô bóc vỏ</t>
+  </si>
+  <si>
+    <t>Trứng gà</t>
+  </si>
+  <si>
+    <t>Giá đỗ</t>
+  </si>
+  <si>
+    <t>VT00037</t>
+  </si>
+  <si>
+    <t>SUA MILO IT DUONG 115ML*4AC HA 180ML*4</t>
+  </si>
+  <si>
+    <t>SUA TH MILK CD 180ML*4</t>
+  </si>
+  <si>
+    <t>SCU PROBI VIET QUAT 65ML*5</t>
+  </si>
+  <si>
+    <t>NUOC DUA COCO D.XIEM XANH 330ML</t>
+  </si>
+  <si>
+    <t>XXTT VISSAN BO 18G*5</t>
+  </si>
+  <si>
+    <t>XXTT VISSAN HEO 18G*5</t>
+  </si>
+  <si>
+    <t>MI HAO HAO TOM CHUA CAY 75GR/ VERMICELLE</t>
+  </si>
+  <si>
+    <t>SNACK CARAMEL VI CARAMEN 35G</t>
+  </si>
+  <si>
+    <t>SNACK OISHI TOM CAY 35G</t>
+  </si>
+  <si>
+    <t>CAI BAP MOC CHAU</t>
+  </si>
+  <si>
+    <t>S RAU MUONG NUOC VIETGAP 300G</t>
+  </si>
+  <si>
+    <t>MA DUI GA L1</t>
+  </si>
+  <si>
+    <t>(Dasida) Hạt nêm vị bò 2.25kg</t>
+  </si>
+  <si>
+    <t>DUONG SACH SAVING 1KG</t>
+  </si>
+  <si>
+    <t>TAO PHAP GRANNY SMITH</t>
+  </si>
+  <si>
+    <t>SC VNM KD 100G</t>
+  </si>
+  <si>
+    <t>Hải sâm đông lạnh 1kg / túi</t>
+  </si>
+  <si>
+    <t>Mực ống  đông lạnh nguyên con nhập khẩu</t>
+  </si>
+  <si>
+    <t>Lá kim xào Wando 300g</t>
+  </si>
+  <si>
+    <t>Miến khô khoai lang Heulchan 1kg / túi</t>
+  </si>
+  <si>
+    <t>Ổ cắm đèn có dây dài (3 - 5)m +- 10%, (5 -6) chấu có công tắc, sử dụng điện áp 220-250V dòng điện dưới 16A.</t>
+  </si>
+  <si>
+    <t>Nồi lẩu sử dụng điện, vung thủy tinh, nhãn hiệu: Shachu, model: CS-E, dùng điện 220V/50HZ, công suất: 1600W, dung tích: 4L</t>
+  </si>
+  <si>
+    <t>Bình đun nước</t>
+  </si>
+  <si>
+    <t>Ghế gấp khung bằng sắt, mặt ngồi bằng vải sợi tổng hợp (không xoay, không nâng hạ). Kích thước (60*55*35)cm+-10%. .</t>
+  </si>
+  <si>
+    <t>Thảm lau chân bằng sợi tổng hợp, đã hoàn thiện, kích thước (40x70)cm_ + 10%.</t>
+  </si>
+  <si>
+    <t>Thảm trải sàn chống trơn trượt bằng nhựa tổng hợp, không có mặt tự dính; kt (2.4*1.2)m+-10%,</t>
+  </si>
+  <si>
+    <t>Thùng rác bằng nhựa kết hợp với sắt, có chân đạp, nắp đậy, dung tích 6L~9L+/-5%, kích thước: (phi 22~24, cao 30~38)cm+/-5cm, hiệu: pella.</t>
+  </si>
+  <si>
+    <t>SUA DAC NSPN XANH LA HG 1284GR</t>
+  </si>
+  <si>
+    <t>CHANH</t>
+  </si>
+  <si>
+    <t>SUA VNM 100% IT DUONG 1L</t>
+  </si>
+  <si>
+    <t>SUA ADM NGU COC 110M</t>
+  </si>
+  <si>
+    <t>SUA VNM GREEN FARM 100% CD 110ML*4</t>
+  </si>
+  <si>
+    <t>SCU KUN NHO TUI 110ML</t>
+  </si>
+  <si>
+    <t>SUA KUN CACAO TUI 110ML4</t>
+  </si>
+  <si>
+    <t>SCU KUN DAU TUI 110MLML4</t>
+  </si>
+  <si>
+    <t>Bột chiên bánh xèo 500g</t>
+  </si>
+  <si>
+    <t>Bột mì làm bánh mì 1kg</t>
+  </si>
+  <si>
+    <t>Nước mắm CJ nước mắm cá cơm (80%) 9kg</t>
+  </si>
+  <si>
+    <t>Chả cá vuông sajo 1kg</t>
+  </si>
+  <si>
+    <t>DAU PHU TUOI LANG MO 400G VIET HOA</t>
+  </si>
+  <si>
+    <t>NUI MEIZAN CHU C CAO CAP 200G0G</t>
+  </si>
+  <si>
+    <t>BM BAGUETTE 200G</t>
+  </si>
+  <si>
+    <t>DUONG TRANG CAO CAP TSU FAMILY 1KG</t>
+  </si>
+  <si>
+    <t>Công lắp đặt tủ 100.000</t>
+  </si>
+  <si>
+    <t>Công tháo máy cũ</t>
+  </si>
+  <si>
+    <t>Chi phí vận chuyển</t>
+  </si>
+  <si>
+    <t>Ống đồng + Bảo ôn máy 100.000BTU</t>
+  </si>
+  <si>
+    <t>Dây điện 2x2.5</t>
+  </si>
+  <si>
+    <t>Cáp điện CU/XLPE/PVC4x4</t>
+  </si>
+  <si>
+    <t>Nitor thử đường ống</t>
+  </si>
+  <si>
+    <t>Chi phí thuê ráo</t>
+  </si>
+  <si>
+    <t>Gia cố chống đổ cục nóng điều hòa</t>
+  </si>
+  <si>
+    <t>Bộ phụ kiện lắp đặt máy ĐH tủ đứng, âm trần ( Băng cuốn , ốc vít...)</t>
+  </si>
+  <si>
+    <t>Tủ điện và 1 actomat</t>
+  </si>
+  <si>
+    <t>Hộp gió 400x500 H200</t>
+  </si>
+  <si>
+    <t>Nhân công lắp hộp gió</t>
+  </si>
+  <si>
+    <t>Nhân công di chuyển cửa gió</t>
+  </si>
+  <si>
+    <t>Ty treo trần</t>
+  </si>
+  <si>
+    <t>NGHEU SIZE 50-60CON/KG</t>
+  </si>
+  <si>
+    <t>BANH C'ESTBON SANDWICH GA QUAY XE SOI 150G</t>
+  </si>
+  <si>
+    <t>BANH GAO NUONG AN TAO BIEN 174.9G</t>
+  </si>
+  <si>
+    <t>SNACK POCA VI TOM HUM 32G</t>
+  </si>
+  <si>
+    <t>MI BO RAU THOM TU QUY VIFON 72G</t>
+  </si>
+  <si>
+    <t>SCU VINAMILK SUSU DAU TUI 110ML</t>
+  </si>
+  <si>
+    <t>MI LAU THAI TOM TU QUY VIFON 72G</t>
+  </si>
+  <si>
+    <t>MI MICOEM GA NAM GOI 70GR</t>
+  </si>
+  <si>
+    <t>SNACK POCA V.NH MUC NUONG 32G</t>
+  </si>
+  <si>
+    <t>MI 3 MIEN REEVA TOM CH.CAY 65G</t>
+  </si>
+  <si>
+    <t>SNACK SWING BIT TET 28G</t>
+  </si>
+  <si>
+    <t>MI HAO HAO KIM CHI HQ 75G</t>
+  </si>
+  <si>
+    <t>SCU MEN SONG TH TRUE YOGURT CD 85ML*4</t>
+  </si>
+  <si>
+    <t>SUA VNM 100% CD 110ML*4</t>
+  </si>
+  <si>
+    <t>SUA VNM 100% SOCOLA110ML*4</t>
+  </si>
+  <si>
+    <t>CHAN GA</t>
+  </si>
+  <si>
+    <t>DAU CANH _CP</t>
+  </si>
+  <si>
+    <t>SUA PROSPERITE N.KEM 1L</t>
+  </si>
+  <si>
+    <t>Thịt bò ĐL có xương - C80324</t>
+  </si>
+  <si>
+    <t>Xì dầu monggo jin masan 13l</t>
+  </si>
+  <si>
+    <t>Miến khô 1kg</t>
+  </si>
+  <si>
+    <t>Đồ uống SPRITE 320ML 4X6 SLEEK CAN SF PROMO</t>
+  </si>
+  <si>
+    <t>Đồ uống COKE 320ML 4X6 SLEEK CAN SF - PROMO UTC</t>
+  </si>
+  <si>
+    <t>Phí dịch vụ tháng 03.2023</t>
+  </si>
+  <si>
+    <t>VD DA LAT XK 750ML</t>
+  </si>
+  <si>
+    <t>Phí cho thuê máy lọc nước nóng lạnh model:HB-510 và Thiết bị lọc nước dưới bồn rửa HB-820 tháng 04/2023 theo hợp đồng số HDDV20221201-001/WOW-BAEKJOENG ký ngày 01/12/2022</t>
+  </si>
+  <si>
+    <t>BANH OREO VANI 119.6G</t>
+  </si>
+  <si>
+    <t>Tủ đông Inveter 1 ngăn 3 cánh mở Sanaky VH 1399HY3</t>
+  </si>
+  <si>
+    <t>Nước mắm daesang nước mắm cá cơm 9kg</t>
+  </si>
+  <si>
+    <t>(alchan) Tương ớt 14 kg</t>
+  </si>
+  <si>
+    <t>Pho mai</t>
+  </si>
+  <si>
+    <t>PHOMAI</t>
+  </si>
+  <si>
+    <t>NUOC COT DUA WONDERFARM 400ML</t>
+  </si>
+  <si>
+    <t>SD NSPNAM XANH DUONG</t>
+  </si>
+  <si>
+    <t>TUONG OT CHINSU 2.1KG</t>
+  </si>
+  <si>
+    <t>TRA DILMAH TRADITIONAL OOLONG 20*1.5G</t>
+  </si>
+  <si>
+    <t>TRA DILMAH STRAWBERRY 20*1.5G</t>
+  </si>
+  <si>
+    <t>TRA DILMAH MINT 20*1.5G</t>
+  </si>
+  <si>
+    <t>Sườn Non Bò Tây Ban Nha có xương ĐL</t>
+  </si>
+  <si>
+    <t>Sườn Non Bò Canada có xương ĐL</t>
+  </si>
+  <si>
+    <t>Đồ uống SPRITE 1.85L 6 PET SF 2.0</t>
+  </si>
+  <si>
+    <t>Cước taxi tháng 04/2023 #E947</t>
+  </si>
+  <si>
+    <t>Giá đỗ tương 250g</t>
+  </si>
+  <si>
+    <t>Trứng gà tươi vỉ 10 quả</t>
+  </si>
+  <si>
+    <t>Cá đã chế biến Sempio (dạng Gói) cá pollack 200g</t>
+  </si>
+  <si>
+    <t>Ca da che bien dong hop kin khi co ghi nhan an lien Dongwon ca ngu light standard .150g / hop 150g</t>
+  </si>
+  <si>
+    <t>Hat an lien Sinsong food hat vung say 230g</t>
+  </si>
+  <si>
+    <t>Nuoc giai khat khong ga Woongjin vi quyt tu nhien NATURES TANGERINE 1.5L</t>
+  </si>
+  <si>
+    <t>Bia Tiger 330x24B Crt Uncage</t>
+  </si>
+  <si>
+    <t>Bia Heineken 330x24B Crt K2</t>
+  </si>
+  <si>
+    <t>BIA  HÀ NỘI NHỎ 330ml-20 chai</t>
+  </si>
+  <si>
+    <t>Bia Sài gòn xanh két - 330ml</t>
+  </si>
+  <si>
+    <t>Ớt bột dùng để muối kim chi 2,27kg</t>
+  </si>
+  <si>
+    <t>Dasida hạt nêm mì lạnh 300g</t>
+  </si>
+  <si>
+    <t>BG SURF NUOC HOA D.DANG 5.3KG</t>
+  </si>
+  <si>
+    <t>SUA TRAI CAY KUN NHIET DOI 110ML*4</t>
+  </si>
+  <si>
+    <t>SUA CGHL CD 110ML*4</t>
+  </si>
+  <si>
+    <t>SCU TH TOPKID DAU 11</t>
+  </si>
+  <si>
+    <t>SUA CGHL DAU 110ML*4</t>
+  </si>
+  <si>
+    <t>SCU TH TOPKID CAM 11</t>
+  </si>
+  <si>
+    <t>SCA SUSU DAU CHUOI 8</t>
+  </si>
+  <si>
+    <t>SCA SUSU TAO CHUOI 8</t>
+  </si>
+  <si>
+    <t>XX VEALZ 3A CP 500G</t>
+  </si>
+  <si>
+    <t>LO 2 BCDR COLGATE FL</t>
+  </si>
+  <si>
+    <t>SNACK OISHI PHO MAT MIENG 35G</t>
+  </si>
+  <si>
+    <t>SNACK MI ENAAK HUONG GA TUONG AN 30G</t>
+  </si>
+  <si>
+    <t>SNACKMIENAAKHUONGGA</t>
+  </si>
+  <si>
+    <t>XX TT THIT XOT TOM SUA HAWAII MASSAN 78G</t>
+  </si>
+  <si>
+    <t>SAP THOM GLADE OAI HUONG 180G</t>
+  </si>
+  <si>
+    <t>SCU MEN SONG NUTI 65ML*5</t>
+  </si>
+  <si>
+    <t>SNACK KTC LAY'S MY CHIU VI TU NHIEN 60G</t>
+  </si>
+  <si>
+    <t>SNACK CORNCHIP BAP NGOT CAY 35G</t>
+  </si>
+  <si>
+    <t>NM ONG TAY CA HOI 900ML</t>
+  </si>
+  <si>
+    <t>TAM BONG NIVA AZ3 200C</t>
+  </si>
+  <si>
+    <t>BANH TOPPO DAU VANI 40G</t>
+  </si>
+  <si>
+    <t>SNACK OISHI CUA CHUA NGOT 35G</t>
+  </si>
+  <si>
+    <t>SUA BICH CGHL SOCOLA</t>
+  </si>
+  <si>
+    <t>GVS CORELEX KHONG LOI 3L 10C</t>
+  </si>
+  <si>
+    <t>Cải bắp</t>
+  </si>
+  <si>
+    <t>Cải chíp</t>
+  </si>
+  <si>
+    <t>Cải ngọt</t>
+  </si>
+  <si>
+    <t>Cải ngồng</t>
+  </si>
+  <si>
+    <t>Xu hào</t>
+  </si>
+  <si>
+    <t>Nấm đùi gà</t>
+  </si>
+  <si>
+    <t>VT00046</t>
+  </si>
+  <si>
+    <t>Ngô bắp</t>
+  </si>
+  <si>
+    <t>Hẹ</t>
+  </si>
+  <si>
+    <t>Khoai lang</t>
+  </si>
+  <si>
+    <t>VT00043</t>
+  </si>
+  <si>
+    <t>Củ đậu</t>
+  </si>
+  <si>
+    <t>Rau cần</t>
+  </si>
+  <si>
+    <t>Cà chua bi</t>
+  </si>
+  <si>
+    <t>Bắp cải tím</t>
+  </si>
+  <si>
+    <t>Thịt bò ĐL ko xương(ba chỉ)Excel Canada-C22198</t>
+  </si>
+  <si>
+    <t>DUA HAU KHONG HAT</t>
+  </si>
+  <si>
+    <t>BG SURF HUONG XUAN BICH 5.5KG</t>
+  </si>
+  <si>
+    <t>MAT ONG HOA TU NHIEN 650ML</t>
+  </si>
+  <si>
+    <t>TOM THE 40-60 CON/KG</t>
+  </si>
+  <si>
+    <t>W129-NOI DAT DEN NAP CAM 21CMCMM</t>
+  </si>
+  <si>
+    <t>LK-TAY NGHE DAY CHÁT LUỌNG CAO-15X10X6X14.4X1.5</t>
+  </si>
+  <si>
+    <t>LK-THIA COM BANG NHUA MAU TRANG-20.5X5.8X5.814719</t>
+  </si>
+  <si>
+    <t>LK J69- SAN INOX 33.5CMCMCMMTRON MAU XANH 30CM7CM</t>
+  </si>
+  <si>
+    <t>BÔNG TẮM TRÒN ĐÔI BD01</t>
+  </si>
+  <si>
+    <t>Thịt bò ĐL ko xương(lõi nạc vai) SWIFT-19146</t>
+  </si>
+  <si>
+    <t>Mực ống đông lạnh nguyên con</t>
+  </si>
+  <si>
+    <t>(Haechandle) Tương đậu truyền thống 14kg</t>
+  </si>
+  <si>
+    <t>MI KORENO JUMBO TOM 1KG</t>
+  </si>
+  <si>
+    <t>MI KORENO JUMBO KIM CHI 1KG</t>
+  </si>
+  <si>
+    <t>MI KORENO JUMBO HAI SAN CAY 1KG</t>
+  </si>
+  <si>
+    <t>lá kim vụn wando 400g</t>
+  </si>
+  <si>
+    <t>SUA PROSPERITE N.KEM</t>
+  </si>
+  <si>
+    <t>NUI RAU CU TOM KHO 500G - SAFOCO</t>
+  </si>
+  <si>
+    <t>NUI RAU CU SO 500G - SAFOCO</t>
+  </si>
+  <si>
+    <t>Rượu Chumchurum Soju độ cồn 16.5% 360ml</t>
+  </si>
+  <si>
+    <t>Phí dịch vụ tháng 04.2023</t>
+  </si>
+  <si>
+    <t>Phí cho thuê máy lọc nước nóng lạnh model:HB-510 và Thiết bị lọc nước dưới bồn rửa HB-820 tháng 05/2023 theo hợp đồng số HDDV20221201-001/WOW-BAEKJOENG ký ngày 01/12/2022</t>
+  </si>
+  <si>
+    <t>Camera quan sát DS-2CE70DF0T-PF</t>
+  </si>
+  <si>
+    <t>Camera quan sát DS-2CE12D8T-PIRL</t>
+  </si>
+  <si>
+    <t>Đầu ghi hình DS-7208HGHI-K1</t>
+  </si>
+  <si>
+    <t>Cáp RG59/CCS + 2Cx0.4/SP</t>
+  </si>
+  <si>
+    <t>Ổ cứng 120Gb kingston A400 Sata 3 2.5 SSD (SA400S37/120G)</t>
+  </si>
+  <si>
+    <t>CS30 CHAO SAN 30CM SUNHOUSE</t>
+  </si>
+  <si>
+    <t>SBD30 CHAO SBD 30CM SUNHOUSE</t>
+  </si>
+  <si>
+    <t>B.TH.CONG HANDO XANH 100G</t>
+  </si>
+  <si>
+    <t>VIEN TAY BON CAU GIFT 4VIEN 220G</t>
+  </si>
+  <si>
+    <t>V20153 Miến khô 1kg</t>
+  </si>
+  <si>
+    <t>Mì lạnh hàm hương( Misikga) 2 kg</t>
+  </si>
+  <si>
+    <t>Cước taxi tháng 05/2023 #E947</t>
+  </si>
+  <si>
+    <t>Khoai tây</t>
+  </si>
+  <si>
+    <t>KHOAITAY</t>
+  </si>
+  <si>
+    <t>Rau ăn liền Kim chi đóng gói kín khí ăn liền Chongga củ cải CHONGKAK .1KG /gói.</t>
+  </si>
+  <si>
+    <t>Xuc xich ran corndog nhan banh gao, pho mai và ca 500g</t>
+  </si>
+  <si>
+    <t>Mu tat - Jubi Food 75g</t>
+  </si>
+  <si>
+    <t>Lá vừng tấm nước tương Sempio vị cay 70g</t>
+  </si>
+  <si>
+    <t>Kimchi chongga cai thao POGGI 1kg</t>
+  </si>
+  <si>
+    <t>Trà Dongsuh tra xanh gao nau 1.5g*50</t>
+  </si>
+  <si>
+    <t>Rong biển khô Bosung 1kg</t>
+  </si>
+  <si>
+    <t>V10150 Gia vị nấu ăn ngon 20L</t>
+  </si>
+  <si>
+    <t>Dầu mè 1.8l/can</t>
+  </si>
+  <si>
+    <t>Bia Tiger crystal Lon</t>
+  </si>
+  <si>
+    <t>Suất Buffet Người Lớn 388</t>
+  </si>
+  <si>
+    <t>Nước tẩy rửa (Terminator 20L)</t>
+  </si>
+  <si>
+    <t>Đồ uống COKE ZERO 320ML 4x6 SC SF SAVING PACK</t>
+  </si>
+  <si>
+    <t>XUC XICH CQ 1KG</t>
+  </si>
+  <si>
+    <t>SCA SUSU DAU CHUOI 80G</t>
+  </si>
+  <si>
+    <t>SCA SUSU TAO CHUOI 80G</t>
+  </si>
+  <si>
+    <t>SC VNM LUU DO ID 100G*4</t>
+  </si>
+  <si>
+    <t>SANDWICH LAT 300G</t>
+  </si>
+  <si>
+    <t>Thịt ba chỉ lợn không da</t>
+  </si>
+  <si>
+    <t>Chi phí bảo trì thang máy theo hợp đồng LBT644A21HNI từ tháng 3/2023 đến tháng 6/2023</t>
+  </si>
+  <si>
+    <t>Giấy bạc bằng nhôm lá mỏng, độ dầy 0.15mm, dạng cuộn. Mới 100%</t>
+  </si>
+  <si>
+    <t>Giá để đồ dùng nhà bếp bằng thép không gỉ. KT: (35*30*20)cm+-10%. Mới 100%</t>
+  </si>
+  <si>
+    <t>Ki hót rác bằng nhựa tổng hợp, kích thước (20*13*60)cm+-10%. Mới 100%</t>
+  </si>
+  <si>
+    <t>Chổi quét nhà bằng nhựa tổng hợp, cán chổi bằng inox, kích thước (60*25*5)cm+-10%. Mới 100%</t>
+  </si>
+  <si>
+    <t>Đồ dùng nhà bếp: Rây lọc bằng inox, tay cầm bằng nhựa, KT (phi 15*20cm )+-10%. Mới 100%</t>
+  </si>
+  <si>
+    <t>Cây lau nhà cán bằng inox kết hợp nhựa, đầu chổi bằng sợi tổng hợp, không có thùng nước, không xoay 360 độ, KT: (30*140)cm+-10%. Mới 100%</t>
+  </si>
+  <si>
+    <t>Khay giấy lót nồi chiên không dầu, KT (18*5.5)cm+-10%. Mới 100%</t>
+  </si>
+  <si>
+    <t>Khay giấy bạc bằng nhôm lá mỏng dùng để lót nồi chiên không dầu, KT (18*5.5)cm+-10%. Mới 100%</t>
+  </si>
+  <si>
+    <t>Cọ nhà vệ sinh bằng nhựa tổng hợp, kích thước (16*5)cm. Mới 100%</t>
+  </si>
+  <si>
+    <t>Thảm trải ghế bằng vải lông, KT (60*60)cm. Mới 100%</t>
+  </si>
+  <si>
+    <t>NXV DOWNY H.NANG MAI TUI 4L</t>
+  </si>
+  <si>
+    <t>Đồ uống FANTA ORANGE 320ML 4X6 SLEEK CAN SF PROM</t>
+  </si>
+  <si>
+    <t>Nước dùng miến lạnh Dongchimi 340g/gói</t>
+  </si>
+  <si>
+    <t>Bia keg Carlsberg 20L</t>
+  </si>
+  <si>
+    <t>TAO XANH NAM PHI</t>
+  </si>
+  <si>
+    <t>DUONG TRANG CAO CAP</t>
+  </si>
+  <si>
+    <t>BANH OREO VANI 119.6</t>
+  </si>
+  <si>
+    <t>Dẻ sườn bò</t>
+  </si>
+  <si>
+    <t>Phí dịch vụ tháng 05.2023</t>
+  </si>
+  <si>
+    <t>Dịch vụ bảo hiểm xã hội điện tử Bkav IVAN D</t>
+  </si>
+  <si>
+    <t>Mì shin gói 120g</t>
+  </si>
+  <si>
+    <t>( HETBAHN) Cơm ăn liền 210g*36</t>
+  </si>
+  <si>
+    <t>NUI MEIZAN CAO CAP 200G</t>
+  </si>
+  <si>
+    <t>Phí cho thuê máy lọc nước nóng lạnh model:HB-510 và Thiết bị lọc nước dưới bồn rửa HB-820 tháng 06/2023 theo hợp đồng số HDDV20221201-001/WOW-BAEKJOENG ký ngày 01/12/2022</t>
+  </si>
+  <si>
+    <t>Bộ bàn ghế tiếp khách</t>
+  </si>
+  <si>
+    <t>XUONG DUOI HEO- CP_VIETGAP</t>
+  </si>
+  <si>
+    <t>NRC SUNLIGHT THIEN NHIEN TUI 750G</t>
+  </si>
+  <si>
+    <t>S TOPS BRAND VAI NGAM SIRO DUONG 565 G  00G 660G</t>
+  </si>
+  <si>
+    <t>Quạt cây Toshiba F-LSD10(H)</t>
+  </si>
+  <si>
+    <t>Bia Sài gòn xanh két - 330ml - 24 CHAI</t>
+  </si>
+  <si>
+    <t>Bộ bàn ghế gỗ nướng thịt</t>
   </si>
 </sst>
 </file>
@@ -768,10 +2376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AZ2"/>
+  <dimension ref="A1:BA495"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -812,7 +2420,7 @@
     <col min="51" max="51" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -875,162 +2483,2651 @@
       <c r="AX1" s="25"/>
       <c r="AY1" s="25"/>
     </row>
-    <row r="2" spans="1:52" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="U2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="W2" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="X2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD2" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE2" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF2" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="AG2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH2" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI2" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="AJ2" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK2" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="AL2" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="AM2" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="AN2" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="AO2" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="AP2" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="AQ2" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="AR2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AS2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AT2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="AU2" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV2" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="AW2" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="AX2" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="AY2" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>54</v>
+    <row r="2" spans="1:53" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="10"/>
+      <c r="AI2" s="11"/>
+      <c r="AJ2" s="10"/>
+      <c r="AK2" s="10"/>
+      <c r="AL2" s="10"/>
+      <c r="AM2" s="10"/>
+      <c r="AN2" s="10"/>
+      <c r="AO2" s="12"/>
+      <c r="AP2" s="12"/>
+      <c r="AQ2" s="13"/>
+      <c r="AR2" s="4"/>
+      <c r="AS2" s="4"/>
+      <c r="AT2" s="4"/>
+      <c r="AU2" s="14"/>
+      <c r="AV2" s="15"/>
+      <c r="AW2" s="15"/>
+      <c r="AX2" s="15"/>
+      <c r="AY2" s="15"/>
+    </row>
+    <row r="3" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>86</v>
+      </c>
+      <c r="BA31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA35" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>101</v>
+      </c>
+      <c r="BA44" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="46" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>106</v>
+      </c>
+      <c r="BA48" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>109</v>
+      </c>
+      <c r="BA50" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="51" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="52" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>112</v>
+      </c>
+      <c r="BA52" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="53" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="54" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="55" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>116</v>
+      </c>
+      <c r="BA55" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="56" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA56" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="57" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>120</v>
+      </c>
+      <c r="BA57" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="58" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="59" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="60" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="61" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="62" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>126</v>
+      </c>
+      <c r="BA62" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="63" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="64" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>129</v>
+      </c>
+      <c r="BA64" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="81" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
+        <v>147</v>
+      </c>
+      <c r="BA81" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="82" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="83" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="84" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="85" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B85" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="86" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="87" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B87" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="88" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
+        <v>155</v>
+      </c>
+      <c r="BA88" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="89" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B89" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="90" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="91" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="92" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B92" t="s">
+        <v>160</v>
+      </c>
+      <c r="BA92" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="93" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B93" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="94" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B94" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="95" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B95" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="96" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B96" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="97" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B97" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="98" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B98" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="99" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B99" t="s">
+        <v>168</v>
+      </c>
+      <c r="BA99" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="100" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B100" t="s">
+        <v>170</v>
+      </c>
+      <c r="BA100" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="101" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B101" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="102" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B102" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="103" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B103" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="104" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B104" t="s">
+        <v>175</v>
+      </c>
+      <c r="BA104" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="105" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B105" t="s">
+        <v>177</v>
+      </c>
+      <c r="BA105" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="106" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B106" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="107" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B107" t="s">
+        <v>180</v>
+      </c>
+      <c r="BA107" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="108" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B108" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="109" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B109" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="110" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B110" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="111" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B111" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="112" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B112" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="113" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B113" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="114" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B114" t="s">
+        <v>188</v>
+      </c>
+      <c r="BA114" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="115" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B115" t="s">
+        <v>190</v>
+      </c>
+      <c r="BA115" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="116" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B116" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="117" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B117" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="118" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B118" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="119" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B119" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="120" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B120" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="121" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B121" t="s">
+        <v>197</v>
+      </c>
+      <c r="BA121" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="122" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B122" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="123" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B123" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="124" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B124" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="125" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B125" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="126" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B126" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="127" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B127" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="128" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B128" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="129" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B129" t="s">
+        <v>206</v>
+      </c>
+      <c r="BA129" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="130" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B130" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="131" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B131" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="132" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B132" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="133" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B133" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="134" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B134" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="135" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B135" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="136" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B136" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="137" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B137" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="138" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B138" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="139" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B139" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="140" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B140" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="141" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B141" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="142" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B142" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="143" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B143" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="144" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B144" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B145" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B146" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B147" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B148" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B149" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B150" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B151" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B152" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B153" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B154" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B155" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B156" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B157" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B158" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B159" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B160" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B161" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B162" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B163" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B164" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B165" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B166" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B167" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B168" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B169" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B170" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B171" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B172" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B173" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B174" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B175" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B176" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="177" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B177" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="178" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B178" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="179" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B179" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="180" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B180" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="181" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B181" t="s">
+        <v>259</v>
+      </c>
+      <c r="BA181" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="182" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B182" t="s">
+        <v>261</v>
+      </c>
+      <c r="BA182" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="183" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B183" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="184" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B184" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="185" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B185" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="186" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B186" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="187" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B187" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="188" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B188" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="189" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B189" t="s">
+        <v>269</v>
+      </c>
+      <c r="BA189" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="190" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B190" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="191" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B191" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="192" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B192" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="193" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B193" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="194" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B194" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="195" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B195" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="196" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B196" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="197" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B197" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="198" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B198" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="199" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B199" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="200" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B200" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="201" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B201" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="202" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B202" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="203" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B203" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="204" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B204" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="205" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B205" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="206" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B206" t="s">
+        <v>287</v>
+      </c>
+      <c r="BA206" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="207" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B207" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="208" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B208" t="s">
+        <v>290</v>
+      </c>
+      <c r="BA208" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="209" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B209" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="210" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B210" t="s">
+        <v>293</v>
+      </c>
+      <c r="BA210" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="211" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B211" t="s">
+        <v>295</v>
+      </c>
+      <c r="BA211" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="212" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B212" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="213" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B213" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="214" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B214" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="215" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B215" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="216" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B216" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="217" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B217" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="218" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B218" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="219" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B219" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="220" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B220" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="221" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B221" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="222" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B222" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="223" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B223" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="224" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B224" t="s">
+        <v>309</v>
+      </c>
+      <c r="BA224" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="225" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B225" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="226" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B226" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="227" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B227" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="228" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B228" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="229" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B229" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="230" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B230" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="231" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B231" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="232" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B232" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="233" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B233" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="234" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B234" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="235" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B235" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="236" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B236" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="237" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B237" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="238" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B238" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="239" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B239" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="240" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B240" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="241" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B241" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="242" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B242" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="243" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B243" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="244" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B244" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="245" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B245" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="246" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B246" t="s">
+        <v>332</v>
+      </c>
+      <c r="BA246" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="247" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B247" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="248" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B248" t="s">
+        <v>335</v>
+      </c>
+      <c r="BA248" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="249" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B249" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="250" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B250" t="s">
+        <v>338</v>
+      </c>
+      <c r="BA250" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="251" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B251" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="252" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B252" t="s">
+        <v>341</v>
+      </c>
+      <c r="BA252" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="253" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B253" t="s">
+        <v>343</v>
+      </c>
+      <c r="BA253" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="254" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B254" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="255" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B255" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="256" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B256" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="257" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B257" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="258" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B258" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="259" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B259" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="260" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B260" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="261" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B261" t="s">
+        <v>352</v>
+      </c>
+      <c r="BA261" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="262" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B262" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="263" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B263" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="264" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B264" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="265" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B265" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="266" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B266" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="267" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B267" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="268" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B268" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="269" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B269" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="270" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B270" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="271" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B271" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="272" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B272" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="273" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B273" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="274" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B274" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="275" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B275" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="276" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B276" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="277" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B277" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="278" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B278" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="279" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B279" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="280" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B280" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="281" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B281" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="282" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B282" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="283" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B283" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="284" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B284" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="285" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B285" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="286" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B286" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="287" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B287" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="288" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B288" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="289" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B289" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="290" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B290" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="291" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B291" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="292" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B292" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="293" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B293" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="294" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B294" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="295" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B295" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="296" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B296" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="297" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B297" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="298" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B298" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="299" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B299" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="300" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B300" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="301" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B301" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="302" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B302" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="303" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B303" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="304" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B304" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="305" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B305" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="306" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B306" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="307" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B307" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="308" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B308" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="309" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B309" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="310" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B310" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="311" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B311" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="312" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B312" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="313" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B313" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="314" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B314" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="315" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B315" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="316" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B316" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="317" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B317" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="318" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B318" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="319" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B319" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="320" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B320" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="321" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B321" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="322" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B322" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="323" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B323" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="324" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B324" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="325" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B325" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="326" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B326" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="327" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B327" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="328" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B328" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="329" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B329" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="330" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B330" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="331" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B331" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="332" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B332" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="333" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B333" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="334" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B334" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="335" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B335" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="336" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B336" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="337" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B337" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="338" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B338" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="339" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B339" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="340" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B340" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="341" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B341" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="342" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B342" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="343" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B343" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="344" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B344" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="345" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B345" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="346" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B346" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="347" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B347" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="348" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B348" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="349" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B349" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="350" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B350" t="s">
+        <v>442</v>
+      </c>
+      <c r="BA350" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="351" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B351" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="352" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B352" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="353" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B353" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="354" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B354" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="355" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B355" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="356" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B356" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="357" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B357" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="358" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B358" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="359" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B359" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="360" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B360" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="361" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B361" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="362" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B362" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="363" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B363" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="364" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B364" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="365" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B365" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="366" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B366" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="367" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B367" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="368" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B368" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="369" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B369" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="370" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B370" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="371" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B371" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="372" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B372" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="373" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B373" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="374" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B374" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="375" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B375" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="376" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B376" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="377" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B377" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="378" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B378" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="379" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B379" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="380" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B380" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="381" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B381" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="382" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B382" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="383" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B383" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="384" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B384" t="s">
+        <v>477</v>
+      </c>
+      <c r="BA384" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="385" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B385" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="386" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B386" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="387" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B387" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="388" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B388" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="389" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B389" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="390" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B390" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="391" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B391" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="392" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B392" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="393" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B393" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="394" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B394" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="395" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B395" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="396" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B396" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="397" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B397" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="398" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B398" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="399" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B399" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="400" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B400" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="401" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B401" t="s">
+        <v>495</v>
+      </c>
+      <c r="BA401" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="402" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B402" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="403" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B403" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="404" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B404" t="s">
+        <v>499</v>
+      </c>
+      <c r="BA404" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="405" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B405" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="406" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B406" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="407" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B407" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="408" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B408" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="409" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B409" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="410" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B410" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="411" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B411" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="412" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B412" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="413" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B413" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="414" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B414" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="415" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B415" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="416" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B416" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="417" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B417" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="418" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B418" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="419" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B419" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="420" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B420" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="421" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B421" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="422" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B422" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="423" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B423" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="424" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B424" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="425" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B425" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="426" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B426" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="427" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B427" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="428" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B428" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="429" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B429" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="430" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B430" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="431" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B431" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="432" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B432" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="433" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B433" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="434" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B434" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="435" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B435" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="436" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B436" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="437" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B437" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="438" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B438" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="439" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B439" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="440" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B440" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="441" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B441" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="442" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B442" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="443" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B443" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="444" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B444" t="s">
+        <v>540</v>
+      </c>
+      <c r="BA444" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="445" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B445" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="446" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B446" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="447" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B447" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="448" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B448" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="449" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B449" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="450" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B450" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="451" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B451" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="452" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B452" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="453" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B453" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="454" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B454" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="455" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B455" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="456" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B456" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="457" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B457" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="458" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B458" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="459" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B459" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="460" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B460" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="461" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B461" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="462" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B462" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="463" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B463" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="464" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B464" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="465" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B465" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="466" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B466" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="467" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B467" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="468" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B468" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="469" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B469" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="470" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B470" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="471" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B471" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="472" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B472" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="473" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B473" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="474" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B474" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="475" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B475" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="476" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B476" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="477" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B477" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="478" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B478" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="479" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B479" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="480" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B480" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="481" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B481" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="482" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B482" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="483" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B483" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="484" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B484" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="485" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B485" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="486" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B486" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="487" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B487" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="488" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B488" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="489" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B489" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="490" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B490" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="491" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B491" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="492" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B492" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="493" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B493" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="494" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B494" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="495" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B495" t="s">
+        <v>592</v>
       </c>
     </row>
   </sheetData>
